--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -153,6 +154,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -168,7 +170,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,13 +360,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2861</c:v>
+                  <c:v>2862</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2776</c:v>
+                  <c:v>2680</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>85</c:v>
@@ -427,11 +428,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="367879744"/>
-        <c:axId val="367880920"/>
+        <c:axId val="371509272"/>
+        <c:axId val="371505744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="367879744"/>
+        <c:axId val="371509272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,7 +475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367880920"/>
+        <c:crossAx val="371505744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -482,7 +483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="367880920"/>
+        <c:axId val="371505744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -533,7 +534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367879744"/>
+        <c:crossAx val="371509272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1460,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,29 +1479,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="27" x14ac:dyDescent="0.35">
-      <c r="G2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="5" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2"/>
@@ -1531,19 +1532,19 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <f>SUM(C6:C3000)</f>
-        <v>2861</v>
-      </c>
-      <c r="H6" s="6">
+        <v>2862</v>
+      </c>
+      <c r="H6" s="7">
         <f>G6-(I6+J6)</f>
-        <v>2776</v>
-      </c>
-      <c r="I6" s="7">
+        <v>2680</v>
+      </c>
+      <c r="I6" s="8">
         <f>SUM(D6:D3000)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
+        <v>97</v>
+      </c>
+      <c r="J6" s="9">
         <f>SUM(E6:E3000)</f>
         <v>85</v>
       </c>
@@ -1561,10 +1562,10 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
@@ -1949,7 +1950,7 @@
         <v>43934</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2736,7 +2737,7 @@
         <v>95</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E91">
         <v>1</v>

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -360,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2862</c:v>
+                  <c:v>3094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2680</c:v>
+                  <c:v>2736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,11 +427,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="371509272"/>
-        <c:axId val="371505744"/>
+        <c:axId val="370190200"/>
+        <c:axId val="370191768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="371509272"/>
+        <c:axId val="370190200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +474,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371505744"/>
+        <c:crossAx val="370191768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371505744"/>
+        <c:axId val="370191768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371509272"/>
+        <c:crossAx val="370190200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1461,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,19 +1533,19 @@
       </c>
       <c r="G6" s="6">
         <f>SUM(C6:C3000)</f>
-        <v>2862</v>
+        <v>3094</v>
       </c>
       <c r="H6" s="7">
         <f>G6-(I6+J6)</f>
-        <v>2680</v>
+        <v>2736</v>
       </c>
       <c r="I6" s="8">
         <f>SUM(D6:D3000)</f>
-        <v>97</v>
+        <v>272</v>
       </c>
       <c r="J6" s="9">
         <f>SUM(E6:E3000)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -2752,10 +2751,22 @@
       <c r="B93" s="3">
         <v>43992</v>
       </c>
+      <c r="C93">
+        <v>105</v>
+      </c>
+      <c r="D93">
+        <v>175</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
         <v>43993</v>
+      </c>
+      <c r="C94">
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -148,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -169,6 +169,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,16 +360,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3094</c:v>
+                  <c:v>3305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2736</c:v>
+                  <c:v>2052</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>272</c:v>
+                  <c:v>1157</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -427,11 +428,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370190200"/>
-        <c:axId val="370191768"/>
+        <c:axId val="371063000"/>
+        <c:axId val="371063392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370190200"/>
+        <c:axId val="371063000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,7 +475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370191768"/>
+        <c:crossAx val="371063392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -482,7 +483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370191768"/>
+        <c:axId val="371063392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -533,7 +534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370190200"/>
+        <c:crossAx val="371063000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1460,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,19 +1534,19 @@
       </c>
       <c r="G6" s="6">
         <f>SUM(C6:C3000)</f>
-        <v>3094</v>
+        <v>3305</v>
       </c>
       <c r="H6" s="7">
         <f>G6-(I6+J6)</f>
-        <v>2736</v>
+        <v>2052</v>
       </c>
       <c r="I6" s="8">
         <f>SUM(D6:D3000)</f>
-        <v>272</v>
+        <v>1157</v>
       </c>
       <c r="J6" s="9">
         <f>SUM(E6:E3000)</f>
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -1980,7 +1981,7 @@
         <v>9</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2022,7 +2023,7 @@
         <v>16</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2036,7 +2037,7 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -2050,7 +2051,7 @@
         <v>11</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2064,7 +2065,7 @@
         <v>15</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2092,7 +2093,7 @@
         <v>17</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2106,7 +2107,7 @@
         <v>16</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2120,7 +2121,7 @@
         <v>7</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2134,7 +2135,7 @@
         <v>12</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2148,7 +2149,7 @@
         <v>8</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2162,7 +2163,7 @@
         <v>11</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2176,7 +2177,7 @@
         <v>10</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2190,7 +2191,7 @@
         <v>12</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -2204,7 +2205,7 @@
         <v>15</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E53">
         <v>4</v>
@@ -2218,7 +2219,7 @@
         <v>24</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2232,7 +2233,7 @@
         <v>30</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -2246,7 +2247,7 @@
         <v>25</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2260,7 +2261,7 @@
         <v>45</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2274,7 +2275,7 @@
         <v>47</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -2288,7 +2289,7 @@
         <v>25</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E59">
         <v>3</v>
@@ -2302,7 +2303,7 @@
         <v>14</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2316,7 +2317,7 @@
         <v>28</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2330,7 +2331,7 @@
         <v>23</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -2344,7 +2345,7 @@
         <v>28</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2358,7 +2359,7 @@
         <v>15</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -2372,7 +2373,7 @@
         <v>22</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E65">
         <v>4</v>
@@ -2386,7 +2387,7 @@
         <v>21</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -2414,7 +2415,7 @@
         <v>49</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <v>5</v>
@@ -2428,7 +2429,7 @@
         <v>57</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2442,7 +2443,7 @@
         <v>25</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2456,7 +2457,7 @@
         <v>51</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2470,7 +2471,7 @@
         <v>66</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2484,7 +2485,7 @@
         <v>80</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2498,7 +2499,7 @@
         <v>52</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2526,7 +2527,7 @@
         <v>22</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -2540,7 +2541,7 @@
         <v>72</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2554,7 +2555,7 @@
         <v>62</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2568,7 +2569,7 @@
         <v>123</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E79">
         <v>3</v>
@@ -2582,7 +2583,7 @@
         <v>147</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E80">
         <v>3</v>
@@ -2596,7 +2597,7 @@
         <v>127</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -2610,7 +2611,7 @@
         <v>143</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2624,7 +2625,7 @@
         <v>74</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -2638,7 +2639,7 @@
         <v>59</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E84">
         <v>5</v>
@@ -2652,7 +2653,7 @@
         <v>72</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -2662,11 +2663,11 @@
       <c r="B86" s="3">
         <v>43985</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="10">
         <v>123</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E86">
         <v>3</v>
@@ -2680,7 +2681,7 @@
         <v>124</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E87">
         <v>4</v>
@@ -2694,7 +2695,7 @@
         <v>134</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -2708,7 +2709,7 @@
         <v>126</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E89">
         <v>4</v>
@@ -2722,7 +2723,7 @@
         <v>167</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -2746,6 +2747,15 @@
       <c r="B92" s="3">
         <v>43991</v>
       </c>
+      <c r="C92">
+        <v>127</v>
+      </c>
+      <c r="D92">
+        <v>24</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
@@ -2766,12 +2776,27 @@
         <v>43993</v>
       </c>
       <c r="C94">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="D94">
+        <v>44</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
         <v>43994</v>
+      </c>
+      <c r="C95">
+        <v>90</v>
+      </c>
+      <c r="D95">
+        <v>72</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -154,6 +154,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -169,7 +170,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,16 +360,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3305</c:v>
+                  <c:v>3727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2052</c:v>
+                  <c:v>2337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1157</c:v>
+                  <c:v>1286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,11 +428,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="371063000"/>
-        <c:axId val="371063392"/>
+        <c:axId val="369480216"/>
+        <c:axId val="367916752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="371063000"/>
+        <c:axId val="369480216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371063392"/>
+        <c:crossAx val="367916752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371063392"/>
+        <c:axId val="367916752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371063000"/>
+        <c:crossAx val="369480216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,17 +1479,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="27" x14ac:dyDescent="0.35">
-      <c r="G2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="5" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -1527,26 +1527,26 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <f>SUM(C6:C3000)</f>
-        <v>3305</v>
-      </c>
-      <c r="H6" s="7">
+        <v>3727</v>
+      </c>
+      <c r="H6" s="8">
         <f>G6-(I6+J6)</f>
-        <v>2052</v>
-      </c>
-      <c r="I6" s="8">
+        <v>2337</v>
+      </c>
+      <c r="I6" s="9">
         <f>SUM(D6:D3000)</f>
-        <v>1157</v>
-      </c>
-      <c r="J6" s="9">
+        <v>1286</v>
+      </c>
+      <c r="J6" s="10">
         <f>SUM(E6:E3000)</f>
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -1562,10 +1562,10 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
@@ -2663,7 +2663,7 @@
       <c r="B86" s="3">
         <v>43985</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C86" s="5">
         <v>123</v>
       </c>
       <c r="D86">
@@ -2803,55 +2803,84 @@
       <c r="B96" s="3">
         <v>43995</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>152</v>
+      </c>
+      <c r="D96">
+        <v>57</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
         <v>43996</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>137</v>
+      </c>
+      <c r="D97">
+        <v>32</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="3">
+        <v>43997</v>
+      </c>
+      <c r="C98">
+        <v>133</v>
+      </c>
+      <c r="D98">
+        <v>33</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -360,16 +360,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3727</c:v>
+                  <c:v>4044</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2337</c:v>
+                  <c:v>2584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1286</c:v>
+                  <c:v>1353</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,11 +428,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="369480216"/>
-        <c:axId val="367916752"/>
+        <c:axId val="368553576"/>
+        <c:axId val="369198992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="369480216"/>
+        <c:axId val="368553576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367916752"/>
+        <c:crossAx val="369198992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="367916752"/>
+        <c:axId val="369198992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369480216"/>
+        <c:crossAx val="368553576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,26 +1527,26 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="G6" s="7">
         <f>SUM(C6:C3000)</f>
-        <v>3727</v>
+        <v>4044</v>
       </c>
       <c r="H6" s="8">
         <f>G6-(I6+J6)</f>
-        <v>2337</v>
+        <v>2584</v>
       </c>
       <c r="I6" s="9">
         <f>SUM(D6:D3000)</f>
-        <v>1286</v>
+        <v>1353</v>
       </c>
       <c r="J6" s="10">
         <f>SUM(E6:E3000)</f>
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -1939,7 +1939,7 @@
         <v>6</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2842,10 +2842,32 @@
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="3"/>
+      <c r="B99" s="3">
+        <v>43998</v>
+      </c>
+      <c r="C99">
+        <v>133</v>
+      </c>
+      <c r="D99">
+        <v>40</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="3"/>
+      <c r="B100" s="3">
+        <v>43999</v>
+      </c>
+      <c r="C100">
+        <v>184</v>
+      </c>
+      <c r="D100">
+        <v>27</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -360,16 +360,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4044</c:v>
+                  <c:v>4738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2584</c:v>
+                  <c:v>3241</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1353</c:v>
+                  <c:v>1374</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,11 +428,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="368553576"/>
-        <c:axId val="369198992"/>
+        <c:axId val="362542384"/>
+        <c:axId val="362543168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="368553576"/>
+        <c:axId val="362542384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369198992"/>
+        <c:crossAx val="362543168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="369198992"/>
+        <c:axId val="362543168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368553576"/>
+        <c:crossAx val="362542384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,19 +1534,19 @@
       </c>
       <c r="G6" s="7">
         <f>SUM(C6:C3000)</f>
-        <v>4044</v>
+        <v>4738</v>
       </c>
       <c r="H6" s="8">
         <f>G6-(I6+J6)</f>
-        <v>2584</v>
+        <v>3241</v>
       </c>
       <c r="I6" s="9">
         <f>SUM(D6:D3000)</f>
-        <v>1353</v>
+        <v>1374</v>
       </c>
       <c r="J6" s="10">
         <f>SUM(E6:E3000)</f>
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -2870,16 +2870,51 @@
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="3"/>
+      <c r="B101" s="3">
+        <v>44000</v>
+      </c>
+      <c r="C101">
+        <v>213</v>
+      </c>
+      <c r="E101">
+        <v>10</v>
+      </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="3"/>
+      <c r="B102" s="3">
+        <v>43849</v>
+      </c>
+      <c r="C102">
+        <v>117</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="3"/>
+      <c r="B103" s="3">
+        <v>44002</v>
+      </c>
+      <c r="C103">
+        <v>104</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="3"/>
+      <c r="B104" s="3">
+        <v>44003</v>
+      </c>
+      <c r="C104">
+        <v>260</v>
+      </c>
+      <c r="D104">
+        <v>21</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -360,16 +360,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4738</c:v>
+                  <c:v>4797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3241</c:v>
+                  <c:v>3298</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1374</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,11 +428,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="362542384"/>
-        <c:axId val="362543168"/>
+        <c:axId val="363398632"/>
+        <c:axId val="363399016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="362542384"/>
+        <c:axId val="363398632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362543168"/>
+        <c:crossAx val="363399016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="362543168"/>
+        <c:axId val="363399016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362542384"/>
+        <c:crossAx val="363398632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,11 +1534,11 @@
       </c>
       <c r="G6" s="7">
         <f>SUM(C6:C3000)</f>
-        <v>4738</v>
+        <v>4797</v>
       </c>
       <c r="H6" s="8">
         <f>G6-(I6+J6)</f>
-        <v>3241</v>
+        <v>3298</v>
       </c>
       <c r="I6" s="9">
         <f>SUM(D6:D3000)</f>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="J6" s="10">
         <f>SUM(E6:E3000)</f>
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -2917,7 +2917,15 @@
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="3"/>
+      <c r="B105" s="3">
+        <v>44004</v>
+      </c>
+      <c r="C105">
+        <v>59</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -360,13 +360,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4797</c:v>
+                  <c:v>4952</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3298</c:v>
+                  <c:v>3045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1374</c:v>
+                  <c:v>1782</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>125</c:v>
@@ -428,11 +428,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="363398632"/>
-        <c:axId val="363399016"/>
+        <c:axId val="328097056"/>
+        <c:axId val="328099016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="363398632"/>
+        <c:axId val="328097056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363399016"/>
+        <c:crossAx val="328099016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="363399016"/>
+        <c:axId val="328099016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363398632"/>
+        <c:crossAx val="328097056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,15 +1534,15 @@
       </c>
       <c r="G6" s="7">
         <f>SUM(C6:C3000)</f>
-        <v>4797</v>
+        <v>4952</v>
       </c>
       <c r="H6" s="8">
         <f>G6-(I6+J6)</f>
-        <v>3298</v>
+        <v>3045</v>
       </c>
       <c r="I6" s="9">
         <f>SUM(D6:D3000)</f>
-        <v>1374</v>
+        <v>1782</v>
       </c>
       <c r="J6" s="10">
         <f>SUM(E6:E3000)</f>
@@ -2876,6 +2876,9 @@
       <c r="C101">
         <v>213</v>
       </c>
+      <c r="D101">
+        <v>106</v>
+      </c>
       <c r="E101">
         <v>10</v>
       </c>
@@ -2887,6 +2890,9 @@
       <c r="C102">
         <v>117</v>
       </c>
+      <c r="D102">
+        <v>91</v>
+      </c>
       <c r="E102">
         <v>2</v>
       </c>
@@ -2898,6 +2904,9 @@
       <c r="C103">
         <v>104</v>
       </c>
+      <c r="D103">
+        <v>36</v>
+      </c>
       <c r="E103">
         <v>2</v>
       </c>
@@ -2923,12 +2932,26 @@
       <c r="C105">
         <v>59</v>
       </c>
+      <c r="D105">
+        <v>73</v>
+      </c>
       <c r="E105">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="3"/>
+      <c r="B106" s="3">
+        <v>44005</v>
+      </c>
+      <c r="C106">
+        <v>155</v>
+      </c>
+      <c r="D106">
+        <v>102</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -363,13 +363,13 @@
                   <c:v>4952</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3045</c:v>
+                  <c:v>3042</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1782</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,11 +428,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="328097056"/>
-        <c:axId val="328099016"/>
+        <c:axId val="365584200"/>
+        <c:axId val="365584592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="328097056"/>
+        <c:axId val="365584200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328099016"/>
+        <c:crossAx val="365584592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328099016"/>
+        <c:axId val="365584592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328097056"/>
+        <c:crossAx val="365584200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1462,7 +1462,7 @@
   <dimension ref="B2:O300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="H6" s="8">
         <f>G6-(I6+J6)</f>
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I6" s="9">
         <f>SUM(D6:D3000)</f>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="J6" s="10">
         <f>SUM(E6:E3000)</f>
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -2950,7 +2950,7 @@
         <v>102</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -360,16 +360,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4952</c:v>
+                  <c:v>5206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3042</c:v>
+                  <c:v>3253</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1782</c:v>
+                  <c:v>1823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,11 +428,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="365584200"/>
-        <c:axId val="365584592"/>
+        <c:axId val="189860656"/>
+        <c:axId val="189863008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="365584200"/>
+        <c:axId val="189860656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365584592"/>
+        <c:crossAx val="189863008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365584592"/>
+        <c:axId val="189863008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365584200"/>
+        <c:crossAx val="189860656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1462,7 +1462,7 @@
   <dimension ref="B2:O300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,19 +1534,19 @@
       </c>
       <c r="G6" s="7">
         <f>SUM(C6:C3000)</f>
-        <v>4952</v>
+        <v>5206</v>
       </c>
       <c r="H6" s="8">
         <f>G6-(I6+J6)</f>
-        <v>3042</v>
+        <v>3253</v>
       </c>
       <c r="I6" s="9">
         <f>SUM(D6:D3000)</f>
-        <v>1782</v>
+        <v>1823</v>
       </c>
       <c r="J6" s="10">
         <f>SUM(E6:E3000)</f>
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -2954,7 +2954,18 @@
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="3"/>
+      <c r="B107" s="3">
+        <v>44006</v>
+      </c>
+      <c r="C107">
+        <v>254</v>
+      </c>
+      <c r="D107">
+        <v>41</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -148,13 +148,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,10 +362,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5206</c:v>
+                  <c:v>5384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3253</c:v>
+                  <c:v>3431</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1823</c:v>
@@ -428,11 +430,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="189860656"/>
-        <c:axId val="189863008"/>
+        <c:axId val="192807920"/>
+        <c:axId val="192805176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189860656"/>
+        <c:axId val="192807920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189863008"/>
+        <c:crossAx val="192805176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189863008"/>
+        <c:axId val="192805176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189860656"/>
+        <c:crossAx val="192807920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1459,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O300"/>
+  <dimension ref="A2:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,20 +1480,20 @@
     <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="27" x14ac:dyDescent="0.35">
-      <c r="G2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="5" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="27" x14ac:dyDescent="0.35">
+      <c r="G2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1519,7 +1521,10 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6" s="3">
         <v>43905</v>
       </c>
@@ -1532,24 +1537,27 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="9">
         <f>SUM(C6:C3000)</f>
-        <v>5206</v>
-      </c>
-      <c r="H6" s="8">
+        <v>5384</v>
+      </c>
+      <c r="H6" s="10">
         <f>G6-(I6+J6)</f>
-        <v>3253</v>
-      </c>
-      <c r="I6" s="9">
+        <v>3431</v>
+      </c>
+      <c r="I6" s="11">
         <f>SUM(D6:D3000)</f>
         <v>1823</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="12">
         <f>SUM(E6:E3000)</f>
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
       <c r="B7" s="3">
         <v>43906</v>
       </c>
@@ -1562,12 +1570,15 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
       <c r="B8" s="3">
         <v>43907</v>
       </c>
@@ -1581,7 +1592,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
       <c r="B9" s="3">
         <v>43908</v>
       </c>
@@ -1595,7 +1609,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
       <c r="B10" s="3">
         <v>43909</v>
       </c>
@@ -1609,7 +1626,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
       <c r="B11" s="3">
         <v>43910</v>
       </c>
@@ -1623,7 +1643,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
       <c r="B12" s="3">
         <v>43911</v>
       </c>
@@ -1637,7 +1660,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
       <c r="B13" s="3">
         <v>43912</v>
       </c>
@@ -1651,7 +1677,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
       <c r="B14" s="3">
         <v>43913</v>
       </c>
@@ -1665,7 +1694,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
       <c r="B15" s="3">
         <v>43914</v>
       </c>
@@ -1679,7 +1711,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
       <c r="B16" s="3">
         <v>43915</v>
       </c>
@@ -1693,7 +1728,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
       <c r="B17" s="3">
         <v>43916</v>
       </c>
@@ -1707,7 +1745,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
       <c r="B18" s="3">
         <v>43917</v>
       </c>
@@ -1721,7 +1762,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
       <c r="B19" s="3">
         <v>43918</v>
       </c>
@@ -1735,7 +1779,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
       <c r="B20" s="3">
         <v>43919</v>
       </c>
@@ -1749,21 +1796,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7">
         <v>43920</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>8</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
       <c r="B22" s="3">
         <v>43921</v>
       </c>
@@ -1777,7 +1830,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
       <c r="B23" s="3">
         <v>43922</v>
       </c>
@@ -1791,7 +1847,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
       <c r="B24" s="3">
         <v>43923</v>
       </c>
@@ -1805,7 +1864,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
       <c r="B25" s="3">
         <v>43924</v>
       </c>
@@ -1819,7 +1881,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21</v>
+      </c>
       <c r="B26" s="3">
         <v>43925</v>
       </c>
@@ -1833,7 +1898,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22</v>
+      </c>
       <c r="B27" s="3">
         <v>43926</v>
       </c>
@@ -1847,7 +1915,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>23</v>
+      </c>
       <c r="B28" s="3">
         <v>43927</v>
       </c>
@@ -1861,7 +1932,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>24</v>
+      </c>
       <c r="B29" s="3">
         <v>43928</v>
       </c>
@@ -1875,7 +1949,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
       <c r="B30" s="3">
         <v>43929</v>
       </c>
@@ -1889,7 +1966,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>26</v>
+      </c>
       <c r="B31" s="3">
         <v>43930</v>
       </c>
@@ -1903,7 +1983,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>27</v>
+      </c>
       <c r="B32" s="3">
         <v>43931</v>
       </c>
@@ -1917,7 +2000,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>28</v>
+      </c>
       <c r="B33" s="3">
         <v>43932</v>
       </c>
@@ -1931,7 +2017,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>29</v>
+      </c>
       <c r="B34" s="3">
         <v>43933</v>
       </c>
@@ -1945,7 +2034,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30</v>
+      </c>
       <c r="B35" s="3">
         <v>43934</v>
       </c>
@@ -1959,7 +2051,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>31</v>
+      </c>
       <c r="B36" s="3">
         <v>43935</v>
       </c>
@@ -1973,7 +2068,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>32</v>
+      </c>
       <c r="B37" s="3">
         <v>43936</v>
       </c>
@@ -1987,7 +2085,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>33</v>
+      </c>
       <c r="B38" s="3">
         <v>43937</v>
       </c>
@@ -2001,7 +2102,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>34</v>
+      </c>
       <c r="B39" s="3">
         <v>43938</v>
       </c>
@@ -2015,7 +2119,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>35</v>
+      </c>
       <c r="B40" s="3">
         <v>43939</v>
       </c>
@@ -2029,7 +2136,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>36</v>
+      </c>
       <c r="B41" s="3">
         <v>43940</v>
       </c>
@@ -2043,7 +2153,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>37</v>
+      </c>
       <c r="B42" s="3">
         <v>43941</v>
       </c>
@@ -2057,7 +2170,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>37</v>
+      </c>
       <c r="B43" s="3">
         <v>43942</v>
       </c>
@@ -2071,7 +2187,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>38</v>
+      </c>
       <c r="B44" s="3">
         <v>43943</v>
       </c>
@@ -2085,7 +2204,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>40</v>
+      </c>
       <c r="B45" s="3">
         <v>43944</v>
       </c>
@@ -2099,7 +2221,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>41</v>
+      </c>
       <c r="B46" s="3">
         <v>43945</v>
       </c>
@@ -2113,7 +2238,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>42</v>
+      </c>
       <c r="B47" s="3">
         <v>43946</v>
       </c>
@@ -2127,7 +2255,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>43</v>
+      </c>
       <c r="B48" s="3">
         <v>43947</v>
       </c>
@@ -2141,7 +2272,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>44</v>
+      </c>
       <c r="B49" s="3">
         <v>43948</v>
       </c>
@@ -2155,7 +2289,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>45</v>
+      </c>
       <c r="B50" s="3">
         <v>43949</v>
       </c>
@@ -2169,7 +2306,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>46</v>
+      </c>
       <c r="B51" s="3">
         <v>43950</v>
       </c>
@@ -2183,7 +2323,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>47</v>
+      </c>
       <c r="B52" s="3">
         <v>43951</v>
       </c>
@@ -2197,7 +2340,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>48</v>
+      </c>
       <c r="B53" s="3">
         <v>43952</v>
       </c>
@@ -2211,7 +2357,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>49</v>
+      </c>
       <c r="B54" s="3">
         <v>43953</v>
       </c>
@@ -2225,7 +2374,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>50</v>
+      </c>
       <c r="B55" s="3">
         <v>43954</v>
       </c>
@@ -2239,7 +2391,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>51</v>
+      </c>
       <c r="B56" s="3">
         <v>43955</v>
       </c>
@@ -2253,7 +2408,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>52</v>
+      </c>
       <c r="B57" s="3">
         <v>43956</v>
       </c>
@@ -2267,7 +2425,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>53</v>
+      </c>
       <c r="B58" s="3">
         <v>43957</v>
       </c>
@@ -2281,7 +2442,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>54</v>
+      </c>
       <c r="B59" s="3">
         <v>43958</v>
       </c>
@@ -2295,7 +2459,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>55</v>
+      </c>
       <c r="B60" s="3">
         <v>43959</v>
       </c>
@@ -2309,7 +2476,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>56</v>
+      </c>
       <c r="B61" s="3">
         <v>43960</v>
       </c>
@@ -2323,7 +2493,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>57</v>
+      </c>
       <c r="B62" s="3">
         <v>43961</v>
       </c>
@@ -2337,7 +2510,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>58</v>
+      </c>
       <c r="B63" s="3">
         <v>43962</v>
       </c>
@@ -2351,7 +2527,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>59</v>
+      </c>
       <c r="B64" s="3">
         <v>43963</v>
       </c>
@@ -2365,7 +2544,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>60</v>
+      </c>
       <c r="B65" s="3">
         <v>43964</v>
       </c>
@@ -2379,7 +2561,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>61</v>
+      </c>
       <c r="B66" s="3">
         <v>43965</v>
       </c>
@@ -2393,7 +2578,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>62</v>
+      </c>
       <c r="B67" s="3">
         <v>43966</v>
       </c>
@@ -2407,7 +2595,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>63</v>
+      </c>
       <c r="B68" s="3">
         <v>43967</v>
       </c>
@@ -2421,7 +2612,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>64</v>
+      </c>
       <c r="B69" s="3">
         <v>43968</v>
       </c>
@@ -2435,7 +2629,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>65</v>
+      </c>
       <c r="B70" s="3">
         <v>43969</v>
       </c>
@@ -2449,7 +2646,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>66</v>
+      </c>
       <c r="B71" s="3">
         <v>43970</v>
       </c>
@@ -2463,7 +2663,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>67</v>
+      </c>
       <c r="B72" s="3">
         <v>43971</v>
       </c>
@@ -2477,7 +2680,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>68</v>
+      </c>
       <c r="B73" s="3">
         <v>43972</v>
       </c>
@@ -2491,7 +2697,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>69</v>
+      </c>
       <c r="B74" s="3">
         <v>43973</v>
       </c>
@@ -2505,7 +2714,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>70</v>
+      </c>
       <c r="B75" s="3">
         <v>43974</v>
       </c>
@@ -2519,7 +2731,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>71</v>
+      </c>
       <c r="B76" s="3">
         <v>43975</v>
       </c>
@@ -2533,7 +2748,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>72</v>
+      </c>
       <c r="B77" s="3">
         <v>43976</v>
       </c>
@@ -2547,7 +2765,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>73</v>
+      </c>
       <c r="B78" s="3">
         <v>43977</v>
       </c>
@@ -2561,7 +2782,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>74</v>
+      </c>
       <c r="B79" s="3">
         <v>43978</v>
       </c>
@@ -2575,7 +2799,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>75</v>
+      </c>
       <c r="B80" s="3">
         <v>43979</v>
       </c>
@@ -2589,7 +2816,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>76</v>
+      </c>
       <c r="B81" s="3">
         <v>43980</v>
       </c>
@@ -2603,7 +2833,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>77</v>
+      </c>
       <c r="B82" s="3">
         <v>43981</v>
       </c>
@@ -2617,7 +2850,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>78</v>
+      </c>
       <c r="B83" s="3">
         <v>43982</v>
       </c>
@@ -2631,7 +2867,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>79</v>
+      </c>
       <c r="B84" s="3">
         <v>43983</v>
       </c>
@@ -2645,7 +2884,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>80</v>
+      </c>
       <c r="B85" s="3">
         <v>43984</v>
       </c>
@@ -2659,7 +2901,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>81</v>
+      </c>
       <c r="B86" s="3">
         <v>43985</v>
       </c>
@@ -2673,7 +2918,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>82</v>
+      </c>
       <c r="B87" s="3">
         <v>43986</v>
       </c>
@@ -2687,7 +2935,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>83</v>
+      </c>
       <c r="B88" s="3">
         <v>43987</v>
       </c>
@@ -2701,7 +2952,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>84</v>
+      </c>
       <c r="B89" s="3">
         <v>43988</v>
       </c>
@@ -2715,7 +2969,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>85</v>
+      </c>
       <c r="B90" s="3">
         <v>43989</v>
       </c>
@@ -2729,7 +2986,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>86</v>
+      </c>
       <c r="B91" s="3">
         <v>43990</v>
       </c>
@@ -2743,7 +3003,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>87</v>
+      </c>
       <c r="B92" s="3">
         <v>43991</v>
       </c>
@@ -2757,7 +3020,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>88</v>
+      </c>
       <c r="B93" s="3">
         <v>43992</v>
       </c>
@@ -2771,7 +3037,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>89</v>
+      </c>
       <c r="B94" s="3">
         <v>43993</v>
       </c>
@@ -2785,7 +3054,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>90</v>
+      </c>
       <c r="B95" s="3">
         <v>43994</v>
       </c>
@@ -2799,7 +3071,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>91</v>
+      </c>
       <c r="B96" s="3">
         <v>43995</v>
       </c>
@@ -2813,7 +3088,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>92</v>
+      </c>
       <c r="B97" s="3">
         <v>43996</v>
       </c>
@@ -2827,7 +3105,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>93</v>
+      </c>
       <c r="B98" s="3">
         <v>43997</v>
       </c>
@@ -2841,7 +3122,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>94</v>
+      </c>
       <c r="B99" s="3">
         <v>43998</v>
       </c>
@@ -2855,7 +3139,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>95</v>
+      </c>
       <c r="B100" s="3">
         <v>43999</v>
       </c>
@@ -2869,7 +3156,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>96</v>
+      </c>
       <c r="B101" s="3">
         <v>44000</v>
       </c>
@@ -2883,7 +3173,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>97</v>
+      </c>
       <c r="B102" s="3">
         <v>43849</v>
       </c>
@@ -2897,7 +3190,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>98</v>
+      </c>
       <c r="B103" s="3">
         <v>44002</v>
       </c>
@@ -2911,7 +3207,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>99</v>
+      </c>
       <c r="B104" s="3">
         <v>44003</v>
       </c>
@@ -2925,7 +3224,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>100</v>
+      </c>
       <c r="B105" s="3">
         <v>44004</v>
       </c>
@@ -2939,7 +3241,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>101</v>
+      </c>
       <c r="B106" s="3">
         <v>44005</v>
       </c>
@@ -2953,7 +3258,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>102</v>
+      </c>
       <c r="B107" s="3">
         <v>44006</v>
       </c>
@@ -2967,19 +3275,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>103</v>
+      </c>
+      <c r="B108" s="3">
+        <v>44007</v>
+      </c>
+      <c r="C108">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>COVID -19 DAILY DATA</t>
   </si>
@@ -52,12 +52,39 @@
   <si>
     <t>TOTAL CASES</t>
   </si>
+  <si>
+    <t>CUMM/CASES</t>
+  </si>
+  <si>
+    <t>CUMM/RECOVERY</t>
+  </si>
+  <si>
+    <t>CUMM/DEATHS</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>recovery</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +142,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +217,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -145,10 +233,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -157,6 +246,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -173,8 +293,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -337,7 +458,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$5:$J$5</c:f>
+              <c:f>Sheet1!$I$5:$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -357,21 +478,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$6:$J$6</c:f>
+              <c:f>Sheet1!$I$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5384</c:v>
+                  <c:v>5533</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3431</c:v>
+                  <c:v>3491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1823</c:v>
+                  <c:v>1905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -392,7 +513,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$5:$J$5</c:f>
+              <c:f>Sheet1!$I$5:$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -412,7 +533,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$7:$J$7</c:f>
+              <c:f>Sheet1!$I$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -430,11 +551,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="192807920"/>
-        <c:axId val="192805176"/>
+        <c:axId val="183691384"/>
+        <c:axId val="183690992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192807920"/>
+        <c:axId val="183691384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,7 +598,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192805176"/>
+        <c:crossAx val="183690992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -485,7 +606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192805176"/>
+        <c:axId val="183690992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -536,7 +657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192807920"/>
+        <c:crossAx val="183691384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1167,13 +1288,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1162050</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
@@ -1461,39 +1582,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O300"/>
+  <dimension ref="A2:R300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="27" x14ac:dyDescent="0.35">
-      <c r="G2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.35">
+      <c r="I2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1506,22 +1631,42 @@
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M5" s="2"/>
+      <c r="N5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1537,24 +1682,50 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="G6" s="9">
+      <c r="F6" s="13">
+        <f>C6</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="12">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <f>E6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
         <f>SUM(C6:C3000)</f>
-        <v>5384</v>
-      </c>
-      <c r="H6" s="10">
-        <f>G6-(I6+J6)</f>
-        <v>3431</v>
-      </c>
-      <c r="I6" s="11">
+        <v>5533</v>
+      </c>
+      <c r="J6" s="21">
+        <f>I6-(K6+L6)</f>
+        <v>3491</v>
+      </c>
+      <c r="K6" s="22">
         <f>SUM(D6:D3000)</f>
-        <v>1823</v>
-      </c>
-      <c r="J6" s="12">
+        <v>1905</v>
+      </c>
+      <c r="L6" s="23">
         <f>SUM(E6:E3000)</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="N6" t="str">
+        <f>CONCATENATE($Q$6,$R$5,"'",A6,"'",$R$5,$Q$5,F6,$Q$5,H6,$R$6)</f>
+        <v>['1',2,0]</v>
+      </c>
+      <c r="O6" t="str">
+        <f>CONCATENATE($Q$6,$R$5,"'",A6,"'",$R$5,$Q$5,F6,$Q$5,G6,$R$6)</f>
+        <v>['1',2,0]</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1570,12 +1741,32 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F7" s="13">
+        <f>F6+C7</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="12">
+        <f>G6+D7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <f>H6+E7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="N7" t="str">
+        <f t="shared" ref="N7:N70" si="0">CONCATENATE($Q$6,$R$5,"'",A7,"'",$R$5,$Q$5,F7,$Q$5,H7,$R$6)</f>
+        <v>['2',2,0]</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" ref="O7:O70" si="1">CONCATENATE($Q$6,$R$5,"'",A7,"'",$R$5,$Q$5,F7,$Q$5,G7,$R$6)</f>
+        <v>['2',2,0]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1591,8 +1782,36 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F8" s="13">
+        <f t="shared" ref="F8:F71" si="2">F7+C8</f>
+        <v>3</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" ref="G8:G71" si="3">G7+D8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" ref="H8:H71" si="4">H7+E8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="17">
+        <f>(K6/I6)</f>
+        <v>0.3442978492680282</v>
+      </c>
+      <c r="L8" s="17">
+        <f>(L6/I6)</f>
+        <v>2.47605277426351E-2</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>['3',3,0]</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="1"/>
+        <v>['3',3,0]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1608,8 +1827,28 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F9" s="13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>['4',6,0]</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="1"/>
+        <v>['4',6,0]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1625,8 +1864,28 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F10" s="13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>['5',6,0]</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="1"/>
+        <v>['5',6,0]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1642,8 +1901,28 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F11" s="13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>['6',6,0]</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="1"/>
+        <v>['6',6,0]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -1659,8 +1938,28 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F12" s="13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>['7',6,0]</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="1"/>
+        <v>['7',6,0]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1676,8 +1975,28 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F13" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>['8',14,0]</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="1"/>
+        <v>['8',14,0]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -1693,8 +2012,28 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F14" s="13">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>['9',15,0]</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="1"/>
+        <v>['9',15,0]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1710,8 +2049,28 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F15" s="13">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>['10',24,0]</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="1"/>
+        <v>['10',24,0]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -1727,8 +2086,28 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="13">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>['11',27,0]</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="1"/>
+        <v>['11',27,0]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -1744,8 +2123,28 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="13">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>['12',30,1]</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>['12',30,0]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -1761,8 +2160,28 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="13">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>['13',30,1]</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>['13',30,0]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -1778,8 +2197,28 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="13">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>['14',37,1]</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="1"/>
+        <v>['14',37,0]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -1795,8 +2234,28 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="13">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>['15',41,1]</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="1"/>
+        <v>['15',41,0]</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -1812,8 +2271,28 @@
       <c r="E21" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="13">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v>['16',49,1]</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="1"/>
+        <v>['16',49,0]</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -1829,8 +2308,28 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="13">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>['17',58,1]</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="1"/>
+        <v>['17',58,0]</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -1846,8 +2345,28 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="13">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="0"/>
+        <v>['18',80,1]</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="1"/>
+        <v>['18',80,0]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -1863,8 +2382,28 @@
       <c r="E24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="13">
+        <f>F23+C24</f>
+        <v>109</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v>['19',109,3]</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="1"/>
+        <v>['19',109,0]</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -1880,8 +2419,28 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="13">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>['20',121,4]</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="1"/>
+        <v>['20',121,0]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -1897,8 +2456,28 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="13">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="G26" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="0"/>
+        <v>['21',125,4]</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="1"/>
+        <v>['21',125,0]</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -1914,8 +2493,28 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="13">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="G27" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="0"/>
+        <v>['22',141,4]</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="1"/>
+        <v>['22',141,0]</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -1926,13 +2525,33 @@
         <v>16</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="13">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="G28" s="12">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="0"/>
+        <v>['23',157,6]</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="1"/>
+        <v>['23',157,3]</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -1948,8 +2567,28 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="13">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="G29" s="12">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="0"/>
+        <v>['24',171,6]</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="1"/>
+        <v>['24',171,3]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -1960,13 +2599,33 @@
         <v>7</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="13">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H30" s="11">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="0"/>
+        <v>['25',178,6]</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="1"/>
+        <v>['25',178,5]</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -1982,8 +2641,28 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="13">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H31" s="11">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="0"/>
+        <v>['26',183,7]</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="1"/>
+        <v>['26',183,5]</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -1999,8 +2678,28 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="13">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H32" s="11">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="0"/>
+        <v>['27',188,7]</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="1"/>
+        <v>['27',188,5]</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
@@ -2016,8 +2715,28 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="13">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="G33" s="12">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="0"/>
+        <v>['28',190,7]</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="1"/>
+        <v>['28',190,5]</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
@@ -2028,13 +2747,33 @@
         <v>6</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="13">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="G34" s="12">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="0"/>
+        <v>['29',196,8]</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="1"/>
+        <v>['29',196,7]</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30</v>
       </c>
@@ -2050,8 +2789,28 @@
       <c r="E35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="13">
+        <f t="shared" si="2"/>
+        <v>208</v>
+      </c>
+      <c r="G35" s="12">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="0"/>
+        <v>['30',208,9]</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="1"/>
+        <v>['30',208,7]</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>31</v>
       </c>
@@ -2067,8 +2826,28 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="13">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="G36" s="12">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="H36" s="11">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="0"/>
+        <v>['31',216,9]</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="1"/>
+        <v>['31',216,7]</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>32</v>
       </c>
@@ -2084,8 +2863,28 @@
       <c r="E37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="13">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="G37" s="12">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H37" s="11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="0"/>
+        <v>['32',225,10]</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="1"/>
+        <v>['32',225,19]</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>33</v>
       </c>
@@ -2101,8 +2900,28 @@
       <c r="E38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="13">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+      <c r="G38" s="12">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="0"/>
+        <v>['33',234,11]</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="1"/>
+        <v>['33',234,19]</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>34</v>
       </c>
@@ -2118,25 +2937,65 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="F39" s="13">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="G39" s="12">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="0"/>
+        <v>['34',246,11]</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="1"/>
+        <v>['34',246,19]</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="7">
         <v>43939</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="6">
         <v>16</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="6">
         <v>7</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="14">
+        <f t="shared" si="2"/>
+        <v>262</v>
+      </c>
+      <c r="G40" s="15">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="0"/>
+        <v>['35',262,12]</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="1"/>
+        <v>['35',262,26]</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>36</v>
       </c>
@@ -2152,8 +3011,28 @@
       <c r="E41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="13">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="G41" s="12">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="0"/>
+        <v>['36',270,14]</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="1"/>
+        <v>['36',270,33]</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>37</v>
       </c>
@@ -2169,10 +3048,31 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="13">
+        <f t="shared" si="2"/>
+        <v>281</v>
+      </c>
+      <c r="G42" s="12">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="H42" s="11">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="0"/>
+        <v>['37',281,14]</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="1"/>
+        <v>['37',281,35]</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>37</v>
+        <f>A42+1</f>
+        <v>38</v>
       </c>
       <c r="B43" s="3">
         <v>43942</v>
@@ -2186,10 +3086,31 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="13">
+        <f t="shared" si="2"/>
+        <v>296</v>
+      </c>
+      <c r="G43" s="12">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="H43" s="11">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="0"/>
+        <v>['38',296,14]</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="1"/>
+        <v>['38',296,40]</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>38</v>
+        <f t="shared" ref="A44:A107" si="5">A43+1</f>
+        <v>39</v>
       </c>
       <c r="B44" s="3">
         <v>43943</v>
@@ -2203,26 +3124,68 @@
       <c r="E44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="F44" s="13">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="G44" s="12">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B45" s="3">
+      <c r="H44" s="11">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="0"/>
+        <v>['39',303,14]</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="1"/>
+        <v>['39',303,40]</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="B45" s="7">
         <v>43944</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="6">
         <v>17</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="6">
         <v>15</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="G45" s="15">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="H45" s="16">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="0"/>
+        <v>['40',320,14]</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="1"/>
+        <v>['40',320,55]</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="B46" s="3">
@@ -2237,9 +3200,30 @@
       <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="13">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="G46" s="12">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="H46" s="11">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="0"/>
+        <v>['41',336,14]</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="1"/>
+        <v>['41',336,60]</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="B47" s="3">
@@ -2254,9 +3238,30 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="13">
+        <f t="shared" si="2"/>
+        <v>343</v>
+      </c>
+      <c r="G47" s="12">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="H47" s="11">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="0"/>
+        <v>['42',343,14]</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="1"/>
+        <v>['42',343,64]</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="B48" s="3">
@@ -2271,9 +3276,30 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="13">
+        <f t="shared" si="2"/>
+        <v>355</v>
+      </c>
+      <c r="G48" s="12">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="H48" s="11">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="0"/>
+        <v>['43',355,14]</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="1"/>
+        <v>['43',355,72]</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="B49" s="3">
@@ -2288,9 +3314,30 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="13">
+        <f t="shared" si="2"/>
+        <v>363</v>
+      </c>
+      <c r="G49" s="12">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="H49" s="11">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="0"/>
+        <v>['44',363,14]</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="1"/>
+        <v>['44',363,80]</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="B50" s="3">
@@ -2305,9 +3352,30 @@
       <c r="E50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="13">
+        <f t="shared" si="2"/>
+        <v>374</v>
+      </c>
+      <c r="G50" s="12">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="H50" s="11">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="0"/>
+        <v>['45',374,14]</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="1"/>
+        <v>['45',374,90]</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="B51" s="3">
@@ -2322,9 +3390,30 @@
       <c r="E51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="13">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="G51" s="12">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="H51" s="11">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="0"/>
+        <v>['46',384,15]</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="1"/>
+        <v>['46',384,95]</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="B52" s="3">
@@ -2339,9 +3428,30 @@
       <c r="E52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="13">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+      <c r="G52" s="12">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="H52" s="11">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="0"/>
+        <v>['47',396,17]</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="1"/>
+        <v>['47',396,110]</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="B53" s="3">
@@ -2356,9 +3466,30 @@
       <c r="E53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="13">
+        <f t="shared" si="2"/>
+        <v>411</v>
+      </c>
+      <c r="G53" s="12">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="H53" s="11">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="0"/>
+        <v>['48',411,21]</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="1"/>
+        <v>['48',411,116]</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="B54" s="3">
@@ -2373,9 +3504,30 @@
       <c r="E54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="13">
+        <f t="shared" si="2"/>
+        <v>435</v>
+      </c>
+      <c r="G54" s="12">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="H54" s="11">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="0"/>
+        <v>['49',435,22]</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="1"/>
+        <v>['49',435,118]</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="B55" s="3">
@@ -2390,9 +3542,30 @@
       <c r="E55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="13">
+        <f t="shared" si="2"/>
+        <v>465</v>
+      </c>
+      <c r="G55" s="12">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="H55" s="11">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="0"/>
+        <v>['50',465,24]</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="1"/>
+        <v>['50',465,133]</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="B56" s="3">
@@ -2407,9 +3580,30 @@
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="13">
+        <f t="shared" si="2"/>
+        <v>490</v>
+      </c>
+      <c r="G56" s="12">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="H56" s="11">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="0"/>
+        <v>['51',490,24]</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="1"/>
+        <v>['51',490,139]</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="B57" s="3">
@@ -2424,9 +3618,30 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="13">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="G57" s="12">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+      <c r="H57" s="11">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="0"/>
+        <v>['52',535,24]</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="1"/>
+        <v>['52',535,148]</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="B58" s="3">
@@ -2441,9 +3656,30 @@
       <c r="E58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="13">
+        <f t="shared" si="2"/>
+        <v>582</v>
+      </c>
+      <c r="G58" s="12">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+      <c r="H58" s="11">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="0"/>
+        <v>['53',582,26]</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="1"/>
+        <v>['53',582,156]</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="B59" s="3">
@@ -2458,9 +3694,30 @@
       <c r="E59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="13">
+        <f t="shared" si="2"/>
+        <v>607</v>
+      </c>
+      <c r="G59" s="12">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="H59" s="11">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="0"/>
+        <v>['54',607,29]</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="1"/>
+        <v>['54',607,163]</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="B60" s="3">
@@ -2475,9 +3732,30 @@
       <c r="E60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="13">
+        <f t="shared" si="2"/>
+        <v>621</v>
+      </c>
+      <c r="G60" s="12">
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+      <c r="H60" s="11">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="0"/>
+        <v>['55',621,29]</v>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="1"/>
+        <v>['55',621,168]</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="B61" s="3">
@@ -2492,9 +3770,30 @@
       <c r="E61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="13">
+        <f t="shared" si="2"/>
+        <v>649</v>
+      </c>
+      <c r="G61" s="12">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="H61" s="11">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="0"/>
+        <v>['56',649,30]</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="1"/>
+        <v>['56',649,210]</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="B62" s="3">
@@ -2509,9 +3808,30 @@
       <c r="E62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="13">
+        <f t="shared" si="2"/>
+        <v>672</v>
+      </c>
+      <c r="G62" s="12">
+        <f t="shared" si="3"/>
+        <v>222</v>
+      </c>
+      <c r="H62" s="11">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="0"/>
+        <v>['57',672,32]</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="1"/>
+        <v>['57',672,222]</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="B63" s="3">
@@ -2526,9 +3846,30 @@
       <c r="E63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="13">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="G63" s="12">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="H63" s="11">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="0"/>
+        <v>['58',700,33]</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="1"/>
+        <v>['58',700,234]</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="B64" s="3">
@@ -2543,9 +3884,30 @@
       <c r="E64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="13">
+        <f t="shared" si="2"/>
+        <v>715</v>
+      </c>
+      <c r="G64" s="12">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
+      <c r="H64" s="11">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="0"/>
+        <v>['59',715,36]</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="1"/>
+        <v>['59',715,242]</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="B65" s="3">
@@ -2560,9 +3922,30 @@
       <c r="E65">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="13">
+        <f t="shared" si="2"/>
+        <v>737</v>
+      </c>
+      <c r="G65" s="12">
+        <f t="shared" si="3"/>
+        <v>264</v>
+      </c>
+      <c r="H65" s="11">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="0"/>
+        <v>['60',737,40]</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="1"/>
+        <v>['60',737,264]</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="B66" s="3">
@@ -2577,9 +3960,30 @@
       <c r="E66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="13">
+        <f t="shared" si="2"/>
+        <v>758</v>
+      </c>
+      <c r="G66" s="12">
+        <f t="shared" si="3"/>
+        <v>267</v>
+      </c>
+      <c r="H66" s="11">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" si="0"/>
+        <v>['61',758,42]</v>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" si="1"/>
+        <v>['61',758,267]</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="B67" s="3">
@@ -2594,9 +3998,30 @@
       <c r="E67">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="13">
+        <f t="shared" si="2"/>
+        <v>781</v>
+      </c>
+      <c r="G67" s="12">
+        <f t="shared" si="3"/>
+        <v>267</v>
+      </c>
+      <c r="H67" s="11">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" si="0"/>
+        <v>['62',781,45]</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" si="1"/>
+        <v>['62',781,267]</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="B68" s="3">
@@ -2611,9 +4036,30 @@
       <c r="E68">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="13">
+        <f t="shared" si="2"/>
+        <v>830</v>
+      </c>
+      <c r="G68" s="12">
+        <f t="shared" si="3"/>
+        <v>284</v>
+      </c>
+      <c r="H68" s="11">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" si="0"/>
+        <v>['63',830,50]</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="1"/>
+        <v>['63',830,284]</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="B69" s="3">
@@ -2628,9 +4074,30 @@
       <c r="E69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="13">
+        <f t="shared" si="2"/>
+        <v>887</v>
+      </c>
+      <c r="G69" s="12">
+        <f t="shared" si="3"/>
+        <v>296</v>
+      </c>
+      <c r="H69" s="11">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="0"/>
+        <v>['64',887,50]</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="1"/>
+        <v>['64',887,296]</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="B70" s="3">
@@ -2645,9 +4112,30 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="13">
+        <f t="shared" si="2"/>
+        <v>912</v>
+      </c>
+      <c r="G70" s="12">
+        <f t="shared" si="3"/>
+        <v>319</v>
+      </c>
+      <c r="H70" s="11">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="0"/>
+        <v>['65',912,50]</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="1"/>
+        <v>['65',912,319]</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="B71" s="3">
@@ -2662,9 +4150,30 @@
       <c r="E71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="13">
+        <f t="shared" si="2"/>
+        <v>963</v>
+      </c>
+      <c r="G71" s="12">
+        <f t="shared" si="3"/>
+        <v>341</v>
+      </c>
+      <c r="H71" s="11">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="N71" t="str">
+        <f t="shared" ref="N71:N109" si="6">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
+        <v>['66',963,50]</v>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" ref="O71:O109" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,G71,$R$6)</f>
+        <v>['66',963,341]</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="B72" s="3">
@@ -2679,9 +4188,30 @@
       <c r="E72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="13">
+        <f t="shared" ref="F72:F109" si="8">F71+C72</f>
+        <v>1029</v>
+      </c>
+      <c r="G72" s="12">
+        <f t="shared" ref="G72:G109" si="9">G71+D72</f>
+        <v>349</v>
+      </c>
+      <c r="H72" s="11">
+        <f t="shared" ref="H72:H109" si="10">H71+E72</f>
+        <v>50</v>
+      </c>
+      <c r="N72" t="str">
+        <f t="shared" si="6"/>
+        <v>['67',1029,50]</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="7"/>
+        <v>['67',1029,349]</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="B73" s="3">
@@ -2696,9 +4226,30 @@
       <c r="E73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="13">
+        <f t="shared" si="8"/>
+        <v>1109</v>
+      </c>
+      <c r="G73" s="12">
+        <f t="shared" si="9"/>
+        <v>358</v>
+      </c>
+      <c r="H73" s="11">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="N73" t="str">
+        <f t="shared" si="6"/>
+        <v>['68',1109,50]</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="7"/>
+        <v>['68',1109,358]</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="B74" s="3">
@@ -2713,9 +4264,30 @@
       <c r="E74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="13">
+        <f t="shared" si="8"/>
+        <v>1161</v>
+      </c>
+      <c r="G74" s="12">
+        <f t="shared" si="9"/>
+        <v>363</v>
+      </c>
+      <c r="H74" s="11">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="N74" t="str">
+        <f t="shared" si="6"/>
+        <v>['69',1161,50]</v>
+      </c>
+      <c r="O74" t="str">
+        <f t="shared" si="7"/>
+        <v>['69',1161,363]</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="B75" s="3">
@@ -2730,9 +4302,30 @@
       <c r="E75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="13">
+        <f t="shared" si="8"/>
+        <v>1192</v>
+      </c>
+      <c r="G75" s="12">
+        <f t="shared" si="9"/>
+        <v>363</v>
+      </c>
+      <c r="H75" s="11">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="N75" t="str">
+        <f t="shared" si="6"/>
+        <v>['70',1192,50]</v>
+      </c>
+      <c r="O75" t="str">
+        <f t="shared" si="7"/>
+        <v>['70',1192,363]</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="B76" s="3">
@@ -2747,9 +4340,30 @@
       <c r="E76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="13">
+        <f t="shared" si="8"/>
+        <v>1214</v>
+      </c>
+      <c r="G76" s="12">
+        <f t="shared" si="9"/>
+        <v>366</v>
+      </c>
+      <c r="H76" s="11">
+        <f t="shared" si="10"/>
+        <v>51</v>
+      </c>
+      <c r="N76" t="str">
+        <f t="shared" si="6"/>
+        <v>['71',1214,51]</v>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" si="7"/>
+        <v>['71',1214,366]</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="B77" s="3">
@@ -2764,9 +4378,30 @@
       <c r="E77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="13">
+        <f t="shared" si="8"/>
+        <v>1286</v>
+      </c>
+      <c r="G77" s="12">
+        <f t="shared" si="9"/>
+        <v>385</v>
+      </c>
+      <c r="H77" s="11">
+        <f t="shared" si="10"/>
+        <v>52</v>
+      </c>
+      <c r="N77" t="str">
+        <f t="shared" si="6"/>
+        <v>['72',1286,52]</v>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" si="7"/>
+        <v>['72',1286,385]</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="B78" s="3">
@@ -2781,9 +4416,30 @@
       <c r="E78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="13">
+        <f t="shared" si="8"/>
+        <v>1348</v>
+      </c>
+      <c r="G78" s="12">
+        <f t="shared" si="9"/>
+        <v>388</v>
+      </c>
+      <c r="H78" s="11">
+        <f t="shared" si="10"/>
+        <v>52</v>
+      </c>
+      <c r="N78" t="str">
+        <f t="shared" si="6"/>
+        <v>['73',1348,52]</v>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="7"/>
+        <v>['73',1348,388]</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="B79" s="3">
@@ -2798,9 +4454,30 @@
       <c r="E79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="13">
+        <f t="shared" si="8"/>
+        <v>1471</v>
+      </c>
+      <c r="G79" s="12">
+        <f t="shared" si="9"/>
+        <v>391</v>
+      </c>
+      <c r="H79" s="11">
+        <f t="shared" si="10"/>
+        <v>55</v>
+      </c>
+      <c r="N79" t="str">
+        <f t="shared" si="6"/>
+        <v>['74',1471,55]</v>
+      </c>
+      <c r="O79" t="str">
+        <f t="shared" si="7"/>
+        <v>['74',1471,391]</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="B80" s="3">
@@ -2815,9 +4492,30 @@
       <c r="E80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="13">
+        <f t="shared" si="8"/>
+        <v>1618</v>
+      </c>
+      <c r="G80" s="12">
+        <f t="shared" si="9"/>
+        <v>404</v>
+      </c>
+      <c r="H80" s="11">
+        <f t="shared" si="10"/>
+        <v>58</v>
+      </c>
+      <c r="N80" t="str">
+        <f t="shared" si="6"/>
+        <v>['75',1618,58]</v>
+      </c>
+      <c r="O80" t="str">
+        <f t="shared" si="7"/>
+        <v>['75',1618,404]</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="B81" s="3">
@@ -2832,9 +4530,30 @@
       <c r="E81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="13">
+        <f t="shared" si="8"/>
+        <v>1745</v>
+      </c>
+      <c r="G81" s="12">
+        <f t="shared" si="9"/>
+        <v>421</v>
+      </c>
+      <c r="H81" s="11">
+        <f t="shared" si="10"/>
+        <v>62</v>
+      </c>
+      <c r="N81" t="str">
+        <f t="shared" si="6"/>
+        <v>['76',1745,62]</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="7"/>
+        <v>['76',1745,421]</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="B82" s="3">
@@ -2849,9 +4568,30 @@
       <c r="E82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="13">
+        <f t="shared" si="8"/>
+        <v>1888</v>
+      </c>
+      <c r="G82" s="12">
+        <f t="shared" si="9"/>
+        <v>447</v>
+      </c>
+      <c r="H82" s="11">
+        <f t="shared" si="10"/>
+        <v>63</v>
+      </c>
+      <c r="N82" t="str">
+        <f t="shared" si="6"/>
+        <v>['77',1888,63]</v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="7"/>
+        <v>['77',1888,447]</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="B83" s="3">
@@ -2866,9 +4606,30 @@
       <c r="E83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="13">
+        <f t="shared" si="8"/>
+        <v>1962</v>
+      </c>
+      <c r="G83" s="12">
+        <f t="shared" si="9"/>
+        <v>461</v>
+      </c>
+      <c r="H83" s="11">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="N83" t="str">
+        <f t="shared" si="6"/>
+        <v>['78',1962,64]</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="7"/>
+        <v>['78',1962,461]</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="B84" s="3">
@@ -2883,9 +4644,30 @@
       <c r="E84">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="13">
+        <f t="shared" si="8"/>
+        <v>2021</v>
+      </c>
+      <c r="G84" s="12">
+        <f t="shared" si="9"/>
+        <v>465</v>
+      </c>
+      <c r="H84" s="11">
+        <f t="shared" si="10"/>
+        <v>69</v>
+      </c>
+      <c r="N84" t="str">
+        <f t="shared" si="6"/>
+        <v>['79',2021,69]</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="7"/>
+        <v>['79',2021,465]</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="B85" s="3">
@@ -2900,9 +4682,30 @@
       <c r="E85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="13">
+        <f t="shared" si="8"/>
+        <v>2093</v>
+      </c>
+      <c r="G85" s="12">
+        <f t="shared" si="9"/>
+        <v>482</v>
+      </c>
+      <c r="H85" s="11">
+        <f t="shared" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="N85" t="str">
+        <f t="shared" si="6"/>
+        <v>['80',2093,71]</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="7"/>
+        <v>['80',2093,482]</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="B86" s="3">
@@ -2917,9 +4720,30 @@
       <c r="E86">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="13">
+        <f t="shared" si="8"/>
+        <v>2216</v>
+      </c>
+      <c r="G86" s="12">
+        <f t="shared" si="9"/>
+        <v>553</v>
+      </c>
+      <c r="H86" s="11">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="N86" t="str">
+        <f t="shared" si="6"/>
+        <v>['81',2216,74]</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="7"/>
+        <v>['81',2216,553]</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="B87" s="3">
@@ -2934,9 +4758,30 @@
       <c r="E87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="13">
+        <f t="shared" si="8"/>
+        <v>2340</v>
+      </c>
+      <c r="G87" s="12">
+        <f t="shared" si="9"/>
+        <v>592</v>
+      </c>
+      <c r="H87" s="11">
+        <f t="shared" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="N87" t="str">
+        <f t="shared" si="6"/>
+        <v>['82',2340,78]</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="7"/>
+        <v>['82',2340,592]</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="B88" s="3">
@@ -2951,9 +4796,30 @@
       <c r="E88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="13">
+        <f t="shared" si="8"/>
+        <v>2474</v>
+      </c>
+      <c r="G88" s="12">
+        <f t="shared" si="9"/>
+        <v>643</v>
+      </c>
+      <c r="H88" s="11">
+        <f t="shared" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="N88" t="str">
+        <f t="shared" si="6"/>
+        <v>['83',2474,79]</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="7"/>
+        <v>['83',2474,643]</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="B89" s="3">
@@ -2968,9 +4834,30 @@
       <c r="E89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="13">
+        <f t="shared" si="8"/>
+        <v>2600</v>
+      </c>
+      <c r="G89" s="12">
+        <f t="shared" si="9"/>
+        <v>706</v>
+      </c>
+      <c r="H89" s="11">
+        <f t="shared" si="10"/>
+        <v>83</v>
+      </c>
+      <c r="N89" t="str">
+        <f t="shared" si="6"/>
+        <v>['84',2600,83]</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="7"/>
+        <v>['84',2600,706]</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="B90" s="3">
@@ -2985,9 +4872,30 @@
       <c r="E90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="13">
+        <f t="shared" si="8"/>
+        <v>2767</v>
+      </c>
+      <c r="G90" s="12">
+        <f t="shared" si="9"/>
+        <v>752</v>
+      </c>
+      <c r="H90" s="11">
+        <f t="shared" si="10"/>
+        <v>84</v>
+      </c>
+      <c r="N90" t="str">
+        <f t="shared" si="6"/>
+        <v>['85',2767,84]</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="7"/>
+        <v>['85',2767,752]</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="B91" s="3">
@@ -3002,9 +4910,30 @@
       <c r="E91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="13">
+        <f t="shared" si="8"/>
+        <v>2862</v>
+      </c>
+      <c r="G91" s="12">
+        <f t="shared" si="9"/>
+        <v>849</v>
+      </c>
+      <c r="H91" s="11">
+        <f t="shared" si="10"/>
+        <v>85</v>
+      </c>
+      <c r="N91" t="str">
+        <f t="shared" si="6"/>
+        <v>['86',2862,85]</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="7"/>
+        <v>['86',2862,849]</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="B92" s="3">
@@ -3019,9 +4948,30 @@
       <c r="E92">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="13">
+        <f t="shared" si="8"/>
+        <v>2989</v>
+      </c>
+      <c r="G92" s="12">
+        <f t="shared" si="9"/>
+        <v>873</v>
+      </c>
+      <c r="H92" s="11">
+        <f t="shared" si="10"/>
+        <v>88</v>
+      </c>
+      <c r="N92" t="str">
+        <f t="shared" si="6"/>
+        <v>['87',2989,88]</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="7"/>
+        <v>['87',2989,873]</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="B93" s="3">
@@ -3036,9 +4986,30 @@
       <c r="E93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="13">
+        <f t="shared" si="8"/>
+        <v>3094</v>
+      </c>
+      <c r="G93" s="12">
+        <f t="shared" si="9"/>
+        <v>1048</v>
+      </c>
+      <c r="H93" s="11">
+        <f t="shared" si="10"/>
+        <v>89</v>
+      </c>
+      <c r="N93" t="str">
+        <f t="shared" si="6"/>
+        <v>['88',3094,89]</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="7"/>
+        <v>['88',3094,1048]</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="B94" s="3">
@@ -3053,9 +5024,30 @@
       <c r="E94">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="13">
+        <f t="shared" si="8"/>
+        <v>3215</v>
+      </c>
+      <c r="G94" s="12">
+        <f t="shared" si="9"/>
+        <v>1092</v>
+      </c>
+      <c r="H94" s="11">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="N94" t="str">
+        <f t="shared" si="6"/>
+        <v>['89',3215,92]</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="7"/>
+        <v>['89',3215,1092]</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="B95" s="3">
@@ -3070,9 +5062,30 @@
       <c r="E95">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="13">
+        <f t="shared" si="8"/>
+        <v>3305</v>
+      </c>
+      <c r="G95" s="12">
+        <f t="shared" si="9"/>
+        <v>1164</v>
+      </c>
+      <c r="H95" s="11">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
+      <c r="N95" t="str">
+        <f t="shared" si="6"/>
+        <v>['90',3305,96]</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="7"/>
+        <v>['90',3305,1164]</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="B96" s="3">
@@ -3087,9 +5100,30 @@
       <c r="E96">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="13">
+        <f t="shared" si="8"/>
+        <v>3457</v>
+      </c>
+      <c r="G96" s="12">
+        <f t="shared" si="9"/>
+        <v>1221</v>
+      </c>
+      <c r="H96" s="11">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="N96" t="str">
+        <f t="shared" si="6"/>
+        <v>['91',3457,100]</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="7"/>
+        <v>['91',3457,1221]</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="B97" s="3">
@@ -3104,9 +5138,30 @@
       <c r="E97">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="13">
+        <f t="shared" si="8"/>
+        <v>3594</v>
+      </c>
+      <c r="G97" s="12">
+        <f t="shared" si="9"/>
+        <v>1253</v>
+      </c>
+      <c r="H97" s="11">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+      <c r="N97" t="str">
+        <f t="shared" si="6"/>
+        <v>['92',3594,103]</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="7"/>
+        <v>['92',3594,1253]</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="B98" s="3">
@@ -3121,9 +5176,30 @@
       <c r="E98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="13">
+        <f t="shared" si="8"/>
+        <v>3727</v>
+      </c>
+      <c r="G98" s="12">
+        <f t="shared" si="9"/>
+        <v>1286</v>
+      </c>
+      <c r="H98" s="11">
+        <f t="shared" si="10"/>
+        <v>104</v>
+      </c>
+      <c r="N98" t="str">
+        <f t="shared" si="6"/>
+        <v>['93',3727,104]</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="7"/>
+        <v>['93',3727,1286]</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="B99" s="3">
@@ -3138,9 +5214,30 @@
       <c r="E99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="13">
+        <f t="shared" si="8"/>
+        <v>3860</v>
+      </c>
+      <c r="G99" s="12">
+        <f t="shared" si="9"/>
+        <v>1326</v>
+      </c>
+      <c r="H99" s="11">
+        <f t="shared" si="10"/>
+        <v>105</v>
+      </c>
+      <c r="N99" t="str">
+        <f t="shared" si="6"/>
+        <v>['94',3860,105]</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="7"/>
+        <v>['94',3860,1326]</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="B100" s="3">
@@ -3155,9 +5252,30 @@
       <c r="E100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="13">
+        <f t="shared" si="8"/>
+        <v>4044</v>
+      </c>
+      <c r="G100" s="12">
+        <f t="shared" si="9"/>
+        <v>1353</v>
+      </c>
+      <c r="H100" s="11">
+        <f t="shared" si="10"/>
+        <v>107</v>
+      </c>
+      <c r="N100" t="str">
+        <f t="shared" si="6"/>
+        <v>['95',4044,107]</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="7"/>
+        <v>['95',4044,1353]</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="B101" s="3">
@@ -3172,9 +5290,30 @@
       <c r="E101">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="13">
+        <f t="shared" si="8"/>
+        <v>4257</v>
+      </c>
+      <c r="G101" s="12">
+        <f t="shared" si="9"/>
+        <v>1459</v>
+      </c>
+      <c r="H101" s="11">
+        <f t="shared" si="10"/>
+        <v>117</v>
+      </c>
+      <c r="N101" t="str">
+        <f t="shared" si="6"/>
+        <v>['96',4257,117]</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="7"/>
+        <v>['96',4257,1459]</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="B102" s="3">
@@ -3189,9 +5328,30 @@
       <c r="E102">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="13">
+        <f t="shared" si="8"/>
+        <v>4374</v>
+      </c>
+      <c r="G102" s="12">
+        <f t="shared" si="9"/>
+        <v>1550</v>
+      </c>
+      <c r="H102" s="11">
+        <f t="shared" si="10"/>
+        <v>119</v>
+      </c>
+      <c r="N102" t="str">
+        <f t="shared" si="6"/>
+        <v>['97',4374,119]</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="7"/>
+        <v>['97',4374,1550]</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="B103" s="3">
@@ -3206,9 +5366,30 @@
       <c r="E103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="13">
+        <f t="shared" si="8"/>
+        <v>4478</v>
+      </c>
+      <c r="G103" s="12">
+        <f t="shared" si="9"/>
+        <v>1586</v>
+      </c>
+      <c r="H103" s="11">
+        <f t="shared" si="10"/>
+        <v>121</v>
+      </c>
+      <c r="N103" t="str">
+        <f t="shared" si="6"/>
+        <v>['98',4478,121]</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="7"/>
+        <v>['98',4478,1586]</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="B104" s="3">
@@ -3223,9 +5404,30 @@
       <c r="E104">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="13">
+        <f t="shared" si="8"/>
+        <v>4738</v>
+      </c>
+      <c r="G104" s="12">
+        <f t="shared" si="9"/>
+        <v>1607</v>
+      </c>
+      <c r="H104" s="11">
+        <f t="shared" si="10"/>
+        <v>123</v>
+      </c>
+      <c r="N104" t="str">
+        <f t="shared" si="6"/>
+        <v>['99',4738,123]</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="7"/>
+        <v>['99',4738,1607]</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="B105" s="3">
@@ -3240,9 +5442,30 @@
       <c r="E105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="13">
+        <f t="shared" si="8"/>
+        <v>4797</v>
+      </c>
+      <c r="G105" s="12">
+        <f t="shared" si="9"/>
+        <v>1680</v>
+      </c>
+      <c r="H105" s="11">
+        <f t="shared" si="10"/>
+        <v>125</v>
+      </c>
+      <c r="N105" t="str">
+        <f t="shared" si="6"/>
+        <v>['100',4797,125]</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="7"/>
+        <v>['100',4797,1680]</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="B106" s="3">
@@ -3257,9 +5480,30 @@
       <c r="E106">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="13">
+        <f t="shared" si="8"/>
+        <v>4952</v>
+      </c>
+      <c r="G106" s="12">
+        <f t="shared" si="9"/>
+        <v>1782</v>
+      </c>
+      <c r="H106" s="11">
+        <f t="shared" si="10"/>
+        <v>128</v>
+      </c>
+      <c r="N106" t="str">
+        <f t="shared" si="6"/>
+        <v>['101',4952,128]</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="7"/>
+        <v>['101',4952,1782]</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="B107" s="3">
@@ -3274,9 +5518,30 @@
       <c r="E107">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="13">
+        <f t="shared" si="8"/>
+        <v>5206</v>
+      </c>
+      <c r="G107" s="12">
+        <f t="shared" si="9"/>
+        <v>1823</v>
+      </c>
+      <c r="H107" s="11">
+        <f t="shared" si="10"/>
+        <v>130</v>
+      </c>
+      <c r="N107" t="str">
+        <f t="shared" si="6"/>
+        <v>['102',5206,130]</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="7"/>
+        <v>['102',5206,1823]</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
+        <f t="shared" ref="A108" si="11">A107+1</f>
         <v>103</v>
       </c>
       <c r="B108" s="3">
@@ -3285,17 +5550,77 @@
       <c r="C108">
         <v>178</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>34</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108" s="13">
+        <f t="shared" si="8"/>
+        <v>5384</v>
+      </c>
+      <c r="G108" s="12">
+        <f t="shared" si="9"/>
+        <v>1857</v>
+      </c>
+      <c r="H108" s="11">
+        <f t="shared" si="10"/>
+        <v>132</v>
+      </c>
+      <c r="N108" t="str">
+        <f t="shared" si="6"/>
+        <v>['103',5384,132]</v>
+      </c>
+      <c r="O108" t="str">
+        <f t="shared" si="7"/>
+        <v>['103',5384,1857]</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>104</v>
+      </c>
+      <c r="B109" s="3">
+        <v>44008</v>
+      </c>
+      <c r="C109">
+        <v>149</v>
+      </c>
+      <c r="D109">
+        <v>48</v>
+      </c>
+      <c r="E109">
+        <v>5</v>
+      </c>
+      <c r="F109" s="13">
+        <f>F108+C109</f>
+        <v>5533</v>
+      </c>
+      <c r="G109" s="12">
+        <f t="shared" si="9"/>
+        <v>1905</v>
+      </c>
+      <c r="H109" s="11">
+        <f t="shared" si="10"/>
+        <v>137</v>
+      </c>
+      <c r="N109" t="str">
+        <f t="shared" si="6"/>
+        <v>['104',5533,137]</v>
+      </c>
+      <c r="O109" t="str">
+        <f t="shared" si="7"/>
+        <v>['104',5533,1905]</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
@@ -3864,11 +6189,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I2:Q2"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>COVID -19 DAILY DATA</t>
   </si>
@@ -79,12 +79,162 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t>CASES PER COUNTY</t>
+  </si>
+  <si>
+    <t>COUNTY</t>
+  </si>
+  <si>
+    <t>SERIAL</t>
+  </si>
+  <si>
+    <t>NAIROBI</t>
+  </si>
+  <si>
+    <t>MOMBASA</t>
+  </si>
+  <si>
+    <t>KWALE</t>
+  </si>
+  <si>
+    <t>KILIFI</t>
+  </si>
+  <si>
+    <t>TANA RIVER</t>
+  </si>
+  <si>
+    <t>LAMU</t>
+  </si>
+  <si>
+    <t>TAITA TAVETA</t>
+  </si>
+  <si>
+    <t>GARISSA</t>
+  </si>
+  <si>
+    <t>WAJIR</t>
+  </si>
+  <si>
+    <t>MANDERA</t>
+  </si>
+  <si>
+    <t>MARSABIT</t>
+  </si>
+  <si>
+    <t>ISIOLO</t>
+  </si>
+  <si>
+    <t>MERU</t>
+  </si>
+  <si>
+    <t>THARAKANITHI</t>
+  </si>
+  <si>
+    <t>EMBU</t>
+  </si>
+  <si>
+    <t>KITUI</t>
+  </si>
+  <si>
+    <t>MACHAKOS</t>
+  </si>
+  <si>
+    <t>MAKUENI</t>
+  </si>
+  <si>
+    <t>NYANDARUS</t>
+  </si>
+  <si>
+    <t>NYERI</t>
+  </si>
+  <si>
+    <t>KIRINYAGA</t>
+  </si>
+  <si>
+    <t>MURANGA</t>
+  </si>
+  <si>
+    <t>KIAMBU</t>
+  </si>
+  <si>
+    <t>TURKANA</t>
+  </si>
+  <si>
+    <t>WEST POKOT</t>
+  </si>
+  <si>
+    <t>SAMBURU</t>
+  </si>
+  <si>
+    <t>TRANS NZOIA</t>
+  </si>
+  <si>
+    <t>UASIN GISHU</t>
+  </si>
+  <si>
+    <t>ELGEYO MARAKET</t>
+  </si>
+  <si>
+    <t>NANDI</t>
+  </si>
+  <si>
+    <t>BARINGO</t>
+  </si>
+  <si>
+    <t>LAIKIPIA</t>
+  </si>
+  <si>
+    <t>NAKURU</t>
+  </si>
+  <si>
+    <t>NAROK</t>
+  </si>
+  <si>
+    <t>KAJIADO</t>
+  </si>
+  <si>
+    <t>BOMET</t>
+  </si>
+  <si>
+    <t>KAKAMEGA</t>
+  </si>
+  <si>
+    <t>VIHIGA</t>
+  </si>
+  <si>
+    <t>BUNGOMA</t>
+  </si>
+  <si>
+    <t>BUSIA</t>
+  </si>
+  <si>
+    <t>SIAYA</t>
+  </si>
+  <si>
+    <t>KISUMU</t>
+  </si>
+  <si>
+    <t>HOMA BAY</t>
+  </si>
+  <si>
+    <t>MIGORI</t>
+  </si>
+  <si>
+    <t>KISII</t>
+  </si>
+  <si>
+    <t>NYAMIRA</t>
+  </si>
+  <si>
+    <t>KERICHO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +347,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +388,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -237,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -277,6 +448,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,16 +661,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5533</c:v>
+                  <c:v>5811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3491</c:v>
+                  <c:v>3734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1905</c:v>
+                  <c:v>1936</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,11 +729,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="183691384"/>
-        <c:axId val="183690992"/>
+        <c:axId val="361901824"/>
+        <c:axId val="361902216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183691384"/>
+        <c:axId val="361901824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,7 +776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183690992"/>
+        <c:crossAx val="361902216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -606,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183690992"/>
+        <c:axId val="361902216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,7 +835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183691384"/>
+        <c:crossAx val="361901824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1584,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="J109" sqref="J109"/>
+    <sheetView tabSelected="1" topLeftCell="E94" workbookViewId="0">
+      <selection activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,17 +1784,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.35">
-      <c r="I2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
+      <c r="I2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -1694,21 +1872,21 @@
         <f>E6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="23">
         <f>SUM(C6:C3000)</f>
-        <v>5533</v>
-      </c>
-      <c r="J6" s="21">
+        <v>5811</v>
+      </c>
+      <c r="J6" s="24">
         <f>I6-(K6+L6)</f>
-        <v>3491</v>
-      </c>
-      <c r="K6" s="22">
+        <v>3734</v>
+      </c>
+      <c r="K6" s="25">
         <f>SUM(D6:D3000)</f>
-        <v>1905</v>
-      </c>
-      <c r="L6" s="23">
+        <v>1936</v>
+      </c>
+      <c r="L6" s="26">
         <f>SUM(E6:E3000)</f>
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N6" t="str">
         <f>CONCATENATE($Q$6,$R$5,"'",A6,"'",$R$5,$Q$5,F6,$Q$5,H6,$R$6)</f>
@@ -1753,10 +1931,10 @@
         <f>H6+E7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
       <c r="N7" t="str">
         <f t="shared" ref="N7:N70" si="0">CONCATENATE($Q$6,$R$5,"'",A7,"'",$R$5,$Q$5,F7,$Q$5,H7,$R$6)</f>
         <v>['2',2,0]</v>
@@ -1796,11 +1974,11 @@
       </c>
       <c r="K8" s="17">
         <f>(K6/I6)</f>
-        <v>0.3442978492680282</v>
+        <v>0.33316124591292379</v>
       </c>
       <c r="L8" s="17">
         <f>(L6/I6)</f>
-        <v>2.47605277426351E-2</v>
+        <v>2.4264326277749097E-2</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
@@ -2440,7 +2618,7 @@
         <v>['20',121,0]</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2468,6 +2646,11 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
+      <c r="J26" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
       <c r="N26" t="str">
         <f t="shared" si="0"/>
         <v>['21',125,4]</v>
@@ -2505,6 +2688,15 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
+      <c r="J27" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>8</v>
+      </c>
       <c r="N27" t="str">
         <f t="shared" si="0"/>
         <v>['22',141,4]</v>
@@ -2542,6 +2734,12 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
+      <c r="J28" s="19">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
       <c r="N28" t="str">
         <f t="shared" si="0"/>
         <v>['23',157,6]</v>
@@ -2579,6 +2777,13 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
+      <c r="J29" s="19">
+        <f>J28+1</f>
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
       <c r="N29" t="str">
         <f t="shared" si="0"/>
         <v>['24',171,6]</v>
@@ -2616,6 +2821,13 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
+      <c r="J30" s="19">
+        <f>J29+1</f>
+        <v>3</v>
+      </c>
+      <c r="K30" t="s">
+        <v>23</v>
+      </c>
       <c r="N30" t="str">
         <f t="shared" si="0"/>
         <v>['25',178,6]</v>
@@ -2653,6 +2865,13 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
+      <c r="J31" s="19">
+        <f t="shared" ref="J31:J74" si="5">J30+1</f>
+        <v>4</v>
+      </c>
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
       <c r="N31" t="str">
         <f t="shared" si="0"/>
         <v>['26',183,7]</v>
@@ -2690,6 +2909,13 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
+      <c r="J32" s="19">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K32" t="s">
+        <v>25</v>
+      </c>
       <c r="N32" t="str">
         <f t="shared" si="0"/>
         <v>['27',188,7]</v>
@@ -2727,6 +2953,13 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
+      <c r="J33" s="19">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
       <c r="N33" t="str">
         <f t="shared" si="0"/>
         <v>['28',190,7]</v>
@@ -2764,6 +2997,13 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
+      <c r="J34" s="19">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
       <c r="N34" t="str">
         <f t="shared" si="0"/>
         <v>['29',196,8]</v>
@@ -2801,6 +3041,13 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
+      <c r="J35" s="19">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
       <c r="N35" t="str">
         <f t="shared" si="0"/>
         <v>['30',208,9]</v>
@@ -2838,6 +3085,13 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
+      <c r="J36" s="19">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="K36" t="s">
+        <v>29</v>
+      </c>
       <c r="N36" t="str">
         <f t="shared" si="0"/>
         <v>['31',216,9]</v>
@@ -2875,6 +3129,13 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
+      <c r="J37" s="19">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K37" t="s">
+        <v>30</v>
+      </c>
       <c r="N37" t="str">
         <f t="shared" si="0"/>
         <v>['32',225,10]</v>
@@ -2912,6 +3173,13 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
+      <c r="J38" s="19">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="K38" t="s">
+        <v>31</v>
+      </c>
       <c r="N38" t="str">
         <f t="shared" si="0"/>
         <v>['33',234,11]</v>
@@ -2949,6 +3217,13 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
+      <c r="J39" s="19">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="K39" t="s">
+        <v>32</v>
+      </c>
       <c r="N39" t="str">
         <f t="shared" si="0"/>
         <v>['34',246,11]</v>
@@ -2986,6 +3261,15 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
+      <c r="I40"/>
+      <c r="J40" s="19">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40"/>
       <c r="N40" t="str">
         <f t="shared" si="0"/>
         <v>['35',262,12]</v>
@@ -3023,6 +3307,13 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
+      <c r="J41" s="19">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="N41" t="str">
         <f t="shared" si="0"/>
         <v>['36',270,14]</v>
@@ -3059,6 +3350,13 @@
       <c r="H42" s="11">
         <f t="shared" si="4"/>
         <v>14</v>
+      </c>
+      <c r="J42" s="19">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="0"/>
@@ -3098,6 +3396,13 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
+      <c r="J43" s="19">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="N43" t="str">
         <f t="shared" si="0"/>
         <v>['38',296,14]</v>
@@ -3109,7 +3414,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" ref="A44:A107" si="5">A43+1</f>
+        <f t="shared" ref="A44:A107" si="6">A43+1</f>
         <v>39</v>
       </c>
       <c r="B44" s="3">
@@ -3136,6 +3441,13 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
+      <c r="J44" s="19">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="N44" t="str">
         <f t="shared" si="0"/>
         <v>['39',303,14]</v>
@@ -3147,7 +3459,7 @@
     </row>
     <row r="45" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="B45" s="7">
@@ -3174,6 +3486,15 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
+      <c r="I45"/>
+      <c r="J45" s="19">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45"/>
       <c r="N45" t="str">
         <f t="shared" si="0"/>
         <v>['40',320,14]</v>
@@ -3185,7 +3506,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="B46" s="3">
@@ -3212,6 +3533,13 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
+      <c r="J46" s="19">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="N46" t="str">
         <f t="shared" si="0"/>
         <v>['41',336,14]</v>
@@ -3223,7 +3551,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="B47" s="3">
@@ -3250,6 +3578,13 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
+      <c r="J47" s="19">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="N47" t="str">
         <f t="shared" si="0"/>
         <v>['42',343,14]</v>
@@ -3261,7 +3596,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="B48" s="3">
@@ -3288,6 +3623,13 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
+      <c r="J48" s="19">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="N48" t="str">
         <f t="shared" si="0"/>
         <v>['43',355,14]</v>
@@ -3299,7 +3641,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="B49" s="3">
@@ -3326,6 +3668,13 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
+      <c r="J49" s="19">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="N49" t="str">
         <f t="shared" si="0"/>
         <v>['44',363,14]</v>
@@ -3337,7 +3686,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="B50" s="3">
@@ -3364,6 +3713,13 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
+      <c r="J50" s="19">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="N50" t="str">
         <f t="shared" si="0"/>
         <v>['45',374,14]</v>
@@ -3375,7 +3731,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="B51" s="3">
@@ -3402,6 +3758,13 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
+      <c r="J51" s="19">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="N51" t="str">
         <f t="shared" si="0"/>
         <v>['46',384,15]</v>
@@ -3413,7 +3776,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="B52" s="3">
@@ -3440,6 +3803,13 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
+      <c r="J52" s="19">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="N52" t="str">
         <f t="shared" si="0"/>
         <v>['47',396,17]</v>
@@ -3451,7 +3821,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="B53" s="3">
@@ -3478,6 +3848,13 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
+      <c r="J53" s="19">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="N53" t="str">
         <f t="shared" si="0"/>
         <v>['48',411,21]</v>
@@ -3489,7 +3866,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="B54" s="3">
@@ -3516,6 +3893,13 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
+      <c r="J54" s="19">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="N54" t="str">
         <f t="shared" si="0"/>
         <v>['49',435,22]</v>
@@ -3527,7 +3911,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="B55" s="3">
@@ -3554,6 +3938,13 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
+      <c r="J55" s="19">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="N55" t="str">
         <f t="shared" si="0"/>
         <v>['50',465,24]</v>
@@ -3565,7 +3956,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="B56" s="3">
@@ -3592,6 +3983,13 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
+      <c r="J56" s="19">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="N56" t="str">
         <f t="shared" si="0"/>
         <v>['51',490,24]</v>
@@ -3603,7 +4001,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="B57" s="3">
@@ -3630,6 +4028,13 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
+      <c r="J57" s="19">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="N57" t="str">
         <f t="shared" si="0"/>
         <v>['52',535,24]</v>
@@ -3641,7 +4046,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="B58" s="3">
@@ -3668,6 +4073,13 @@
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
+      <c r="J58" s="19">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="N58" t="str">
         <f t="shared" si="0"/>
         <v>['53',582,26]</v>
@@ -3679,7 +4091,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="B59" s="3">
@@ -3706,6 +4118,13 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
+      <c r="J59" s="19">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="N59" t="str">
         <f t="shared" si="0"/>
         <v>['54',607,29]</v>
@@ -3717,7 +4136,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="B60" s="3">
@@ -3744,6 +4163,13 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
+      <c r="J60" s="19">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="N60" t="str">
         <f t="shared" si="0"/>
         <v>['55',621,29]</v>
@@ -3755,7 +4181,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="B61" s="3">
@@ -3782,6 +4208,13 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
+      <c r="J61" s="19">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="N61" t="str">
         <f t="shared" si="0"/>
         <v>['56',649,30]</v>
@@ -3793,7 +4226,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="B62" s="3">
@@ -3820,6 +4253,13 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
+      <c r="J62" s="19">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="N62" t="str">
         <f t="shared" si="0"/>
         <v>['57',672,32]</v>
@@ -3831,7 +4271,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="B63" s="3">
@@ -3858,6 +4298,13 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
+      <c r="J63" s="19">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="N63" t="str">
         <f t="shared" si="0"/>
         <v>['58',700,33]</v>
@@ -3869,7 +4316,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="B64" s="3">
@@ -3896,6 +4343,13 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
+      <c r="J64" s="19">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="N64" t="str">
         <f t="shared" si="0"/>
         <v>['59',715,36]</v>
@@ -3907,7 +4361,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="B65" s="3">
@@ -3934,6 +4388,13 @@
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
+      <c r="J65" s="19">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="N65" t="str">
         <f t="shared" si="0"/>
         <v>['60',737,40]</v>
@@ -3945,7 +4406,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="B66" s="3">
@@ -3972,6 +4433,13 @@
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
+      <c r="J66" s="19">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="N66" t="str">
         <f t="shared" si="0"/>
         <v>['61',758,42]</v>
@@ -3983,7 +4451,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="B67" s="3">
@@ -4010,6 +4478,13 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
+      <c r="J67" s="19">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="N67" t="str">
         <f t="shared" si="0"/>
         <v>['62',781,45]</v>
@@ -4021,7 +4496,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="B68" s="3">
@@ -4048,6 +4523,13 @@
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
+      <c r="J68" s="19">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="N68" t="str">
         <f t="shared" si="0"/>
         <v>['63',830,50]</v>
@@ -4059,7 +4541,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="B69" s="3">
@@ -4086,6 +4568,13 @@
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
+      <c r="J69" s="19">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="N69" t="str">
         <f t="shared" si="0"/>
         <v>['64',887,50]</v>
@@ -4097,7 +4586,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="B70" s="3">
@@ -4124,6 +4613,13 @@
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
+      <c r="J70" s="19">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="N70" t="str">
         <f t="shared" si="0"/>
         <v>['65',912,50]</v>
@@ -4135,7 +4631,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="B71" s="3">
@@ -4162,18 +4658,25 @@
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
+      <c r="J71" s="19">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="N71" t="str">
-        <f t="shared" ref="N71:N109" si="6">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
+        <f t="shared" ref="N71:N110" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
         <v>['66',963,50]</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" ref="O71:O109" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,G71,$R$6)</f>
+        <f t="shared" ref="O71:O110" si="8">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,G71,$R$6)</f>
         <v>['66',963,341]</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="B72" s="3">
@@ -4189,29 +4692,36 @@
         <v>0</v>
       </c>
       <c r="F72" s="13">
-        <f t="shared" ref="F72:F109" si="8">F71+C72</f>
+        <f t="shared" ref="F72:F108" si="9">F71+C72</f>
         <v>1029</v>
       </c>
       <c r="G72" s="12">
-        <f t="shared" ref="G72:G109" si="9">G71+D72</f>
+        <f t="shared" ref="G72:G110" si="10">G71+D72</f>
         <v>349</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" ref="H72:H109" si="10">H71+E72</f>
+        <f t="shared" ref="H72:H110" si="11">H71+E72</f>
         <v>50</v>
       </c>
+      <c r="J72" s="19">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="N72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>['67',1029,50]</v>
       </c>
       <c r="O72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>['67',1029,349]</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="B73" s="3">
@@ -4227,29 +4737,36 @@
         <v>0</v>
       </c>
       <c r="F73" s="13">
+        <f t="shared" si="9"/>
+        <v>1109</v>
+      </c>
+      <c r="G73" s="12">
+        <f t="shared" si="10"/>
+        <v>358</v>
+      </c>
+      <c r="H73" s="11">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="J73" s="19">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N73" t="str">
+        <f t="shared" si="7"/>
+        <v>['68',1109,50]</v>
+      </c>
+      <c r="O73" t="str">
         <f t="shared" si="8"/>
-        <v>1109</v>
-      </c>
-      <c r="G73" s="12">
-        <f t="shared" si="9"/>
-        <v>358</v>
-      </c>
-      <c r="H73" s="11">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
-      <c r="N73" t="str">
-        <f t="shared" si="6"/>
-        <v>['68',1109,50]</v>
-      </c>
-      <c r="O73" t="str">
-        <f t="shared" si="7"/>
         <v>['68',1109,358]</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="B74" s="3">
@@ -4265,29 +4782,36 @@
         <v>0</v>
       </c>
       <c r="F74" s="13">
+        <f t="shared" si="9"/>
+        <v>1161</v>
+      </c>
+      <c r="G74" s="12">
+        <f t="shared" si="10"/>
+        <v>363</v>
+      </c>
+      <c r="H74" s="11">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="J74" s="19">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N74" t="str">
+        <f t="shared" si="7"/>
+        <v>['69',1161,50]</v>
+      </c>
+      <c r="O74" t="str">
         <f t="shared" si="8"/>
-        <v>1161</v>
-      </c>
-      <c r="G74" s="12">
-        <f t="shared" si="9"/>
-        <v>363</v>
-      </c>
-      <c r="H74" s="11">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
-      <c r="N74" t="str">
-        <f t="shared" si="6"/>
-        <v>['69',1161,50]</v>
-      </c>
-      <c r="O74" t="str">
-        <f t="shared" si="7"/>
         <v>['69',1161,363]</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="B75" s="3">
@@ -4303,29 +4827,29 @@
         <v>0</v>
       </c>
       <c r="F75" s="13">
+        <f t="shared" si="9"/>
+        <v>1192</v>
+      </c>
+      <c r="G75" s="12">
+        <f t="shared" si="10"/>
+        <v>363</v>
+      </c>
+      <c r="H75" s="11">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="N75" t="str">
+        <f t="shared" si="7"/>
+        <v>['70',1192,50]</v>
+      </c>
+      <c r="O75" t="str">
         <f t="shared" si="8"/>
-        <v>1192</v>
-      </c>
-      <c r="G75" s="12">
-        <f t="shared" si="9"/>
-        <v>363</v>
-      </c>
-      <c r="H75" s="11">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
-      <c r="N75" t="str">
-        <f t="shared" si="6"/>
-        <v>['70',1192,50]</v>
-      </c>
-      <c r="O75" t="str">
-        <f t="shared" si="7"/>
         <v>['70',1192,363]</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="B76" s="3">
@@ -4341,29 +4865,29 @@
         <v>1</v>
       </c>
       <c r="F76" s="13">
+        <f t="shared" si="9"/>
+        <v>1214</v>
+      </c>
+      <c r="G76" s="12">
+        <f t="shared" si="10"/>
+        <v>366</v>
+      </c>
+      <c r="H76" s="11">
+        <f t="shared" si="11"/>
+        <v>51</v>
+      </c>
+      <c r="N76" t="str">
+        <f t="shared" si="7"/>
+        <v>['71',1214,51]</v>
+      </c>
+      <c r="O76" t="str">
         <f t="shared" si="8"/>
-        <v>1214</v>
-      </c>
-      <c r="G76" s="12">
-        <f t="shared" si="9"/>
-        <v>366</v>
-      </c>
-      <c r="H76" s="11">
-        <f t="shared" si="10"/>
-        <v>51</v>
-      </c>
-      <c r="N76" t="str">
-        <f t="shared" si="6"/>
-        <v>['71',1214,51]</v>
-      </c>
-      <c r="O76" t="str">
-        <f t="shared" si="7"/>
         <v>['71',1214,366]</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="B77" s="3">
@@ -4379,29 +4903,29 @@
         <v>1</v>
       </c>
       <c r="F77" s="13">
+        <f t="shared" si="9"/>
+        <v>1286</v>
+      </c>
+      <c r="G77" s="12">
+        <f t="shared" si="10"/>
+        <v>385</v>
+      </c>
+      <c r="H77" s="11">
+        <f t="shared" si="11"/>
+        <v>52</v>
+      </c>
+      <c r="N77" t="str">
+        <f t="shared" si="7"/>
+        <v>['72',1286,52]</v>
+      </c>
+      <c r="O77" t="str">
         <f t="shared" si="8"/>
-        <v>1286</v>
-      </c>
-      <c r="G77" s="12">
-        <f t="shared" si="9"/>
-        <v>385</v>
-      </c>
-      <c r="H77" s="11">
-        <f t="shared" si="10"/>
-        <v>52</v>
-      </c>
-      <c r="N77" t="str">
-        <f t="shared" si="6"/>
-        <v>['72',1286,52]</v>
-      </c>
-      <c r="O77" t="str">
-        <f t="shared" si="7"/>
         <v>['72',1286,385]</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="B78" s="3">
@@ -4417,29 +4941,29 @@
         <v>0</v>
       </c>
       <c r="F78" s="13">
+        <f t="shared" si="9"/>
+        <v>1348</v>
+      </c>
+      <c r="G78" s="12">
+        <f t="shared" si="10"/>
+        <v>388</v>
+      </c>
+      <c r="H78" s="11">
+        <f t="shared" si="11"/>
+        <v>52</v>
+      </c>
+      <c r="N78" t="str">
+        <f t="shared" si="7"/>
+        <v>['73',1348,52]</v>
+      </c>
+      <c r="O78" t="str">
         <f t="shared" si="8"/>
-        <v>1348</v>
-      </c>
-      <c r="G78" s="12">
-        <f t="shared" si="9"/>
-        <v>388</v>
-      </c>
-      <c r="H78" s="11">
-        <f t="shared" si="10"/>
-        <v>52</v>
-      </c>
-      <c r="N78" t="str">
-        <f t="shared" si="6"/>
-        <v>['73',1348,52]</v>
-      </c>
-      <c r="O78" t="str">
-        <f t="shared" si="7"/>
         <v>['73',1348,388]</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="B79" s="3">
@@ -4455,29 +4979,29 @@
         <v>3</v>
       </c>
       <c r="F79" s="13">
+        <f t="shared" si="9"/>
+        <v>1471</v>
+      </c>
+      <c r="G79" s="12">
+        <f t="shared" si="10"/>
+        <v>391</v>
+      </c>
+      <c r="H79" s="11">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="N79" t="str">
+        <f t="shared" si="7"/>
+        <v>['74',1471,55]</v>
+      </c>
+      <c r="O79" t="str">
         <f t="shared" si="8"/>
-        <v>1471</v>
-      </c>
-      <c r="G79" s="12">
-        <f t="shared" si="9"/>
-        <v>391</v>
-      </c>
-      <c r="H79" s="11">
-        <f t="shared" si="10"/>
-        <v>55</v>
-      </c>
-      <c r="N79" t="str">
-        <f t="shared" si="6"/>
-        <v>['74',1471,55]</v>
-      </c>
-      <c r="O79" t="str">
-        <f t="shared" si="7"/>
         <v>['74',1471,391]</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="B80" s="3">
@@ -4493,29 +5017,29 @@
         <v>3</v>
       </c>
       <c r="F80" s="13">
+        <f t="shared" si="9"/>
+        <v>1618</v>
+      </c>
+      <c r="G80" s="12">
+        <f t="shared" si="10"/>
+        <v>404</v>
+      </c>
+      <c r="H80" s="11">
+        <f t="shared" si="11"/>
+        <v>58</v>
+      </c>
+      <c r="N80" t="str">
+        <f t="shared" si="7"/>
+        <v>['75',1618,58]</v>
+      </c>
+      <c r="O80" t="str">
         <f t="shared" si="8"/>
-        <v>1618</v>
-      </c>
-      <c r="G80" s="12">
-        <f t="shared" si="9"/>
-        <v>404</v>
-      </c>
-      <c r="H80" s="11">
-        <f t="shared" si="10"/>
-        <v>58</v>
-      </c>
-      <c r="N80" t="str">
-        <f t="shared" si="6"/>
-        <v>['75',1618,58]</v>
-      </c>
-      <c r="O80" t="str">
-        <f t="shared" si="7"/>
         <v>['75',1618,404]</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="B81" s="3">
@@ -4531,29 +5055,29 @@
         <v>4</v>
       </c>
       <c r="F81" s="13">
+        <f t="shared" si="9"/>
+        <v>1745</v>
+      </c>
+      <c r="G81" s="12">
+        <f t="shared" si="10"/>
+        <v>421</v>
+      </c>
+      <c r="H81" s="11">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="N81" t="str">
+        <f t="shared" si="7"/>
+        <v>['76',1745,62]</v>
+      </c>
+      <c r="O81" t="str">
         <f t="shared" si="8"/>
-        <v>1745</v>
-      </c>
-      <c r="G81" s="12">
-        <f t="shared" si="9"/>
-        <v>421</v>
-      </c>
-      <c r="H81" s="11">
-        <f t="shared" si="10"/>
-        <v>62</v>
-      </c>
-      <c r="N81" t="str">
-        <f t="shared" si="6"/>
-        <v>['76',1745,62]</v>
-      </c>
-      <c r="O81" t="str">
-        <f t="shared" si="7"/>
         <v>['76',1745,421]</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
       <c r="B82" s="3">
@@ -4569,29 +5093,29 @@
         <v>1</v>
       </c>
       <c r="F82" s="13">
+        <f t="shared" si="9"/>
+        <v>1888</v>
+      </c>
+      <c r="G82" s="12">
+        <f t="shared" si="10"/>
+        <v>447</v>
+      </c>
+      <c r="H82" s="11">
+        <f t="shared" si="11"/>
+        <v>63</v>
+      </c>
+      <c r="N82" t="str">
+        <f t="shared" si="7"/>
+        <v>['77',1888,63]</v>
+      </c>
+      <c r="O82" t="str">
         <f t="shared" si="8"/>
-        <v>1888</v>
-      </c>
-      <c r="G82" s="12">
-        <f t="shared" si="9"/>
-        <v>447</v>
-      </c>
-      <c r="H82" s="11">
-        <f t="shared" si="10"/>
-        <v>63</v>
-      </c>
-      <c r="N82" t="str">
-        <f t="shared" si="6"/>
-        <v>['77',1888,63]</v>
-      </c>
-      <c r="O82" t="str">
-        <f t="shared" si="7"/>
         <v>['77',1888,447]</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="B83" s="3">
@@ -4607,29 +5131,29 @@
         <v>1</v>
       </c>
       <c r="F83" s="13">
+        <f t="shared" si="9"/>
+        <v>1962</v>
+      </c>
+      <c r="G83" s="12">
+        <f t="shared" si="10"/>
+        <v>461</v>
+      </c>
+      <c r="H83" s="11">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="N83" t="str">
+        <f t="shared" si="7"/>
+        <v>['78',1962,64]</v>
+      </c>
+      <c r="O83" t="str">
         <f t="shared" si="8"/>
-        <v>1962</v>
-      </c>
-      <c r="G83" s="12">
-        <f t="shared" si="9"/>
-        <v>461</v>
-      </c>
-      <c r="H83" s="11">
-        <f t="shared" si="10"/>
-        <v>64</v>
-      </c>
-      <c r="N83" t="str">
-        <f t="shared" si="6"/>
-        <v>['78',1962,64]</v>
-      </c>
-      <c r="O83" t="str">
-        <f t="shared" si="7"/>
         <v>['78',1962,461]</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
       <c r="B84" s="3">
@@ -4645,29 +5169,29 @@
         <v>5</v>
       </c>
       <c r="F84" s="13">
+        <f t="shared" si="9"/>
+        <v>2021</v>
+      </c>
+      <c r="G84" s="12">
+        <f t="shared" si="10"/>
+        <v>465</v>
+      </c>
+      <c r="H84" s="11">
+        <f t="shared" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="N84" t="str">
+        <f t="shared" si="7"/>
+        <v>['79',2021,69]</v>
+      </c>
+      <c r="O84" t="str">
         <f t="shared" si="8"/>
-        <v>2021</v>
-      </c>
-      <c r="G84" s="12">
-        <f t="shared" si="9"/>
-        <v>465</v>
-      </c>
-      <c r="H84" s="11">
-        <f t="shared" si="10"/>
-        <v>69</v>
-      </c>
-      <c r="N84" t="str">
-        <f t="shared" si="6"/>
-        <v>['79',2021,69]</v>
-      </c>
-      <c r="O84" t="str">
-        <f t="shared" si="7"/>
         <v>['79',2021,465]</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="B85" s="3">
@@ -4683,29 +5207,29 @@
         <v>2</v>
       </c>
       <c r="F85" s="13">
+        <f t="shared" si="9"/>
+        <v>2093</v>
+      </c>
+      <c r="G85" s="12">
+        <f t="shared" si="10"/>
+        <v>482</v>
+      </c>
+      <c r="H85" s="11">
+        <f t="shared" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="N85" t="str">
+        <f t="shared" si="7"/>
+        <v>['80',2093,71]</v>
+      </c>
+      <c r="O85" t="str">
         <f t="shared" si="8"/>
-        <v>2093</v>
-      </c>
-      <c r="G85" s="12">
-        <f t="shared" si="9"/>
-        <v>482</v>
-      </c>
-      <c r="H85" s="11">
-        <f t="shared" si="10"/>
-        <v>71</v>
-      </c>
-      <c r="N85" t="str">
-        <f t="shared" si="6"/>
-        <v>['80',2093,71]</v>
-      </c>
-      <c r="O85" t="str">
-        <f t="shared" si="7"/>
         <v>['80',2093,482]</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="B86" s="3">
@@ -4721,29 +5245,29 @@
         <v>3</v>
       </c>
       <c r="F86" s="13">
+        <f t="shared" si="9"/>
+        <v>2216</v>
+      </c>
+      <c r="G86" s="12">
+        <f t="shared" si="10"/>
+        <v>553</v>
+      </c>
+      <c r="H86" s="11">
+        <f t="shared" si="11"/>
+        <v>74</v>
+      </c>
+      <c r="N86" t="str">
+        <f t="shared" si="7"/>
+        <v>['81',2216,74]</v>
+      </c>
+      <c r="O86" t="str">
         <f t="shared" si="8"/>
-        <v>2216</v>
-      </c>
-      <c r="G86" s="12">
-        <f t="shared" si="9"/>
-        <v>553</v>
-      </c>
-      <c r="H86" s="11">
-        <f t="shared" si="10"/>
-        <v>74</v>
-      </c>
-      <c r="N86" t="str">
-        <f t="shared" si="6"/>
-        <v>['81',2216,74]</v>
-      </c>
-      <c r="O86" t="str">
-        <f t="shared" si="7"/>
         <v>['81',2216,553]</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="B87" s="3">
@@ -4759,29 +5283,29 @@
         <v>4</v>
       </c>
       <c r="F87" s="13">
+        <f t="shared" si="9"/>
+        <v>2340</v>
+      </c>
+      <c r="G87" s="12">
+        <f t="shared" si="10"/>
+        <v>592</v>
+      </c>
+      <c r="H87" s="11">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="N87" t="str">
+        <f t="shared" si="7"/>
+        <v>['82',2340,78]</v>
+      </c>
+      <c r="O87" t="str">
         <f t="shared" si="8"/>
-        <v>2340</v>
-      </c>
-      <c r="G87" s="12">
-        <f t="shared" si="9"/>
-        <v>592</v>
-      </c>
-      <c r="H87" s="11">
-        <f t="shared" si="10"/>
-        <v>78</v>
-      </c>
-      <c r="N87" t="str">
-        <f t="shared" si="6"/>
-        <v>['82',2340,78]</v>
-      </c>
-      <c r="O87" t="str">
-        <f t="shared" si="7"/>
         <v>['82',2340,592]</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="B88" s="3">
@@ -4797,29 +5321,29 @@
         <v>1</v>
       </c>
       <c r="F88" s="13">
+        <f t="shared" si="9"/>
+        <v>2474</v>
+      </c>
+      <c r="G88" s="12">
+        <f t="shared" si="10"/>
+        <v>643</v>
+      </c>
+      <c r="H88" s="11">
+        <f t="shared" si="11"/>
+        <v>79</v>
+      </c>
+      <c r="N88" t="str">
+        <f t="shared" si="7"/>
+        <v>['83',2474,79]</v>
+      </c>
+      <c r="O88" t="str">
         <f t="shared" si="8"/>
-        <v>2474</v>
-      </c>
-      <c r="G88" s="12">
-        <f t="shared" si="9"/>
-        <v>643</v>
-      </c>
-      <c r="H88" s="11">
-        <f t="shared" si="10"/>
-        <v>79</v>
-      </c>
-      <c r="N88" t="str">
-        <f t="shared" si="6"/>
-        <v>['83',2474,79]</v>
-      </c>
-      <c r="O88" t="str">
-        <f t="shared" si="7"/>
         <v>['83',2474,643]</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="B89" s="3">
@@ -4835,29 +5359,29 @@
         <v>4</v>
       </c>
       <c r="F89" s="13">
+        <f t="shared" si="9"/>
+        <v>2600</v>
+      </c>
+      <c r="G89" s="12">
+        <f t="shared" si="10"/>
+        <v>706</v>
+      </c>
+      <c r="H89" s="11">
+        <f t="shared" si="11"/>
+        <v>83</v>
+      </c>
+      <c r="N89" t="str">
+        <f t="shared" si="7"/>
+        <v>['84',2600,83]</v>
+      </c>
+      <c r="O89" t="str">
         <f t="shared" si="8"/>
-        <v>2600</v>
-      </c>
-      <c r="G89" s="12">
-        <f t="shared" si="9"/>
-        <v>706</v>
-      </c>
-      <c r="H89" s="11">
-        <f t="shared" si="10"/>
-        <v>83</v>
-      </c>
-      <c r="N89" t="str">
-        <f t="shared" si="6"/>
-        <v>['84',2600,83]</v>
-      </c>
-      <c r="O89" t="str">
-        <f t="shared" si="7"/>
         <v>['84',2600,706]</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
       <c r="B90" s="3">
@@ -4873,29 +5397,29 @@
         <v>1</v>
       </c>
       <c r="F90" s="13">
+        <f t="shared" si="9"/>
+        <v>2767</v>
+      </c>
+      <c r="G90" s="12">
+        <f t="shared" si="10"/>
+        <v>752</v>
+      </c>
+      <c r="H90" s="11">
+        <f t="shared" si="11"/>
+        <v>84</v>
+      </c>
+      <c r="N90" t="str">
+        <f t="shared" si="7"/>
+        <v>['85',2767,84]</v>
+      </c>
+      <c r="O90" t="str">
         <f t="shared" si="8"/>
-        <v>2767</v>
-      </c>
-      <c r="G90" s="12">
-        <f t="shared" si="9"/>
-        <v>752</v>
-      </c>
-      <c r="H90" s="11">
-        <f t="shared" si="10"/>
-        <v>84</v>
-      </c>
-      <c r="N90" t="str">
-        <f t="shared" si="6"/>
-        <v>['85',2767,84]</v>
-      </c>
-      <c r="O90" t="str">
-        <f t="shared" si="7"/>
         <v>['85',2767,752]</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
       <c r="B91" s="3">
@@ -4911,29 +5435,29 @@
         <v>1</v>
       </c>
       <c r="F91" s="13">
+        <f t="shared" si="9"/>
+        <v>2862</v>
+      </c>
+      <c r="G91" s="12">
+        <f t="shared" si="10"/>
+        <v>849</v>
+      </c>
+      <c r="H91" s="11">
+        <f t="shared" si="11"/>
+        <v>85</v>
+      </c>
+      <c r="N91" t="str">
+        <f t="shared" si="7"/>
+        <v>['86',2862,85]</v>
+      </c>
+      <c r="O91" t="str">
         <f t="shared" si="8"/>
-        <v>2862</v>
-      </c>
-      <c r="G91" s="12">
-        <f t="shared" si="9"/>
-        <v>849</v>
-      </c>
-      <c r="H91" s="11">
-        <f t="shared" si="10"/>
-        <v>85</v>
-      </c>
-      <c r="N91" t="str">
-        <f t="shared" si="6"/>
-        <v>['86',2862,85]</v>
-      </c>
-      <c r="O91" t="str">
-        <f t="shared" si="7"/>
         <v>['86',2862,849]</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="B92" s="3">
@@ -4949,29 +5473,29 @@
         <v>3</v>
       </c>
       <c r="F92" s="13">
+        <f t="shared" si="9"/>
+        <v>2989</v>
+      </c>
+      <c r="G92" s="12">
+        <f t="shared" si="10"/>
+        <v>873</v>
+      </c>
+      <c r="H92" s="11">
+        <f t="shared" si="11"/>
+        <v>88</v>
+      </c>
+      <c r="N92" t="str">
+        <f t="shared" si="7"/>
+        <v>['87',2989,88]</v>
+      </c>
+      <c r="O92" t="str">
         <f t="shared" si="8"/>
-        <v>2989</v>
-      </c>
-      <c r="G92" s="12">
-        <f t="shared" si="9"/>
-        <v>873</v>
-      </c>
-      <c r="H92" s="11">
-        <f t="shared" si="10"/>
-        <v>88</v>
-      </c>
-      <c r="N92" t="str">
-        <f t="shared" si="6"/>
-        <v>['87',2989,88]</v>
-      </c>
-      <c r="O92" t="str">
-        <f t="shared" si="7"/>
         <v>['87',2989,873]</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="B93" s="3">
@@ -4987,29 +5511,29 @@
         <v>1</v>
       </c>
       <c r="F93" s="13">
+        <f t="shared" si="9"/>
+        <v>3094</v>
+      </c>
+      <c r="G93" s="12">
+        <f t="shared" si="10"/>
+        <v>1048</v>
+      </c>
+      <c r="H93" s="11">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="N93" t="str">
+        <f t="shared" si="7"/>
+        <v>['88',3094,89]</v>
+      </c>
+      <c r="O93" t="str">
         <f t="shared" si="8"/>
-        <v>3094</v>
-      </c>
-      <c r="G93" s="12">
-        <f t="shared" si="9"/>
-        <v>1048</v>
-      </c>
-      <c r="H93" s="11">
-        <f t="shared" si="10"/>
-        <v>89</v>
-      </c>
-      <c r="N93" t="str">
-        <f t="shared" si="6"/>
-        <v>['88',3094,89]</v>
-      </c>
-      <c r="O93" t="str">
-        <f t="shared" si="7"/>
         <v>['88',3094,1048]</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="B94" s="3">
@@ -5025,29 +5549,29 @@
         <v>3</v>
       </c>
       <c r="F94" s="13">
+        <f t="shared" si="9"/>
+        <v>3215</v>
+      </c>
+      <c r="G94" s="12">
+        <f t="shared" si="10"/>
+        <v>1092</v>
+      </c>
+      <c r="H94" s="11">
+        <f t="shared" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="N94" t="str">
+        <f t="shared" si="7"/>
+        <v>['89',3215,92]</v>
+      </c>
+      <c r="O94" t="str">
         <f t="shared" si="8"/>
-        <v>3215</v>
-      </c>
-      <c r="G94" s="12">
-        <f t="shared" si="9"/>
-        <v>1092</v>
-      </c>
-      <c r="H94" s="11">
-        <f t="shared" si="10"/>
-        <v>92</v>
-      </c>
-      <c r="N94" t="str">
-        <f t="shared" si="6"/>
-        <v>['89',3215,92]</v>
-      </c>
-      <c r="O94" t="str">
-        <f t="shared" si="7"/>
         <v>['89',3215,1092]</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="B95" s="3">
@@ -5063,29 +5587,29 @@
         <v>4</v>
       </c>
       <c r="F95" s="13">
+        <f t="shared" si="9"/>
+        <v>3305</v>
+      </c>
+      <c r="G95" s="12">
+        <f t="shared" si="10"/>
+        <v>1164</v>
+      </c>
+      <c r="H95" s="11">
+        <f t="shared" si="11"/>
+        <v>96</v>
+      </c>
+      <c r="N95" t="str">
+        <f t="shared" si="7"/>
+        <v>['90',3305,96]</v>
+      </c>
+      <c r="O95" t="str">
         <f t="shared" si="8"/>
-        <v>3305</v>
-      </c>
-      <c r="G95" s="12">
-        <f t="shared" si="9"/>
-        <v>1164</v>
-      </c>
-      <c r="H95" s="11">
-        <f t="shared" si="10"/>
-        <v>96</v>
-      </c>
-      <c r="N95" t="str">
-        <f t="shared" si="6"/>
-        <v>['90',3305,96]</v>
-      </c>
-      <c r="O95" t="str">
-        <f t="shared" si="7"/>
         <v>['90',3305,1164]</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="B96" s="3">
@@ -5101,29 +5625,29 @@
         <v>4</v>
       </c>
       <c r="F96" s="13">
+        <f t="shared" si="9"/>
+        <v>3457</v>
+      </c>
+      <c r="G96" s="12">
+        <f t="shared" si="10"/>
+        <v>1221</v>
+      </c>
+      <c r="H96" s="11">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="N96" t="str">
+        <f t="shared" si="7"/>
+        <v>['91',3457,100]</v>
+      </c>
+      <c r="O96" t="str">
         <f t="shared" si="8"/>
-        <v>3457</v>
-      </c>
-      <c r="G96" s="12">
-        <f t="shared" si="9"/>
-        <v>1221</v>
-      </c>
-      <c r="H96" s="11">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="N96" t="str">
-        <f t="shared" si="6"/>
-        <v>['91',3457,100]</v>
-      </c>
-      <c r="O96" t="str">
-        <f t="shared" si="7"/>
         <v>['91',3457,1221]</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="B97" s="3">
@@ -5139,29 +5663,29 @@
         <v>3</v>
       </c>
       <c r="F97" s="13">
+        <f t="shared" si="9"/>
+        <v>3594</v>
+      </c>
+      <c r="G97" s="12">
+        <f t="shared" si="10"/>
+        <v>1253</v>
+      </c>
+      <c r="H97" s="11">
+        <f t="shared" si="11"/>
+        <v>103</v>
+      </c>
+      <c r="N97" t="str">
+        <f t="shared" si="7"/>
+        <v>['92',3594,103]</v>
+      </c>
+      <c r="O97" t="str">
         <f t="shared" si="8"/>
-        <v>3594</v>
-      </c>
-      <c r="G97" s="12">
-        <f t="shared" si="9"/>
-        <v>1253</v>
-      </c>
-      <c r="H97" s="11">
-        <f t="shared" si="10"/>
-        <v>103</v>
-      </c>
-      <c r="N97" t="str">
-        <f t="shared" si="6"/>
-        <v>['92',3594,103]</v>
-      </c>
-      <c r="O97" t="str">
-        <f t="shared" si="7"/>
         <v>['92',3594,1253]</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="B98" s="3">
@@ -5177,29 +5701,29 @@
         <v>1</v>
       </c>
       <c r="F98" s="13">
+        <f t="shared" si="9"/>
+        <v>3727</v>
+      </c>
+      <c r="G98" s="12">
+        <f t="shared" si="10"/>
+        <v>1286</v>
+      </c>
+      <c r="H98" s="11">
+        <f t="shared" si="11"/>
+        <v>104</v>
+      </c>
+      <c r="N98" t="str">
+        <f t="shared" si="7"/>
+        <v>['93',3727,104]</v>
+      </c>
+      <c r="O98" t="str">
         <f t="shared" si="8"/>
-        <v>3727</v>
-      </c>
-      <c r="G98" s="12">
-        <f t="shared" si="9"/>
-        <v>1286</v>
-      </c>
-      <c r="H98" s="11">
-        <f t="shared" si="10"/>
-        <v>104</v>
-      </c>
-      <c r="N98" t="str">
-        <f t="shared" si="6"/>
-        <v>['93',3727,104]</v>
-      </c>
-      <c r="O98" t="str">
-        <f t="shared" si="7"/>
         <v>['93',3727,1286]</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="B99" s="3">
@@ -5215,29 +5739,29 @@
         <v>1</v>
       </c>
       <c r="F99" s="13">
+        <f t="shared" si="9"/>
+        <v>3860</v>
+      </c>
+      <c r="G99" s="12">
+        <f t="shared" si="10"/>
+        <v>1326</v>
+      </c>
+      <c r="H99" s="11">
+        <f t="shared" si="11"/>
+        <v>105</v>
+      </c>
+      <c r="N99" t="str">
+        <f t="shared" si="7"/>
+        <v>['94',3860,105]</v>
+      </c>
+      <c r="O99" t="str">
         <f t="shared" si="8"/>
-        <v>3860</v>
-      </c>
-      <c r="G99" s="12">
-        <f t="shared" si="9"/>
-        <v>1326</v>
-      </c>
-      <c r="H99" s="11">
-        <f t="shared" si="10"/>
-        <v>105</v>
-      </c>
-      <c r="N99" t="str">
-        <f t="shared" si="6"/>
-        <v>['94',3860,105]</v>
-      </c>
-      <c r="O99" t="str">
-        <f t="shared" si="7"/>
         <v>['94',3860,1326]</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
       <c r="B100" s="3">
@@ -5253,29 +5777,29 @@
         <v>2</v>
       </c>
       <c r="F100" s="13">
+        <f t="shared" si="9"/>
+        <v>4044</v>
+      </c>
+      <c r="G100" s="12">
+        <f t="shared" si="10"/>
+        <v>1353</v>
+      </c>
+      <c r="H100" s="11">
+        <f t="shared" si="11"/>
+        <v>107</v>
+      </c>
+      <c r="N100" t="str">
+        <f t="shared" si="7"/>
+        <v>['95',4044,107]</v>
+      </c>
+      <c r="O100" t="str">
         <f t="shared" si="8"/>
-        <v>4044</v>
-      </c>
-      <c r="G100" s="12">
-        <f t="shared" si="9"/>
-        <v>1353</v>
-      </c>
-      <c r="H100" s="11">
-        <f t="shared" si="10"/>
-        <v>107</v>
-      </c>
-      <c r="N100" t="str">
-        <f t="shared" si="6"/>
-        <v>['95',4044,107]</v>
-      </c>
-      <c r="O100" t="str">
-        <f t="shared" si="7"/>
         <v>['95',4044,1353]</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="B101" s="3">
@@ -5291,29 +5815,29 @@
         <v>10</v>
       </c>
       <c r="F101" s="13">
+        <f t="shared" si="9"/>
+        <v>4257</v>
+      </c>
+      <c r="G101" s="12">
+        <f t="shared" si="10"/>
+        <v>1459</v>
+      </c>
+      <c r="H101" s="11">
+        <f t="shared" si="11"/>
+        <v>117</v>
+      </c>
+      <c r="N101" t="str">
+        <f t="shared" si="7"/>
+        <v>['96',4257,117]</v>
+      </c>
+      <c r="O101" t="str">
         <f t="shared" si="8"/>
-        <v>4257</v>
-      </c>
-      <c r="G101" s="12">
-        <f t="shared" si="9"/>
-        <v>1459</v>
-      </c>
-      <c r="H101" s="11">
-        <f t="shared" si="10"/>
-        <v>117</v>
-      </c>
-      <c r="N101" t="str">
-        <f t="shared" si="6"/>
-        <v>['96',4257,117]</v>
-      </c>
-      <c r="O101" t="str">
-        <f t="shared" si="7"/>
         <v>['96',4257,1459]</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
       <c r="B102" s="3">
@@ -5329,29 +5853,29 @@
         <v>2</v>
       </c>
       <c r="F102" s="13">
+        <f t="shared" si="9"/>
+        <v>4374</v>
+      </c>
+      <c r="G102" s="12">
+        <f t="shared" si="10"/>
+        <v>1550</v>
+      </c>
+      <c r="H102" s="11">
+        <f t="shared" si="11"/>
+        <v>119</v>
+      </c>
+      <c r="N102" t="str">
+        <f t="shared" si="7"/>
+        <v>['97',4374,119]</v>
+      </c>
+      <c r="O102" t="str">
         <f t="shared" si="8"/>
-        <v>4374</v>
-      </c>
-      <c r="G102" s="12">
-        <f t="shared" si="9"/>
-        <v>1550</v>
-      </c>
-      <c r="H102" s="11">
-        <f t="shared" si="10"/>
-        <v>119</v>
-      </c>
-      <c r="N102" t="str">
-        <f t="shared" si="6"/>
-        <v>['97',4374,119]</v>
-      </c>
-      <c r="O102" t="str">
-        <f t="shared" si="7"/>
         <v>['97',4374,1550]</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="B103" s="3">
@@ -5367,29 +5891,29 @@
         <v>2</v>
       </c>
       <c r="F103" s="13">
+        <f t="shared" si="9"/>
+        <v>4478</v>
+      </c>
+      <c r="G103" s="12">
+        <f t="shared" si="10"/>
+        <v>1586</v>
+      </c>
+      <c r="H103" s="11">
+        <f t="shared" si="11"/>
+        <v>121</v>
+      </c>
+      <c r="N103" t="str">
+        <f t="shared" si="7"/>
+        <v>['98',4478,121]</v>
+      </c>
+      <c r="O103" t="str">
         <f t="shared" si="8"/>
-        <v>4478</v>
-      </c>
-      <c r="G103" s="12">
-        <f t="shared" si="9"/>
-        <v>1586</v>
-      </c>
-      <c r="H103" s="11">
-        <f t="shared" si="10"/>
-        <v>121</v>
-      </c>
-      <c r="N103" t="str">
-        <f t="shared" si="6"/>
-        <v>['98',4478,121]</v>
-      </c>
-      <c r="O103" t="str">
-        <f t="shared" si="7"/>
         <v>['98',4478,1586]</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="B104" s="3">
@@ -5405,29 +5929,29 @@
         <v>2</v>
       </c>
       <c r="F104" s="13">
+        <f t="shared" si="9"/>
+        <v>4738</v>
+      </c>
+      <c r="G104" s="12">
+        <f t="shared" si="10"/>
+        <v>1607</v>
+      </c>
+      <c r="H104" s="11">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
+      <c r="N104" t="str">
+        <f t="shared" si="7"/>
+        <v>['99',4738,123]</v>
+      </c>
+      <c r="O104" t="str">
         <f t="shared" si="8"/>
-        <v>4738</v>
-      </c>
-      <c r="G104" s="12">
-        <f t="shared" si="9"/>
-        <v>1607</v>
-      </c>
-      <c r="H104" s="11">
-        <f t="shared" si="10"/>
-        <v>123</v>
-      </c>
-      <c r="N104" t="str">
-        <f t="shared" si="6"/>
-        <v>['99',4738,123]</v>
-      </c>
-      <c r="O104" t="str">
-        <f t="shared" si="7"/>
         <v>['99',4738,1607]</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="B105" s="3">
@@ -5443,29 +5967,29 @@
         <v>2</v>
       </c>
       <c r="F105" s="13">
+        <f t="shared" si="9"/>
+        <v>4797</v>
+      </c>
+      <c r="G105" s="12">
+        <f t="shared" si="10"/>
+        <v>1680</v>
+      </c>
+      <c r="H105" s="11">
+        <f t="shared" si="11"/>
+        <v>125</v>
+      </c>
+      <c r="N105" t="str">
+        <f t="shared" si="7"/>
+        <v>['100',4797,125]</v>
+      </c>
+      <c r="O105" t="str">
         <f t="shared" si="8"/>
-        <v>4797</v>
-      </c>
-      <c r="G105" s="12">
-        <f t="shared" si="9"/>
-        <v>1680</v>
-      </c>
-      <c r="H105" s="11">
-        <f t="shared" si="10"/>
-        <v>125</v>
-      </c>
-      <c r="N105" t="str">
-        <f t="shared" si="6"/>
-        <v>['100',4797,125]</v>
-      </c>
-      <c r="O105" t="str">
-        <f t="shared" si="7"/>
         <v>['100',4797,1680]</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101</v>
       </c>
       <c r="B106" s="3">
@@ -5481,29 +6005,29 @@
         <v>3</v>
       </c>
       <c r="F106" s="13">
+        <f t="shared" si="9"/>
+        <v>4952</v>
+      </c>
+      <c r="G106" s="12">
+        <f t="shared" si="10"/>
+        <v>1782</v>
+      </c>
+      <c r="H106" s="11">
+        <f t="shared" si="11"/>
+        <v>128</v>
+      </c>
+      <c r="N106" t="str">
+        <f t="shared" si="7"/>
+        <v>['101',4952,128]</v>
+      </c>
+      <c r="O106" t="str">
         <f t="shared" si="8"/>
-        <v>4952</v>
-      </c>
-      <c r="G106" s="12">
-        <f t="shared" si="9"/>
-        <v>1782</v>
-      </c>
-      <c r="H106" s="11">
-        <f t="shared" si="10"/>
-        <v>128</v>
-      </c>
-      <c r="N106" t="str">
-        <f t="shared" si="6"/>
-        <v>['101',4952,128]</v>
-      </c>
-      <c r="O106" t="str">
-        <f t="shared" si="7"/>
         <v>['101',4952,1782]</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
       <c r="B107" s="3">
@@ -5519,29 +6043,29 @@
         <v>2</v>
       </c>
       <c r="F107" s="13">
+        <f t="shared" si="9"/>
+        <v>5206</v>
+      </c>
+      <c r="G107" s="12">
+        <f t="shared" si="10"/>
+        <v>1823</v>
+      </c>
+      <c r="H107" s="11">
+        <f t="shared" si="11"/>
+        <v>130</v>
+      </c>
+      <c r="N107" t="str">
+        <f t="shared" si="7"/>
+        <v>['102',5206,130]</v>
+      </c>
+      <c r="O107" t="str">
         <f t="shared" si="8"/>
-        <v>5206</v>
-      </c>
-      <c r="G107" s="12">
-        <f t="shared" si="9"/>
-        <v>1823</v>
-      </c>
-      <c r="H107" s="11">
-        <f t="shared" si="10"/>
-        <v>130</v>
-      </c>
-      <c r="N107" t="str">
-        <f t="shared" si="6"/>
-        <v>['102',5206,130]</v>
-      </c>
-      <c r="O107" t="str">
-        <f t="shared" si="7"/>
         <v>['102',5206,1823]</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" ref="A108" si="11">A107+1</f>
+        <f t="shared" ref="A108" si="12">A107+1</f>
         <v>103</v>
       </c>
       <c r="B108" s="3">
@@ -5557,23 +6081,23 @@
         <v>2</v>
       </c>
       <c r="F108" s="13">
+        <f t="shared" si="9"/>
+        <v>5384</v>
+      </c>
+      <c r="G108" s="12">
+        <f t="shared" si="10"/>
+        <v>1857</v>
+      </c>
+      <c r="H108" s="11">
+        <f t="shared" si="11"/>
+        <v>132</v>
+      </c>
+      <c r="N108" t="str">
+        <f t="shared" si="7"/>
+        <v>['103',5384,132]</v>
+      </c>
+      <c r="O108" t="str">
         <f t="shared" si="8"/>
-        <v>5384</v>
-      </c>
-      <c r="G108" s="12">
-        <f t="shared" si="9"/>
-        <v>1857</v>
-      </c>
-      <c r="H108" s="11">
-        <f t="shared" si="10"/>
-        <v>132</v>
-      </c>
-      <c r="N108" t="str">
-        <f t="shared" si="6"/>
-        <v>['103',5384,132]</v>
-      </c>
-      <c r="O108" t="str">
-        <f t="shared" si="7"/>
         <v>['103',5384,1857]</v>
       </c>
     </row>
@@ -5598,24 +6122,58 @@
         <v>5533</v>
       </c>
       <c r="G109" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1905</v>
       </c>
       <c r="H109" s="11">
+        <f t="shared" si="11"/>
+        <v>137</v>
+      </c>
+      <c r="N109" t="str">
+        <f t="shared" si="7"/>
+        <v>['104',5533,137]</v>
+      </c>
+      <c r="O109" t="str">
+        <f t="shared" si="8"/>
+        <v>['104',5533,1905]</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>105</v>
+      </c>
+      <c r="B110" s="3">
+        <v>44009</v>
+      </c>
+      <c r="C110">
+        <v>278</v>
+      </c>
+      <c r="D110">
+        <v>31</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110" s="13">
+        <f>F109+C110</f>
+        <v>5811</v>
+      </c>
+      <c r="G110" s="12">
         <f t="shared" si="10"/>
-        <v>137</v>
-      </c>
-      <c r="N109" t="str">
-        <f t="shared" si="6"/>
-        <v>['104',5533,137]</v>
-      </c>
-      <c r="O109" t="str">
+        <v>1936</v>
+      </c>
+      <c r="H110" s="11">
+        <f t="shared" si="11"/>
+        <v>141</v>
+      </c>
+      <c r="N110" t="str">
         <f t="shared" si="7"/>
-        <v>['104',5533,1905]</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B110" s="3"/>
+        <v>['105',5811,141]</v>
+      </c>
+      <c r="O110" t="str">
+        <f t="shared" si="8"/>
+        <v>['105',5811,1936]</v>
+      </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
@@ -6188,7 +6746,8 @@
       <c r="B300" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="J26:L26"/>
     <mergeCell ref="I2:Q2"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -661,16 +661,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5811</c:v>
+                  <c:v>6070</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3734</c:v>
+                  <c:v>3952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1936</c:v>
+                  <c:v>1975</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>141</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,11 +729,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="361901824"/>
-        <c:axId val="361902216"/>
+        <c:axId val="334748984"/>
+        <c:axId val="334748200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="361901824"/>
+        <c:axId val="334748984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361902216"/>
+        <c:crossAx val="334748200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -784,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361902216"/>
+        <c:axId val="334748200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361901824"/>
+        <c:crossAx val="334748984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E94" workbookViewId="0">
-      <selection activeCell="K112" sqref="K112"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O111" sqref="O111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,19 +1874,19 @@
       </c>
       <c r="I6" s="23">
         <f>SUM(C6:C3000)</f>
-        <v>5811</v>
+        <v>6070</v>
       </c>
       <c r="J6" s="24">
         <f>I6-(K6+L6)</f>
-        <v>3734</v>
+        <v>3952</v>
       </c>
       <c r="K6" s="25">
         <f>SUM(D6:D3000)</f>
-        <v>1936</v>
+        <v>1975</v>
       </c>
       <c r="L6" s="26">
         <f>SUM(E6:E3000)</f>
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N6" t="str">
         <f>CONCATENATE($Q$6,$R$5,"'",A6,"'",$R$5,$Q$5,F6,$Q$5,H6,$R$6)</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="K8" s="17">
         <f>(K6/I6)</f>
-        <v>0.33316124591292379</v>
+        <v>0.32537067545304776</v>
       </c>
       <c r="L8" s="17">
         <f>(L6/I6)</f>
-        <v>2.4264326277749097E-2</v>
+        <v>2.3558484349258647E-2</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
@@ -4666,11 +4666,11 @@
         <v>64</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" ref="N71:N110" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
+        <f t="shared" ref="N71:N111" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
         <v>['66',963,50]</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" ref="O71:O110" si="8">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,G71,$R$6)</f>
+        <f t="shared" ref="O71:O111" si="8">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,G71,$R$6)</f>
         <v>['66',963,341]</v>
       </c>
     </row>
@@ -4696,11 +4696,11 @@
         <v>1029</v>
       </c>
       <c r="G72" s="12">
-        <f t="shared" ref="G72:G110" si="10">G71+D72</f>
+        <f t="shared" ref="G72:G111" si="10">G71+D72</f>
         <v>349</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" ref="H72:H110" si="11">H71+E72</f>
+        <f t="shared" ref="H72:H111" si="11">H71+E72</f>
         <v>50</v>
       </c>
       <c r="J72" s="19">
@@ -6176,7 +6176,41 @@
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B111" s="3"/>
+      <c r="A111">
+        <v>106</v>
+      </c>
+      <c r="B111" s="3">
+        <v>44010</v>
+      </c>
+      <c r="C111">
+        <v>259</v>
+      </c>
+      <c r="D111">
+        <v>39</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111" s="13">
+        <f>F110+C111</f>
+        <v>6070</v>
+      </c>
+      <c r="G111" s="12">
+        <f t="shared" si="10"/>
+        <v>1975</v>
+      </c>
+      <c r="H111" s="11">
+        <f t="shared" si="11"/>
+        <v>143</v>
+      </c>
+      <c r="N111" t="str">
+        <f t="shared" si="7"/>
+        <v>['106',6070,143]</v>
+      </c>
+      <c r="O111" t="str">
+        <f t="shared" si="8"/>
+        <v>['106',6070,1975]</v>
+      </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -661,16 +661,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6070</c:v>
+                  <c:v>6190</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3952</c:v>
+                  <c:v>4033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1975</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>143</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,11 +729,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="334748984"/>
-        <c:axId val="334748200"/>
+        <c:axId val="326466936"/>
+        <c:axId val="326467328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="334748984"/>
+        <c:axId val="326466936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334748200"/>
+        <c:crossAx val="326467328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -784,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334748200"/>
+        <c:axId val="326467328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334748984"/>
+        <c:crossAx val="326466936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O111" sqref="O111"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,19 +1874,19 @@
       </c>
       <c r="I6" s="23">
         <f>SUM(C6:C3000)</f>
-        <v>6070</v>
+        <v>6190</v>
       </c>
       <c r="J6" s="24">
         <f>I6-(K6+L6)</f>
-        <v>3952</v>
+        <v>4033</v>
       </c>
       <c r="K6" s="25">
         <f>SUM(D6:D3000)</f>
-        <v>1975</v>
+        <v>2013</v>
       </c>
       <c r="L6" s="26">
         <f>SUM(E6:E3000)</f>
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N6" t="str">
         <f>CONCATENATE($Q$6,$R$5,"'",A6,"'",$R$5,$Q$5,F6,$Q$5,H6,$R$6)</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="K8" s="17">
         <f>(K6/I6)</f>
-        <v>0.32537067545304776</v>
+        <v>0.32520193861066238</v>
       </c>
       <c r="L8" s="17">
         <f>(L6/I6)</f>
-        <v>2.3558484349258647E-2</v>
+        <v>2.3263327948303717E-2</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
@@ -4666,7 +4666,7 @@
         <v>64</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" ref="N71:N111" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
+        <f t="shared" ref="N71:N112" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
         <v>['66',963,50]</v>
       </c>
       <c r="O71" t="str">
@@ -4700,7 +4700,7 @@
         <v>349</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" ref="H72:H111" si="11">H71+E72</f>
+        <f t="shared" ref="H72:H112" si="11">H71+E72</f>
         <v>50</v>
       </c>
       <c r="J72" s="19">
@@ -6186,7 +6186,7 @@
         <v>259</v>
       </c>
       <c r="D111">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -6196,8 +6196,8 @@
         <v>6070</v>
       </c>
       <c r="G111" s="12">
-        <f t="shared" si="10"/>
-        <v>1975</v>
+        <f>G110+D111</f>
+        <v>1971</v>
       </c>
       <c r="H111" s="11">
         <f t="shared" si="11"/>
@@ -6208,12 +6208,46 @@
         <v>['106',6070,143]</v>
       </c>
       <c r="O111" t="str">
-        <f t="shared" si="8"/>
-        <v>['106',6070,1975]</v>
+        <f>CONCATENATE($Q$6,$R$5,"'",A111,"'",$R$5,$Q$5,F111,$Q$5,G111,$R$6)</f>
+        <v>['106',6070,1971]</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B112" s="3"/>
+      <c r="A112">
+        <v>107</v>
+      </c>
+      <c r="B112" s="3">
+        <v>44011</v>
+      </c>
+      <c r="C112">
+        <v>120</v>
+      </c>
+      <c r="D112">
+        <v>42</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" s="13">
+        <f>F111+C112</f>
+        <v>6190</v>
+      </c>
+      <c r="G112" s="12">
+        <f>G111+D112</f>
+        <v>2013</v>
+      </c>
+      <c r="H112" s="11">
+        <f t="shared" si="11"/>
+        <v>144</v>
+      </c>
+      <c r="N112" t="str">
+        <f t="shared" si="7"/>
+        <v>['107',6190,144]</v>
+      </c>
+      <c r="O112" t="str">
+        <f>CONCATENATE($Q$6,$R$5,"'",A112,"'",$R$5,$Q$5,F112,$Q$5,G112,$R$6)</f>
+        <v>['107',6190,2013]</v>
+      </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -661,16 +661,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6190</c:v>
+                  <c:v>6673</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4033</c:v>
+                  <c:v>4435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2013</c:v>
+                  <c:v>2089</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,11 +729,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="326466936"/>
-        <c:axId val="326467328"/>
+        <c:axId val="364543520"/>
+        <c:axId val="364541952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="326466936"/>
+        <c:axId val="364543520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326467328"/>
+        <c:crossAx val="364541952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -784,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="326467328"/>
+        <c:axId val="364541952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326466936"/>
+        <c:crossAx val="364543520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:Q2"/>
+    <sheetView tabSelected="1" topLeftCell="C95" workbookViewId="0">
+      <selection activeCell="O113" sqref="O113:O114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,19 +1874,19 @@
       </c>
       <c r="I6" s="23">
         <f>SUM(C6:C3000)</f>
-        <v>6190</v>
+        <v>6673</v>
       </c>
       <c r="J6" s="24">
         <f>I6-(K6+L6)</f>
-        <v>4033</v>
+        <v>4435</v>
       </c>
       <c r="K6" s="25">
         <f>SUM(D6:D3000)</f>
-        <v>2013</v>
+        <v>2089</v>
       </c>
       <c r="L6" s="26">
         <f>SUM(E6:E3000)</f>
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="N6" t="str">
         <f>CONCATENATE($Q$6,$R$5,"'",A6,"'",$R$5,$Q$5,F6,$Q$5,H6,$R$6)</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="K8" s="17">
         <f>(K6/I6)</f>
-        <v>0.32520193861066238</v>
+        <v>0.31305260002997154</v>
       </c>
       <c r="L8" s="17">
         <f>(L6/I6)</f>
-        <v>2.3263327948303717E-2</v>
+        <v>2.2328787651730856E-2</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
@@ -4666,11 +4666,11 @@
         <v>64</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" ref="N71:N112" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
+        <f t="shared" ref="N71:N114" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
         <v>['66',963,50]</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" ref="O71:O111" si="8">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,G71,$R$6)</f>
+        <f t="shared" ref="O71:O110" si="8">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,G71,$R$6)</f>
         <v>['66',963,341]</v>
       </c>
     </row>
@@ -4696,11 +4696,11 @@
         <v>1029</v>
       </c>
       <c r="G72" s="12">
-        <f t="shared" ref="G72:G111" si="10">G71+D72</f>
+        <f t="shared" ref="G72:G110" si="10">G71+D72</f>
         <v>349</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" ref="H72:H112" si="11">H71+E72</f>
+        <f t="shared" ref="H72:H114" si="11">H71+E72</f>
         <v>50</v>
       </c>
       <c r="J72" s="19">
@@ -6249,52 +6249,120 @@
         <v>['107',6190,2013]</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="3"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="3"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>108</v>
+      </c>
+      <c r="B113" s="3">
+        <v>44012</v>
+      </c>
+      <c r="C113">
+        <v>176</v>
+      </c>
+      <c r="D113">
+        <v>26</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113" s="13">
+        <f t="shared" ref="F113:F114" si="13">F112+C113</f>
+        <v>6366</v>
+      </c>
+      <c r="G113" s="12">
+        <f t="shared" ref="G113:G114" si="14">G112+D113</f>
+        <v>2039</v>
+      </c>
+      <c r="H113" s="11">
+        <f t="shared" si="11"/>
+        <v>148</v>
+      </c>
+      <c r="N113" t="str">
+        <f t="shared" si="7"/>
+        <v>['108',6366,148]</v>
+      </c>
+      <c r="O113" t="str">
+        <f t="shared" ref="O113:O114" si="15">CONCATENATE($Q$6,$R$5,"'",A113,"'",$R$5,$Q$5,F113,$Q$5,G113,$R$6)</f>
+        <v>['108',6366,2039]</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>109</v>
+      </c>
+      <c r="B114" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C114">
+        <v>307</v>
+      </c>
+      <c r="D114">
+        <v>50</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" s="13">
+        <f t="shared" si="13"/>
+        <v>6673</v>
+      </c>
+      <c r="G114" s="12">
+        <f t="shared" si="14"/>
+        <v>2089</v>
+      </c>
+      <c r="H114" s="11">
+        <f t="shared" si="11"/>
+        <v>149</v>
+      </c>
+      <c r="N114" t="str">
+        <f t="shared" si="7"/>
+        <v>['109',6673,149]</v>
+      </c>
+      <c r="O114" t="str">
+        <f t="shared" si="15"/>
+        <v>['109',6673,2089]</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -661,16 +661,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6673</c:v>
+                  <c:v>6941</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4435</c:v>
+                  <c:v>4680</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2089</c:v>
+                  <c:v>2109</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,11 +729,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="364543520"/>
-        <c:axId val="364541952"/>
+        <c:axId val="180591824"/>
+        <c:axId val="180594176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="364543520"/>
+        <c:axId val="180591824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364541952"/>
+        <c:crossAx val="180594176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -784,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="364541952"/>
+        <c:axId val="180594176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364543520"/>
+        <c:crossAx val="180591824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C95" workbookViewId="0">
-      <selection activeCell="O113" sqref="O113:O114"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,19 +1874,19 @@
       </c>
       <c r="I6" s="23">
         <f>SUM(C6:C3000)</f>
-        <v>6673</v>
+        <v>6941</v>
       </c>
       <c r="J6" s="24">
         <f>I6-(K6+L6)</f>
-        <v>4435</v>
+        <v>4680</v>
       </c>
       <c r="K6" s="25">
         <f>SUM(D6:D3000)</f>
-        <v>2089</v>
+        <v>2109</v>
       </c>
       <c r="L6" s="26">
         <f>SUM(E6:E3000)</f>
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N6" t="str">
         <f>CONCATENATE($Q$6,$R$5,"'",A6,"'",$R$5,$Q$5,F6,$Q$5,H6,$R$6)</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="K8" s="17">
         <f>(K6/I6)</f>
-        <v>0.31305260002997154</v>
+        <v>0.30384670796715169</v>
       </c>
       <c r="L8" s="17">
         <f>(L6/I6)</f>
-        <v>2.2328787651730856E-2</v>
+        <v>2.1898861835470393E-2</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
@@ -4666,7 +4666,7 @@
         <v>64</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" ref="N71:N114" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
+        <f t="shared" ref="N71:N115" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
         <v>['66',963,50]</v>
       </c>
       <c r="O71" t="str">
@@ -4700,7 +4700,7 @@
         <v>349</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" ref="H72:H114" si="11">H71+E72</f>
+        <f t="shared" ref="H72:H115" si="11">H71+E72</f>
         <v>50</v>
       </c>
       <c r="J72" s="19">
@@ -6266,11 +6266,11 @@
         <v>4</v>
       </c>
       <c r="F113" s="13">
-        <f t="shared" ref="F113:F114" si="13">F112+C113</f>
+        <f t="shared" ref="F113:F115" si="13">F112+C113</f>
         <v>6366</v>
       </c>
       <c r="G113" s="12">
-        <f t="shared" ref="G113:G114" si="14">G112+D113</f>
+        <f t="shared" ref="G113:G115" si="14">G112+D113</f>
         <v>2039</v>
       </c>
       <c r="H113" s="11">
@@ -6282,7 +6282,7 @@
         <v>['108',6366,148]</v>
       </c>
       <c r="O113" t="str">
-        <f t="shared" ref="O113:O114" si="15">CONCATENATE($Q$6,$R$5,"'",A113,"'",$R$5,$Q$5,F113,$Q$5,G113,$R$6)</f>
+        <f t="shared" ref="O113:O115" si="15">CONCATENATE($Q$6,$R$5,"'",A113,"'",$R$5,$Q$5,F113,$Q$5,G113,$R$6)</f>
         <v>['108',6366,2039]</v>
       </c>
     </row>
@@ -6324,7 +6324,41 @@
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B115" s="3"/>
+      <c r="A115">
+        <v>110</v>
+      </c>
+      <c r="B115" s="3">
+        <v>44014</v>
+      </c>
+      <c r="C115">
+        <v>268</v>
+      </c>
+      <c r="D115">
+        <v>20</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115" s="13">
+        <f t="shared" si="13"/>
+        <v>6941</v>
+      </c>
+      <c r="G115" s="12">
+        <f t="shared" si="14"/>
+        <v>2109</v>
+      </c>
+      <c r="H115" s="11">
+        <f t="shared" si="11"/>
+        <v>152</v>
+      </c>
+      <c r="N115" t="str">
+        <f t="shared" si="7"/>
+        <v>['110',6941,152]</v>
+      </c>
+      <c r="O115" t="str">
+        <f t="shared" si="15"/>
+        <v>['110',6941,2109]</v>
+      </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -661,16 +661,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6941</c:v>
+                  <c:v>8250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4680</c:v>
+                  <c:v>5579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2109</c:v>
+                  <c:v>2504</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>152</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,11 +729,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="180591824"/>
-        <c:axId val="180594176"/>
+        <c:axId val="328070456"/>
+        <c:axId val="328070848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="180591824"/>
+        <c:axId val="328070456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180594176"/>
+        <c:crossAx val="328070848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -784,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180594176"/>
+        <c:axId val="328070848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180591824"/>
+        <c:crossAx val="328070456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="J104" sqref="J104"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,19 +1874,19 @@
       </c>
       <c r="I6" s="23">
         <f>SUM(C6:C3000)</f>
-        <v>6941</v>
+        <v>8250</v>
       </c>
       <c r="J6" s="24">
         <f>I6-(K6+L6)</f>
-        <v>4680</v>
+        <v>5579</v>
       </c>
       <c r="K6" s="25">
         <f>SUM(D6:D3000)</f>
-        <v>2109</v>
+        <v>2504</v>
       </c>
       <c r="L6" s="26">
         <f>SUM(E6:E3000)</f>
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="N6" t="str">
         <f>CONCATENATE($Q$6,$R$5,"'",A6,"'",$R$5,$Q$5,F6,$Q$5,H6,$R$6)</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="K8" s="17">
         <f>(K6/I6)</f>
-        <v>0.30384670796715169</v>
+        <v>0.30351515151515152</v>
       </c>
       <c r="L8" s="17">
         <f>(L6/I6)</f>
-        <v>2.1898861835470393E-2</v>
+        <v>2.0242424242424242E-2</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
@@ -4666,7 +4666,7 @@
         <v>64</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" ref="N71:N115" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
+        <f t="shared" ref="N71:N120" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
         <v>['66',963,50]</v>
       </c>
       <c r="O71" t="str">
@@ -4700,7 +4700,7 @@
         <v>349</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" ref="H72:H115" si="11">H71+E72</f>
+        <f t="shared" ref="H72:H120" si="11">H71+E72</f>
         <v>50</v>
       </c>
       <c r="J72" s="19">
@@ -6266,11 +6266,11 @@
         <v>4</v>
       </c>
       <c r="F113" s="13">
-        <f t="shared" ref="F113:F115" si="13">F112+C113</f>
+        <f t="shared" ref="F113:F120" si="13">F112+C113</f>
         <v>6366</v>
       </c>
       <c r="G113" s="12">
-        <f t="shared" ref="G113:G115" si="14">G112+D113</f>
+        <f t="shared" ref="G113:G120" si="14">G112+D113</f>
         <v>2039</v>
       </c>
       <c r="H113" s="11">
@@ -6282,7 +6282,7 @@
         <v>['108',6366,148]</v>
       </c>
       <c r="O113" t="str">
-        <f t="shared" ref="O113:O115" si="15">CONCATENATE($Q$6,$R$5,"'",A113,"'",$R$5,$Q$5,F113,$Q$5,G113,$R$6)</f>
+        <f t="shared" ref="O113:O120" si="15">CONCATENATE($Q$6,$R$5,"'",A113,"'",$R$5,$Q$5,F113,$Q$5,G113,$R$6)</f>
         <v>['108',6366,2039]</v>
       </c>
     </row>
@@ -6361,19 +6361,189 @@
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B116" s="3"/>
+      <c r="A116">
+        <v>111</v>
+      </c>
+      <c r="B116" s="3">
+        <v>44015</v>
+      </c>
+      <c r="C116">
+        <v>247</v>
+      </c>
+      <c r="D116">
+        <v>39</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116" s="13">
+        <f t="shared" si="13"/>
+        <v>7188</v>
+      </c>
+      <c r="G116" s="12">
+        <f t="shared" si="14"/>
+        <v>2148</v>
+      </c>
+      <c r="H116" s="11">
+        <f t="shared" si="11"/>
+        <v>154</v>
+      </c>
+      <c r="N116" t="str">
+        <f t="shared" si="7"/>
+        <v>['111',7188,154]</v>
+      </c>
+      <c r="O116" t="str">
+        <f t="shared" si="15"/>
+        <v>['111',7188,2148]</v>
+      </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B117" s="3"/>
+      <c r="A117">
+        <v>112</v>
+      </c>
+      <c r="B117" s="3">
+        <v>44016</v>
+      </c>
+      <c r="C117">
+        <v>389</v>
+      </c>
+      <c r="D117">
+        <v>88</v>
+      </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
+      <c r="F117" s="13">
+        <f t="shared" si="13"/>
+        <v>7577</v>
+      </c>
+      <c r="G117" s="12">
+        <f t="shared" si="14"/>
+        <v>2236</v>
+      </c>
+      <c r="H117" s="11">
+        <f t="shared" si="11"/>
+        <v>159</v>
+      </c>
+      <c r="N117" t="str">
+        <f t="shared" si="7"/>
+        <v>['112',7577,159]</v>
+      </c>
+      <c r="O117" t="str">
+        <f t="shared" si="15"/>
+        <v>['112',7577,2236]</v>
+      </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B118" s="3"/>
+      <c r="A118">
+        <v>113</v>
+      </c>
+      <c r="B118" s="3">
+        <v>44017</v>
+      </c>
+      <c r="C118">
+        <v>309</v>
+      </c>
+      <c r="D118">
+        <v>51</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" s="13">
+        <f t="shared" si="13"/>
+        <v>7886</v>
+      </c>
+      <c r="G118" s="12">
+        <f t="shared" si="14"/>
+        <v>2287</v>
+      </c>
+      <c r="H118" s="11">
+        <f t="shared" si="11"/>
+        <v>160</v>
+      </c>
+      <c r="N118" t="str">
+        <f t="shared" si="7"/>
+        <v>['113',7886,160]</v>
+      </c>
+      <c r="O118" t="str">
+        <f t="shared" si="15"/>
+        <v>['113',7886,2287]</v>
+      </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B119" s="3"/>
+      <c r="A119">
+        <v>114</v>
+      </c>
+      <c r="B119" s="3">
+        <v>44018</v>
+      </c>
+      <c r="C119">
+        <v>181</v>
+      </c>
+      <c r="D119">
+        <v>127</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119" s="13">
+        <f t="shared" si="13"/>
+        <v>8067</v>
+      </c>
+      <c r="G119" s="12">
+        <f t="shared" si="14"/>
+        <v>2414</v>
+      </c>
+      <c r="H119" s="11">
+        <f t="shared" si="11"/>
+        <v>164</v>
+      </c>
+      <c r="N119" t="str">
+        <f t="shared" si="7"/>
+        <v>['114',8067,164]</v>
+      </c>
+      <c r="O119" t="str">
+        <f t="shared" si="15"/>
+        <v>['114',8067,2414]</v>
+      </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B120" s="3"/>
+      <c r="A120">
+        <v>115</v>
+      </c>
+      <c r="B120" s="3">
+        <v>44019</v>
+      </c>
+      <c r="C120">
+        <v>183</v>
+      </c>
+      <c r="D120">
+        <v>90</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120" s="13">
+        <f t="shared" si="13"/>
+        <v>8250</v>
+      </c>
+      <c r="G120" s="12">
+        <f t="shared" si="14"/>
+        <v>2504</v>
+      </c>
+      <c r="H120" s="11">
+        <f t="shared" si="11"/>
+        <v>167</v>
+      </c>
+      <c r="N120" t="str">
+        <f t="shared" si="7"/>
+        <v>['115',8250,167]</v>
+      </c>
+      <c r="O120" t="str">
+        <f t="shared" si="15"/>
+        <v>['115',8250,2504]</v>
+      </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -661,16 +661,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8250</c:v>
+                  <c:v>10294</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5579</c:v>
+                  <c:v>7151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2504</c:v>
+                  <c:v>2946</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>167</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,11 +729,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="328070456"/>
-        <c:axId val="328070848"/>
+        <c:axId val="364195240"/>
+        <c:axId val="364508768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="328070456"/>
+        <c:axId val="364195240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328070848"/>
+        <c:crossAx val="364508768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -784,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328070848"/>
+        <c:axId val="364508768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328070456"/>
+        <c:crossAx val="364195240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="L106" workbookViewId="0">
+      <selection activeCell="O121" sqref="O121:O126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,19 +1874,19 @@
       </c>
       <c r="I6" s="23">
         <f>SUM(C6:C3000)</f>
-        <v>8250</v>
+        <v>10294</v>
       </c>
       <c r="J6" s="24">
         <f>I6-(K6+L6)</f>
-        <v>5579</v>
+        <v>7151</v>
       </c>
       <c r="K6" s="25">
         <f>SUM(D6:D3000)</f>
-        <v>2504</v>
+        <v>2946</v>
       </c>
       <c r="L6" s="26">
         <f>SUM(E6:E3000)</f>
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="N6" t="str">
         <f>CONCATENATE($Q$6,$R$5,"'",A6,"'",$R$5,$Q$5,F6,$Q$5,H6,$R$6)</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="K8" s="17">
         <f>(K6/I6)</f>
-        <v>0.30351515151515152</v>
+        <v>0.28618612784146102</v>
       </c>
       <c r="L8" s="17">
         <f>(L6/I6)</f>
-        <v>2.0242424242424242E-2</v>
+        <v>1.9137361569846512E-2</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
@@ -4666,7 +4666,7 @@
         <v>64</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" ref="N71:N120" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
+        <f t="shared" ref="N71:N126" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
         <v>['66',963,50]</v>
       </c>
       <c r="O71" t="str">
@@ -4700,7 +4700,7 @@
         <v>349</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" ref="H72:H120" si="11">H71+E72</f>
+        <f t="shared" ref="H72:H126" si="11">H71+E72</f>
         <v>50</v>
       </c>
       <c r="J72" s="19">
@@ -6266,11 +6266,11 @@
         <v>4</v>
       </c>
       <c r="F113" s="13">
-        <f t="shared" ref="F113:F120" si="13">F112+C113</f>
+        <f t="shared" ref="F113:F126" si="13">F112+C113</f>
         <v>6366</v>
       </c>
       <c r="G113" s="12">
-        <f t="shared" ref="G113:G120" si="14">G112+D113</f>
+        <f t="shared" ref="G113:G126" si="14">G112+D113</f>
         <v>2039</v>
       </c>
       <c r="H113" s="11">
@@ -6282,7 +6282,7 @@
         <v>['108',6366,148]</v>
       </c>
       <c r="O113" t="str">
-        <f t="shared" ref="O113:O120" si="15">CONCATENATE($Q$6,$R$5,"'",A113,"'",$R$5,$Q$5,F113,$Q$5,G113,$R$6)</f>
+        <f t="shared" ref="O113:O126" si="15">CONCATENATE($Q$6,$R$5,"'",A113,"'",$R$5,$Q$5,F113,$Q$5,G113,$R$6)</f>
         <v>['108',6366,2039]</v>
       </c>
     </row>
@@ -6546,22 +6546,226 @@
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B121" s="3"/>
+      <c r="A121">
+        <v>116</v>
+      </c>
+      <c r="B121" s="3">
+        <v>44020</v>
+      </c>
+      <c r="C121">
+        <v>278</v>
+      </c>
+      <c r="D121">
+        <v>89</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121" s="13">
+        <f t="shared" si="13"/>
+        <v>8528</v>
+      </c>
+      <c r="G121" s="12">
+        <f t="shared" si="14"/>
+        <v>2593</v>
+      </c>
+      <c r="H121" s="11">
+        <f t="shared" si="11"/>
+        <v>169</v>
+      </c>
+      <c r="N121" t="str">
+        <f t="shared" si="7"/>
+        <v>['116',8528,169]</v>
+      </c>
+      <c r="O121" t="str">
+        <f t="shared" si="15"/>
+        <v>['116',8528,2593]</v>
+      </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B122" s="3"/>
+      <c r="A122">
+        <v>117</v>
+      </c>
+      <c r="B122" s="3">
+        <v>44021</v>
+      </c>
+      <c r="C122">
+        <v>447</v>
+      </c>
+      <c r="D122">
+        <v>64</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+      <c r="F122" s="13">
+        <f t="shared" si="13"/>
+        <v>8975</v>
+      </c>
+      <c r="G122" s="12">
+        <f t="shared" si="14"/>
+        <v>2657</v>
+      </c>
+      <c r="H122" s="11">
+        <f t="shared" si="11"/>
+        <v>173</v>
+      </c>
+      <c r="N122" t="str">
+        <f t="shared" si="7"/>
+        <v>['117',8975,173]</v>
+      </c>
+      <c r="O122" t="str">
+        <f t="shared" si="15"/>
+        <v>['117',8975,2657]</v>
+      </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B123" s="3"/>
+      <c r="A123">
+        <v>118</v>
+      </c>
+      <c r="B123" s="3">
+        <v>44022</v>
+      </c>
+      <c r="C123">
+        <v>473</v>
+      </c>
+      <c r="D123">
+        <v>76</v>
+      </c>
+      <c r="E123">
+        <v>8</v>
+      </c>
+      <c r="F123" s="13">
+        <f t="shared" si="13"/>
+        <v>9448</v>
+      </c>
+      <c r="G123" s="12">
+        <f t="shared" si="14"/>
+        <v>2733</v>
+      </c>
+      <c r="H123" s="11">
+        <f t="shared" si="11"/>
+        <v>181</v>
+      </c>
+      <c r="N123" t="str">
+        <f t="shared" si="7"/>
+        <v>['118',9448,181]</v>
+      </c>
+      <c r="O123" t="str">
+        <f t="shared" si="15"/>
+        <v>['118',9448,2733]</v>
+      </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B124" s="3"/>
+      <c r="A124">
+        <v>119</v>
+      </c>
+      <c r="B124" s="3">
+        <v>44023</v>
+      </c>
+      <c r="C124">
+        <v>278</v>
+      </c>
+      <c r="D124">
+        <v>99</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124" s="13">
+        <f t="shared" si="13"/>
+        <v>9726</v>
+      </c>
+      <c r="G124" s="12">
+        <f t="shared" si="14"/>
+        <v>2832</v>
+      </c>
+      <c r="H124" s="11">
+        <f t="shared" si="11"/>
+        <v>184</v>
+      </c>
+      <c r="N124" t="str">
+        <f t="shared" si="7"/>
+        <v>['119',9726,184]</v>
+      </c>
+      <c r="O124" t="str">
+        <f t="shared" si="15"/>
+        <v>['119',9726,2832]</v>
+      </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B125" s="3"/>
+      <c r="A125">
+        <v>120</v>
+      </c>
+      <c r="B125" s="3">
+        <v>44024</v>
+      </c>
+      <c r="C125">
+        <v>379</v>
+      </c>
+      <c r="D125">
+        <v>49</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125" s="13">
+        <f t="shared" si="13"/>
+        <v>10105</v>
+      </c>
+      <c r="G125" s="12">
+        <f t="shared" si="14"/>
+        <v>2881</v>
+      </c>
+      <c r="H125" s="11">
+        <f t="shared" si="11"/>
+        <v>185</v>
+      </c>
+      <c r="N125" t="str">
+        <f t="shared" si="7"/>
+        <v>['120',10105,185]</v>
+      </c>
+      <c r="O125" t="str">
+        <f t="shared" si="15"/>
+        <v>['120',10105,2881]</v>
+      </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B126" s="3"/>
+      <c r="A126">
+        <v>121</v>
+      </c>
+      <c r="B126" s="3">
+        <v>44025</v>
+      </c>
+      <c r="C126">
+        <v>189</v>
+      </c>
+      <c r="D126">
+        <v>65</v>
+      </c>
+      <c r="E126">
+        <v>12</v>
+      </c>
+      <c r="F126" s="13">
+        <f t="shared" si="13"/>
+        <v>10294</v>
+      </c>
+      <c r="G126" s="12">
+        <f t="shared" si="14"/>
+        <v>2946</v>
+      </c>
+      <c r="H126" s="11">
+        <f t="shared" si="11"/>
+        <v>197</v>
+      </c>
+      <c r="N126" t="str">
+        <f t="shared" si="7"/>
+        <v>['121',10294,197]</v>
+      </c>
+      <c r="O126" t="str">
+        <f t="shared" si="15"/>
+        <v>['121',10294,2946]</v>
+      </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -661,16 +661,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10294</c:v>
+                  <c:v>14168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7151</c:v>
+                  <c:v>7660</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2946</c:v>
+                  <c:v>6258</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,11 +729,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="364195240"/>
-        <c:axId val="364508768"/>
+        <c:axId val="373448976"/>
+        <c:axId val="373449368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="364195240"/>
+        <c:axId val="373448976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364508768"/>
+        <c:crossAx val="373449368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -784,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="364508768"/>
+        <c:axId val="373449368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364195240"/>
+        <c:crossAx val="373448976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L106" workbookViewId="0">
-      <selection activeCell="O121" sqref="O121:O126"/>
+    <sheetView tabSelected="1" topLeftCell="L121" workbookViewId="0">
+      <selection activeCell="Q133" sqref="Q133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,19 +1874,19 @@
       </c>
       <c r="I6" s="23">
         <f>SUM(C6:C3000)</f>
-        <v>10294</v>
+        <v>14168</v>
       </c>
       <c r="J6" s="24">
         <f>I6-(K6+L6)</f>
-        <v>7151</v>
+        <v>7660</v>
       </c>
       <c r="K6" s="25">
         <f>SUM(D6:D3000)</f>
-        <v>2946</v>
+        <v>6258</v>
       </c>
       <c r="L6" s="26">
         <f>SUM(E6:E3000)</f>
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="N6" t="str">
         <f>CONCATENATE($Q$6,$R$5,"'",A6,"'",$R$5,$Q$5,F6,$Q$5,H6,$R$6)</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="K8" s="17">
         <f>(K6/I6)</f>
-        <v>0.28618612784146102</v>
+        <v>0.44169960474308301</v>
       </c>
       <c r="L8" s="17">
         <f>(L6/I6)</f>
-        <v>1.9137361569846512E-2</v>
+        <v>1.7645398080180688E-2</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
@@ -4666,7 +4666,7 @@
         <v>64</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" ref="N71:N126" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
+        <f t="shared" ref="N71:N134" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
         <v>['66',963,50]</v>
       </c>
       <c r="O71" t="str">
@@ -4700,7 +4700,7 @@
         <v>349</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" ref="H72:H126" si="11">H71+E72</f>
+        <f t="shared" ref="H72:H134" si="11">H71+E72</f>
         <v>50</v>
       </c>
       <c r="J72" s="19">
@@ -6266,11 +6266,11 @@
         <v>4</v>
       </c>
       <c r="F113" s="13">
-        <f t="shared" ref="F113:F126" si="13">F112+C113</f>
+        <f t="shared" ref="F113:F134" si="13">F112+C113</f>
         <v>6366</v>
       </c>
       <c r="G113" s="12">
-        <f t="shared" ref="G113:G126" si="14">G112+D113</f>
+        <f t="shared" ref="G113:G134" si="14">G112+D113</f>
         <v>2039</v>
       </c>
       <c r="H113" s="11">
@@ -6282,7 +6282,7 @@
         <v>['108',6366,148]</v>
       </c>
       <c r="O113" t="str">
-        <f t="shared" ref="O113:O126" si="15">CONCATENATE($Q$6,$R$5,"'",A113,"'",$R$5,$Q$5,F113,$Q$5,G113,$R$6)</f>
+        <f t="shared" ref="O113:O134" si="15">CONCATENATE($Q$6,$R$5,"'",A113,"'",$R$5,$Q$5,F113,$Q$5,G113,$R$6)</f>
         <v>['108',6366,2039]</v>
       </c>
     </row>
@@ -6768,57 +6768,329 @@
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B127" s="3"/>
+      <c r="A127">
+        <v>122</v>
+      </c>
+      <c r="B127" s="3">
+        <v>44026</v>
+      </c>
+      <c r="C127">
+        <v>497</v>
+      </c>
+      <c r="D127">
+        <v>71</v>
+      </c>
+      <c r="E127">
+        <v>5</v>
+      </c>
+      <c r="F127" s="13">
+        <f t="shared" si="13"/>
+        <v>10791</v>
+      </c>
+      <c r="G127" s="12">
+        <f t="shared" si="14"/>
+        <v>3017</v>
+      </c>
+      <c r="H127" s="11">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="N127" t="str">
+        <f t="shared" si="7"/>
+        <v>['122',10791,202]</v>
+      </c>
+      <c r="O127" t="str">
+        <f t="shared" si="15"/>
+        <v>['122',10791,3017]</v>
+      </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B128" s="3"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="3"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="3"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="3"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="3"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="3"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="3"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>123</v>
+      </c>
+      <c r="B128" s="3">
+        <v>44027</v>
+      </c>
+      <c r="C128">
+        <v>461</v>
+      </c>
+      <c r="D128">
+        <v>51</v>
+      </c>
+      <c r="E128">
+        <v>7</v>
+      </c>
+      <c r="F128" s="13">
+        <f t="shared" si="13"/>
+        <v>11252</v>
+      </c>
+      <c r="G128" s="12">
+        <f t="shared" si="14"/>
+        <v>3068</v>
+      </c>
+      <c r="H128" s="11">
+        <f t="shared" si="11"/>
+        <v>209</v>
+      </c>
+      <c r="N128" t="str">
+        <f t="shared" si="7"/>
+        <v>['123',11252,209]</v>
+      </c>
+      <c r="O128" t="str">
+        <f t="shared" si="15"/>
+        <v>['123',11252,3068]</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>124</v>
+      </c>
+      <c r="B129" s="3">
+        <v>44028</v>
+      </c>
+      <c r="C129">
+        <v>421</v>
+      </c>
+      <c r="D129">
+        <v>570</v>
+      </c>
+      <c r="E129">
+        <v>8</v>
+      </c>
+      <c r="F129" s="13">
+        <f t="shared" si="13"/>
+        <v>11673</v>
+      </c>
+      <c r="G129" s="12">
+        <f t="shared" si="14"/>
+        <v>3638</v>
+      </c>
+      <c r="H129" s="11">
+        <f t="shared" si="11"/>
+        <v>217</v>
+      </c>
+      <c r="N129" t="str">
+        <f t="shared" si="7"/>
+        <v>['124',11673,217]</v>
+      </c>
+      <c r="O129" t="str">
+        <f t="shared" si="15"/>
+        <v>['124',11673,3638]</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>125</v>
+      </c>
+      <c r="B130" s="3">
+        <v>44029</v>
+      </c>
+      <c r="C130">
+        <v>389</v>
+      </c>
+      <c r="D130">
+        <v>345</v>
+      </c>
+      <c r="E130">
+        <v>5</v>
+      </c>
+      <c r="F130" s="13">
+        <f t="shared" si="13"/>
+        <v>12062</v>
+      </c>
+      <c r="G130" s="12">
+        <f t="shared" si="14"/>
+        <v>3983</v>
+      </c>
+      <c r="H130" s="11">
+        <f t="shared" si="11"/>
+        <v>222</v>
+      </c>
+      <c r="N130" t="str">
+        <f t="shared" si="7"/>
+        <v>['125',12062,222]</v>
+      </c>
+      <c r="O130" t="str">
+        <f t="shared" si="15"/>
+        <v>['125',12062,3983]</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>126</v>
+      </c>
+      <c r="B131" s="3">
+        <v>44030</v>
+      </c>
+      <c r="C131">
+        <v>688</v>
+      </c>
+      <c r="D131">
+        <v>457</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
+      </c>
+      <c r="F131" s="13">
+        <f t="shared" si="13"/>
+        <v>12750</v>
+      </c>
+      <c r="G131" s="12">
+        <f t="shared" si="14"/>
+        <v>4440</v>
+      </c>
+      <c r="H131" s="11">
+        <f t="shared" si="11"/>
+        <v>225</v>
+      </c>
+      <c r="N131" t="str">
+        <f t="shared" si="7"/>
+        <v>['126',12750,225]</v>
+      </c>
+      <c r="O131" t="str">
+        <f t="shared" si="15"/>
+        <v>['126',12750,4440]</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>127</v>
+      </c>
+      <c r="B132" s="3">
+        <v>44031</v>
+      </c>
+      <c r="C132">
+        <v>603</v>
+      </c>
+      <c r="D132">
+        <v>682</v>
+      </c>
+      <c r="E132">
+        <v>9</v>
+      </c>
+      <c r="F132" s="13">
+        <f t="shared" si="13"/>
+        <v>13353</v>
+      </c>
+      <c r="G132" s="12">
+        <f t="shared" si="14"/>
+        <v>5122</v>
+      </c>
+      <c r="H132" s="11">
+        <f t="shared" si="11"/>
+        <v>234</v>
+      </c>
+      <c r="N132" t="str">
+        <f t="shared" si="7"/>
+        <v>['127',13353,234]</v>
+      </c>
+      <c r="O132" t="str">
+        <f t="shared" si="15"/>
+        <v>['127',13353,5122]</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>128</v>
+      </c>
+      <c r="B133" s="3">
+        <v>44032</v>
+      </c>
+      <c r="C133">
+        <v>418</v>
+      </c>
+      <c r="D133">
+        <v>494</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133" s="13">
+        <f t="shared" si="13"/>
+        <v>13771</v>
+      </c>
+      <c r="G133" s="12">
+        <f t="shared" si="14"/>
+        <v>5616</v>
+      </c>
+      <c r="H133" s="11">
+        <f t="shared" si="11"/>
+        <v>238</v>
+      </c>
+      <c r="N133" t="str">
+        <f t="shared" si="7"/>
+        <v>['128',13771,238]</v>
+      </c>
+      <c r="O133" t="str">
+        <f t="shared" si="15"/>
+        <v>['128',13771,5616]</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>129</v>
+      </c>
+      <c r="B134" s="3">
+        <v>44033</v>
+      </c>
+      <c r="C134">
+        <v>397</v>
+      </c>
+      <c r="D134">
+        <v>642</v>
+      </c>
+      <c r="E134">
+        <v>12</v>
+      </c>
+      <c r="F134" s="13">
+        <f t="shared" si="13"/>
+        <v>14168</v>
+      </c>
+      <c r="G134" s="12">
+        <f t="shared" si="14"/>
+        <v>6258</v>
+      </c>
+      <c r="H134" s="11">
+        <f t="shared" si="11"/>
+        <v>250</v>
+      </c>
+      <c r="N134" t="str">
+        <f t="shared" si="7"/>
+        <v>['129',14168,250]</v>
+      </c>
+      <c r="O134" t="str">
+        <f t="shared" si="15"/>
+        <v>['129',14168,6258]</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -661,16 +661,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14168</c:v>
+                  <c:v>15601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7660</c:v>
+                  <c:v>8203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6258</c:v>
+                  <c:v>7135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,11 +729,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="373448976"/>
-        <c:axId val="373449368"/>
+        <c:axId val="150327560"/>
+        <c:axId val="150331088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="373448976"/>
+        <c:axId val="150327560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373449368"/>
+        <c:crossAx val="150331088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -784,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373449368"/>
+        <c:axId val="150331088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373448976"/>
+        <c:crossAx val="150327560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L121" workbookViewId="0">
-      <selection activeCell="Q133" sqref="Q133"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O135" sqref="O135:O136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,19 +1874,19 @@
       </c>
       <c r="I6" s="23">
         <f>SUM(C6:C3000)</f>
-        <v>14168</v>
+        <v>15601</v>
       </c>
       <c r="J6" s="24">
         <f>I6-(K6+L6)</f>
-        <v>7660</v>
+        <v>8203</v>
       </c>
       <c r="K6" s="25">
         <f>SUM(D6:D3000)</f>
-        <v>6258</v>
+        <v>7135</v>
       </c>
       <c r="L6" s="26">
         <f>SUM(E6:E3000)</f>
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="N6" t="str">
         <f>CONCATENATE($Q$6,$R$5,"'",A6,"'",$R$5,$Q$5,F6,$Q$5,H6,$R$6)</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="K8" s="17">
         <f>(K6/I6)</f>
-        <v>0.44169960474308301</v>
+        <v>0.45734247804627909</v>
       </c>
       <c r="L8" s="17">
         <f>(L6/I6)</f>
-        <v>1.7645398080180688E-2</v>
+        <v>1.6857893724761232E-2</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
@@ -4666,7 +4666,7 @@
         <v>64</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" ref="N71:N134" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
+        <f t="shared" ref="N71:N135" si="7">CONCATENATE($Q$6,$R$5,"'",A71,"'",$R$5,$Q$5,F71,$Q$5,H71,$R$6)</f>
         <v>['66',963,50]</v>
       </c>
       <c r="O71" t="str">
@@ -4700,7 +4700,7 @@
         <v>349</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" ref="H72:H134" si="11">H71+E72</f>
+        <f t="shared" ref="H72:H135" si="11">H71+E72</f>
         <v>50</v>
       </c>
       <c r="J72" s="19">
@@ -6266,11 +6266,11 @@
         <v>4</v>
       </c>
       <c r="F113" s="13">
-        <f t="shared" ref="F113:F134" si="13">F112+C113</f>
+        <f t="shared" ref="F113:F136" si="13">F112+C113</f>
         <v>6366</v>
       </c>
       <c r="G113" s="12">
-        <f t="shared" ref="G113:G134" si="14">G112+D113</f>
+        <f t="shared" ref="G113:H136" si="14">G112+D113</f>
         <v>2039</v>
       </c>
       <c r="H113" s="11">
@@ -6282,7 +6282,7 @@
         <v>['108',6366,148]</v>
       </c>
       <c r="O113" t="str">
-        <f t="shared" ref="O113:O134" si="15">CONCATENATE($Q$6,$R$5,"'",A113,"'",$R$5,$Q$5,F113,$Q$5,G113,$R$6)</f>
+        <f t="shared" ref="O113:O136" si="15">CONCATENATE($Q$6,$R$5,"'",A113,"'",$R$5,$Q$5,F113,$Q$5,G113,$R$6)</f>
         <v>['108',6366,2039]</v>
       </c>
     </row>
@@ -7064,10 +7064,78 @@
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B135" s="3"/>
+      <c r="A135">
+        <v>130</v>
+      </c>
+      <c r="B135" s="3">
+        <v>44034</v>
+      </c>
+      <c r="C135">
+        <v>637</v>
+      </c>
+      <c r="D135">
+        <v>499</v>
+      </c>
+      <c r="E135">
+        <v>10</v>
+      </c>
+      <c r="F135" s="13">
+        <f t="shared" si="13"/>
+        <v>14805</v>
+      </c>
+      <c r="G135" s="12">
+        <f t="shared" si="14"/>
+        <v>6757</v>
+      </c>
+      <c r="H135" s="11">
+        <f t="shared" si="11"/>
+        <v>260</v>
+      </c>
+      <c r="N135" t="str">
+        <f t="shared" si="7"/>
+        <v>['130',14805,260]</v>
+      </c>
+      <c r="O135" t="str">
+        <f t="shared" si="15"/>
+        <v>['130',14805,6757]</v>
+      </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B136" s="3"/>
+      <c r="A136">
+        <v>131</v>
+      </c>
+      <c r="B136" s="3">
+        <v>44035</v>
+      </c>
+      <c r="C136">
+        <v>796</v>
+      </c>
+      <c r="D136">
+        <v>378</v>
+      </c>
+      <c r="E136">
+        <v>3</v>
+      </c>
+      <c r="F136" s="13">
+        <f t="shared" si="13"/>
+        <v>15601</v>
+      </c>
+      <c r="G136" s="12">
+        <f t="shared" si="14"/>
+        <v>7135</v>
+      </c>
+      <c r="H136" s="11">
+        <f t="shared" si="14"/>
+        <v>263</v>
+      </c>
+      <c r="N136" t="str">
+        <f t="shared" ref="N136" si="16">CONCATENATE($Q$6,$R$5,"'",A136,"'",$R$5,$Q$5,F136,$Q$5,H136,$R$6)</f>
+        <v>['131',15601,263]</v>
+      </c>
+      <c r="O136" t="str">
+        <f t="shared" si="15"/>
+        <v>['131',15601,7135]</v>
+      </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -661,16 +661,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15601</c:v>
+                  <c:v>29830</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8203</c:v>
+                  <c:v>13388</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7135</c:v>
+                  <c:v>15970</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>263</c:v>
+                  <c:v>472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,11 +729,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="150327560"/>
-        <c:axId val="150331088"/>
+        <c:axId val="306897880"/>
+        <c:axId val="306895920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150327560"/>
+        <c:axId val="306897880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150331088"/>
+        <c:crossAx val="306895920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -784,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150331088"/>
+        <c:axId val="306895920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150327560"/>
+        <c:crossAx val="306897880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O135" sqref="O135:O136"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="J162" sqref="J162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,19 +1874,19 @@
       </c>
       <c r="I6" s="23">
         <f>SUM(C6:C3000)</f>
-        <v>15601</v>
+        <v>29830</v>
       </c>
       <c r="J6" s="24">
         <f>I6-(K6+L6)</f>
-        <v>8203</v>
+        <v>13388</v>
       </c>
       <c r="K6" s="25">
         <f>SUM(D6:D3000)</f>
-        <v>7135</v>
+        <v>15970</v>
       </c>
       <c r="L6" s="26">
         <f>SUM(E6:E3000)</f>
-        <v>263</v>
+        <v>472</v>
       </c>
       <c r="N6" t="str">
         <f>CONCATENATE($Q$6,$R$5,"'",A6,"'",$R$5,$Q$5,F6,$Q$5,H6,$R$6)</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="K8" s="17">
         <f>(K6/I6)</f>
-        <v>0.45734247804627909</v>
+        <v>0.5353670801206839</v>
       </c>
       <c r="L8" s="17">
         <f>(L6/I6)</f>
-        <v>1.6857893724761232E-2</v>
+        <v>1.5822996982903119E-2</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
@@ -6266,11 +6266,11 @@
         <v>4</v>
       </c>
       <c r="F113" s="13">
-        <f t="shared" ref="F113:F136" si="13">F112+C113</f>
+        <f t="shared" ref="F113:H144" si="13">F112+C113</f>
         <v>6366</v>
       </c>
       <c r="G113" s="12">
-        <f t="shared" ref="G113:H136" si="14">G112+D113</f>
+        <f t="shared" ref="G113:H137" si="14">G112+D113</f>
         <v>2039</v>
       </c>
       <c r="H113" s="11">
@@ -6282,7 +6282,7 @@
         <v>['108',6366,148]</v>
       </c>
       <c r="O113" t="str">
-        <f t="shared" ref="O113:O136" si="15">CONCATENATE($Q$6,$R$5,"'",A113,"'",$R$5,$Q$5,F113,$Q$5,G113,$R$6)</f>
+        <f t="shared" ref="O113:O169" si="15">CONCATENATE($Q$6,$R$5,"'",A113,"'",$R$5,$Q$5,F113,$Q$5,G113,$R$6)</f>
         <v>['108',6366,2039]</v>
       </c>
     </row>
@@ -7102,6 +7102,7 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136">
+        <f>A135+1</f>
         <v>131</v>
       </c>
       <c r="B136" s="3">
@@ -7129,7 +7130,7 @@
         <v>263</v>
       </c>
       <c r="N136" t="str">
-        <f t="shared" ref="N136" si="16">CONCATENATE($Q$6,$R$5,"'",A136,"'",$R$5,$Q$5,F136,$Q$5,H136,$R$6)</f>
+        <f t="shared" ref="N136:N169" si="16">CONCATENATE($Q$6,$R$5,"'",A136,"'",$R$5,$Q$5,F136,$Q$5,H136,$R$6)</f>
         <v>['131',15601,263]</v>
       </c>
       <c r="O136" t="str">
@@ -7138,123 +7139,1188 @@
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B137" s="3"/>
+      <c r="A137">
+        <f t="shared" ref="A137:A174" si="17">A136+1</f>
+        <v>132</v>
+      </c>
+      <c r="B137" s="3">
+        <v>44036</v>
+      </c>
+      <c r="C137">
+        <v>667</v>
+      </c>
+      <c r="D137">
+        <v>311</v>
+      </c>
+      <c r="E137">
+        <v>11</v>
+      </c>
+      <c r="F137" s="13">
+        <f t="shared" si="13"/>
+        <v>16268</v>
+      </c>
+      <c r="G137" s="12">
+        <f t="shared" si="14"/>
+        <v>7446</v>
+      </c>
+      <c r="H137" s="11">
+        <f t="shared" si="14"/>
+        <v>274</v>
+      </c>
+      <c r="N137" t="str">
+        <f t="shared" si="16"/>
+        <v>['132',16268,274]</v>
+      </c>
+      <c r="O137" t="str">
+        <f t="shared" si="15"/>
+        <v>['132',16268,7446]</v>
+      </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B138" s="3"/>
+      <c r="A138">
+        <f t="shared" si="17"/>
+        <v>133</v>
+      </c>
+      <c r="B138" s="3">
+        <v>44037</v>
+      </c>
+      <c r="C138">
+        <v>373</v>
+      </c>
+      <c r="D138">
+        <v>128</v>
+      </c>
+      <c r="E138">
+        <v>4</v>
+      </c>
+      <c r="F138" s="13">
+        <f t="shared" si="13"/>
+        <v>16641</v>
+      </c>
+      <c r="G138" s="12">
+        <f t="shared" si="13"/>
+        <v>7574</v>
+      </c>
+      <c r="H138" s="11">
+        <f t="shared" si="13"/>
+        <v>278</v>
+      </c>
+      <c r="N138" t="str">
+        <f t="shared" si="16"/>
+        <v>['133',16641,278]</v>
+      </c>
+      <c r="O138" t="str">
+        <f t="shared" si="15"/>
+        <v>['133',16641,7574]</v>
+      </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B139" s="3"/>
+      <c r="A139">
+        <f t="shared" si="17"/>
+        <v>134</v>
+      </c>
+      <c r="B139" s="3">
+        <v>44038</v>
+      </c>
+      <c r="C139">
+        <v>894</v>
+      </c>
+      <c r="D139">
+        <v>169</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139" s="13">
+        <f t="shared" si="13"/>
+        <v>17535</v>
+      </c>
+      <c r="G139" s="12">
+        <f t="shared" si="13"/>
+        <v>7743</v>
+      </c>
+      <c r="H139" s="11">
+        <f t="shared" si="13"/>
+        <v>280</v>
+      </c>
+      <c r="N139" t="str">
+        <f t="shared" si="16"/>
+        <v>['134',17535,280]</v>
+      </c>
+      <c r="O139" t="str">
+        <f t="shared" si="15"/>
+        <v>['134',17535,7743]</v>
+      </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B140" s="3"/>
+      <c r="A140">
+        <f t="shared" si="17"/>
+        <v>135</v>
+      </c>
+      <c r="B140" s="3">
+        <v>44039</v>
+      </c>
+      <c r="C140">
+        <v>440</v>
+      </c>
+      <c r="D140">
+        <v>90</v>
+      </c>
+      <c r="E140">
+        <v>5</v>
+      </c>
+      <c r="F140" s="13">
+        <f t="shared" si="13"/>
+        <v>17975</v>
+      </c>
+      <c r="G140" s="12">
+        <f t="shared" si="13"/>
+        <v>7833</v>
+      </c>
+      <c r="H140" s="11">
+        <f t="shared" si="13"/>
+        <v>285</v>
+      </c>
+      <c r="N140" t="str">
+        <f t="shared" si="16"/>
+        <v>['135',17975,285]</v>
+      </c>
+      <c r="O140" t="str">
+        <f t="shared" si="15"/>
+        <v>['135',17975,7833]</v>
+      </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B141" s="3"/>
+      <c r="A141">
+        <f t="shared" si="17"/>
+        <v>136</v>
+      </c>
+      <c r="B141" s="3">
+        <v>44040</v>
+      </c>
+      <c r="C141">
+        <v>606</v>
+      </c>
+      <c r="D141">
+        <v>75</v>
+      </c>
+      <c r="E141">
+        <v>14</v>
+      </c>
+      <c r="F141" s="13">
+        <f t="shared" si="13"/>
+        <v>18581</v>
+      </c>
+      <c r="G141" s="12">
+        <f t="shared" si="13"/>
+        <v>7908</v>
+      </c>
+      <c r="H141" s="11">
+        <f t="shared" si="13"/>
+        <v>299</v>
+      </c>
+      <c r="N141" t="str">
+        <f t="shared" si="16"/>
+        <v>['136',18581,299]</v>
+      </c>
+      <c r="O141" t="str">
+        <f t="shared" si="15"/>
+        <v>['136',18581,7908]</v>
+      </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B142" s="3"/>
+      <c r="A142">
+        <f t="shared" si="17"/>
+        <v>137</v>
+      </c>
+      <c r="B142" s="3">
+        <v>44041</v>
+      </c>
+      <c r="C142">
+        <v>544</v>
+      </c>
+      <c r="D142">
+        <v>113</v>
+      </c>
+      <c r="E142">
+        <v>12</v>
+      </c>
+      <c r="F142" s="13">
+        <f t="shared" si="13"/>
+        <v>19125</v>
+      </c>
+      <c r="G142" s="12">
+        <f t="shared" si="13"/>
+        <v>8021</v>
+      </c>
+      <c r="H142" s="11">
+        <f t="shared" si="13"/>
+        <v>311</v>
+      </c>
+      <c r="N142" t="str">
+        <f t="shared" si="16"/>
+        <v>['137',19125,311]</v>
+      </c>
+      <c r="O142" t="str">
+        <f t="shared" si="15"/>
+        <v>['137',19125,8021]</v>
+      </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B143" s="3"/>
+      <c r="A143">
+        <f t="shared" si="17"/>
+        <v>138</v>
+      </c>
+      <c r="B143" s="3">
+        <v>44042</v>
+      </c>
+      <c r="C143">
+        <v>788</v>
+      </c>
+      <c r="D143">
+        <v>100</v>
+      </c>
+      <c r="E143">
+        <v>14</v>
+      </c>
+      <c r="F143" s="13">
+        <f t="shared" si="13"/>
+        <v>19913</v>
+      </c>
+      <c r="G143" s="12">
+        <f t="shared" si="13"/>
+        <v>8121</v>
+      </c>
+      <c r="H143" s="11">
+        <f t="shared" si="13"/>
+        <v>325</v>
+      </c>
+      <c r="N143" t="str">
+        <f t="shared" si="16"/>
+        <v>['138',19913,325]</v>
+      </c>
+      <c r="O143" t="str">
+        <f t="shared" si="15"/>
+        <v>['138',19913,8121]</v>
+      </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B144" s="3"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="3"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="3"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="3"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="3"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="3"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="3"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="3"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="3"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="3"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="3"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="3"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="3"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="3"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="3"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="3"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="3"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="3"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="3"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="3"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="3"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="3"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="3"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="3"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="3"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="3"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="17"/>
+        <v>139</v>
+      </c>
+      <c r="B144" s="3">
+        <v>44043</v>
+      </c>
+      <c r="C144">
+        <v>723</v>
+      </c>
+      <c r="D144">
+        <v>44</v>
+      </c>
+      <c r="E144">
+        <v>16</v>
+      </c>
+      <c r="F144" s="13">
+        <f t="shared" si="13"/>
+        <v>20636</v>
+      </c>
+      <c r="G144" s="12">
+        <f t="shared" ref="G144:H160" si="18">G143+D144</f>
+        <v>8165</v>
+      </c>
+      <c r="H144" s="11">
+        <f t="shared" si="18"/>
+        <v>341</v>
+      </c>
+      <c r="N144" t="str">
+        <f t="shared" si="16"/>
+        <v>['139',20636,341]</v>
+      </c>
+      <c r="O144" t="str">
+        <f t="shared" si="15"/>
+        <v>['139',20636,8165]</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" si="17"/>
+        <v>140</v>
+      </c>
+      <c r="B145" s="3">
+        <v>44044</v>
+      </c>
+      <c r="C145">
+        <v>727</v>
+      </c>
+      <c r="D145">
+        <v>254</v>
+      </c>
+      <c r="E145">
+        <v>23</v>
+      </c>
+      <c r="F145" s="13">
+        <f t="shared" ref="F145:F159" si="19">F144+C145</f>
+        <v>21363</v>
+      </c>
+      <c r="G145" s="12">
+        <f t="shared" si="18"/>
+        <v>8419</v>
+      </c>
+      <c r="H145" s="11">
+        <f t="shared" si="18"/>
+        <v>364</v>
+      </c>
+      <c r="N145" t="str">
+        <f t="shared" si="16"/>
+        <v>['140',21363,364]</v>
+      </c>
+      <c r="O145" t="str">
+        <f t="shared" si="15"/>
+        <v>['140',21363,8419]</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="17"/>
+        <v>141</v>
+      </c>
+      <c r="B146" s="3">
+        <v>44045</v>
+      </c>
+      <c r="C146">
+        <v>690</v>
+      </c>
+      <c r="D146">
+        <v>58</v>
+      </c>
+      <c r="E146">
+        <v>5</v>
+      </c>
+      <c r="F146" s="13">
+        <f t="shared" si="19"/>
+        <v>22053</v>
+      </c>
+      <c r="G146" s="12">
+        <f t="shared" si="18"/>
+        <v>8477</v>
+      </c>
+      <c r="H146" s="11">
+        <f t="shared" si="18"/>
+        <v>369</v>
+      </c>
+      <c r="N146" t="str">
+        <f t="shared" si="16"/>
+        <v>['141',22053,369]</v>
+      </c>
+      <c r="O146" t="str">
+        <f t="shared" si="15"/>
+        <v>['141',22053,8477]</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="17"/>
+        <v>142</v>
+      </c>
+      <c r="B147" s="3">
+        <v>44046</v>
+      </c>
+      <c r="C147">
+        <v>544</v>
+      </c>
+      <c r="D147">
+        <v>263</v>
+      </c>
+      <c r="E147">
+        <v>13</v>
+      </c>
+      <c r="F147" s="13">
+        <f t="shared" si="19"/>
+        <v>22597</v>
+      </c>
+      <c r="G147" s="12">
+        <f t="shared" si="18"/>
+        <v>8740</v>
+      </c>
+      <c r="H147" s="11">
+        <f t="shared" si="18"/>
+        <v>382</v>
+      </c>
+      <c r="N147" t="str">
+        <f t="shared" si="16"/>
+        <v>['142',22597,382]</v>
+      </c>
+      <c r="O147" t="str">
+        <f t="shared" si="15"/>
+        <v>['142',22597,8740]</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="17"/>
+        <v>143</v>
+      </c>
+      <c r="B148" s="3">
+        <v>44047</v>
+      </c>
+      <c r="C148">
+        <v>605</v>
+      </c>
+      <c r="D148">
+        <v>587</v>
+      </c>
+      <c r="E148">
+        <v>6</v>
+      </c>
+      <c r="F148" s="13">
+        <f t="shared" si="19"/>
+        <v>23202</v>
+      </c>
+      <c r="G148" s="12">
+        <f t="shared" si="18"/>
+        <v>9327</v>
+      </c>
+      <c r="H148" s="11">
+        <f t="shared" si="18"/>
+        <v>388</v>
+      </c>
+      <c r="N148" t="str">
+        <f t="shared" si="16"/>
+        <v>['143',23202,388]</v>
+      </c>
+      <c r="O148" t="str">
+        <f t="shared" si="15"/>
+        <v>['143',23202,9327]</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="17"/>
+        <v>144</v>
+      </c>
+      <c r="B149" s="3">
+        <v>44048</v>
+      </c>
+      <c r="C149">
+        <v>671</v>
+      </c>
+      <c r="D149">
+        <v>603</v>
+      </c>
+      <c r="E149">
+        <v>3</v>
+      </c>
+      <c r="F149" s="13">
+        <f t="shared" si="19"/>
+        <v>23873</v>
+      </c>
+      <c r="G149" s="12">
+        <f t="shared" si="18"/>
+        <v>9930</v>
+      </c>
+      <c r="H149" s="11">
+        <f t="shared" si="18"/>
+        <v>391</v>
+      </c>
+      <c r="N149" t="str">
+        <f t="shared" si="16"/>
+        <v>['144',23873,391]</v>
+      </c>
+      <c r="O149" t="str">
+        <f t="shared" si="15"/>
+        <v>['144',23873,9930]</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" si="17"/>
+        <v>145</v>
+      </c>
+      <c r="B150" s="3">
+        <v>44049</v>
+      </c>
+      <c r="C150">
+        <v>538</v>
+      </c>
+      <c r="D150">
+        <v>514</v>
+      </c>
+      <c r="E150">
+        <v>8</v>
+      </c>
+      <c r="F150" s="13">
+        <f t="shared" si="19"/>
+        <v>24411</v>
+      </c>
+      <c r="G150" s="12">
+        <f t="shared" si="18"/>
+        <v>10444</v>
+      </c>
+      <c r="H150" s="11">
+        <f t="shared" si="18"/>
+        <v>399</v>
+      </c>
+      <c r="N150" t="str">
+        <f t="shared" si="16"/>
+        <v>['145',24411,399]</v>
+      </c>
+      <c r="O150" t="str">
+        <f t="shared" si="15"/>
+        <v>['145',24411,10444]</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="17"/>
+        <v>146</v>
+      </c>
+      <c r="B151" s="3">
+        <v>44050</v>
+      </c>
+      <c r="C151">
+        <v>727</v>
+      </c>
+      <c r="D151">
+        <v>674</v>
+      </c>
+      <c r="E151">
+        <v>14</v>
+      </c>
+      <c r="F151" s="13">
+        <f t="shared" si="19"/>
+        <v>25138</v>
+      </c>
+      <c r="G151" s="12">
+        <f t="shared" si="18"/>
+        <v>11118</v>
+      </c>
+      <c r="H151" s="11">
+        <f t="shared" si="18"/>
+        <v>413</v>
+      </c>
+      <c r="N151" t="str">
+        <f t="shared" si="16"/>
+        <v>['146',25138,413]</v>
+      </c>
+      <c r="O151" t="str">
+        <f t="shared" si="15"/>
+        <v>['146',25138,11118]</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" si="17"/>
+        <v>147</v>
+      </c>
+      <c r="B152" s="3">
+        <v>44051</v>
+      </c>
+      <c r="C152">
+        <v>699</v>
+      </c>
+      <c r="D152">
+        <v>781</v>
+      </c>
+      <c r="E152">
+        <v>5</v>
+      </c>
+      <c r="F152" s="13">
+        <f t="shared" si="19"/>
+        <v>25837</v>
+      </c>
+      <c r="G152" s="12">
+        <f t="shared" si="18"/>
+        <v>11899</v>
+      </c>
+      <c r="H152" s="11">
+        <f t="shared" si="18"/>
+        <v>418</v>
+      </c>
+      <c r="N152" t="str">
+        <f t="shared" si="16"/>
+        <v>['147',25837,418]</v>
+      </c>
+      <c r="O152" t="str">
+        <f t="shared" si="15"/>
+        <v>['147',25837,11899]</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" si="17"/>
+        <v>148</v>
+      </c>
+      <c r="B153" s="3">
+        <v>44052</v>
+      </c>
+      <c r="C153">
+        <v>599</v>
+      </c>
+      <c r="D153">
+        <v>1062</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153" s="13">
+        <f t="shared" si="19"/>
+        <v>26436</v>
+      </c>
+      <c r="G153" s="12">
+        <f t="shared" si="18"/>
+        <v>12961</v>
+      </c>
+      <c r="H153" s="11">
+        <f t="shared" si="18"/>
+        <v>420</v>
+      </c>
+      <c r="N153" t="str">
+        <f t="shared" si="16"/>
+        <v>['148',26436,420]</v>
+      </c>
+      <c r="O153" t="str">
+        <f t="shared" si="15"/>
+        <v>['148',26436,12961]</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" si="17"/>
+        <v>149</v>
+      </c>
+      <c r="B154" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C154">
+        <v>492</v>
+      </c>
+      <c r="D154">
+        <v>534</v>
+      </c>
+      <c r="E154">
+        <v>3</v>
+      </c>
+      <c r="F154" s="13">
+        <f t="shared" si="19"/>
+        <v>26928</v>
+      </c>
+      <c r="G154" s="12">
+        <f t="shared" si="18"/>
+        <v>13495</v>
+      </c>
+      <c r="H154" s="11">
+        <f t="shared" si="18"/>
+        <v>423</v>
+      </c>
+      <c r="N154" t="str">
+        <f t="shared" si="16"/>
+        <v>['149',26928,423]</v>
+      </c>
+      <c r="O154" t="str">
+        <f t="shared" si="15"/>
+        <v>['149',26928,13495]</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" si="17"/>
+        <v>150</v>
+      </c>
+      <c r="B155" s="3">
+        <v>44054</v>
+      </c>
+      <c r="C155">
+        <v>497</v>
+      </c>
+      <c r="D155">
+        <v>372</v>
+      </c>
+      <c r="E155">
+        <v>15</v>
+      </c>
+      <c r="F155" s="13">
+        <f t="shared" si="19"/>
+        <v>27425</v>
+      </c>
+      <c r="G155" s="12">
+        <f t="shared" si="18"/>
+        <v>13867</v>
+      </c>
+      <c r="H155" s="11">
+        <f t="shared" si="18"/>
+        <v>438</v>
+      </c>
+      <c r="N155" t="str">
+        <f t="shared" si="16"/>
+        <v>['150',27425,438]</v>
+      </c>
+      <c r="O155" t="str">
+        <f t="shared" si="15"/>
+        <v>['150',27425,13867]</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" si="17"/>
+        <v>151</v>
+      </c>
+      <c r="B156" s="3">
+        <v>44055</v>
+      </c>
+      <c r="C156">
+        <v>679</v>
+      </c>
+      <c r="D156">
+        <v>743</v>
+      </c>
+      <c r="E156">
+        <v>18</v>
+      </c>
+      <c r="F156" s="13">
+        <f t="shared" si="19"/>
+        <v>28104</v>
+      </c>
+      <c r="G156" s="12">
+        <f t="shared" si="18"/>
+        <v>14610</v>
+      </c>
+      <c r="H156" s="11">
+        <f t="shared" si="18"/>
+        <v>456</v>
+      </c>
+      <c r="N156" t="str">
+        <f t="shared" si="16"/>
+        <v>['151',28104,456]</v>
+      </c>
+      <c r="O156" t="str">
+        <f t="shared" si="15"/>
+        <v>['151',28104,14610]</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f t="shared" si="17"/>
+        <v>152</v>
+      </c>
+      <c r="B157" s="3">
+        <v>44056</v>
+      </c>
+      <c r="C157">
+        <v>650</v>
+      </c>
+      <c r="D157">
+        <v>490</v>
+      </c>
+      <c r="E157">
+        <v>4</v>
+      </c>
+      <c r="F157" s="13">
+        <f t="shared" si="19"/>
+        <v>28754</v>
+      </c>
+      <c r="G157" s="12">
+        <f t="shared" si="18"/>
+        <v>15100</v>
+      </c>
+      <c r="H157" s="11">
+        <f t="shared" si="18"/>
+        <v>460</v>
+      </c>
+      <c r="N157" t="str">
+        <f t="shared" si="16"/>
+        <v>['152',28754,460]</v>
+      </c>
+      <c r="O157" t="str">
+        <f t="shared" si="15"/>
+        <v>['152',28754,15100]</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f t="shared" si="17"/>
+        <v>153</v>
+      </c>
+      <c r="B158" s="3">
+        <v>44057</v>
+      </c>
+      <c r="C158">
+        <v>580</v>
+      </c>
+      <c r="D158">
+        <v>198</v>
+      </c>
+      <c r="E158">
+        <v>5</v>
+      </c>
+      <c r="F158" s="13">
+        <f t="shared" si="19"/>
+        <v>29334</v>
+      </c>
+      <c r="G158" s="12">
+        <f t="shared" si="18"/>
+        <v>15298</v>
+      </c>
+      <c r="H158" s="11">
+        <f t="shared" si="18"/>
+        <v>465</v>
+      </c>
+      <c r="N158" t="str">
+        <f t="shared" si="16"/>
+        <v>['153',29334,465]</v>
+      </c>
+      <c r="O158" t="str">
+        <f t="shared" si="15"/>
+        <v>['153',29334,15298]</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f t="shared" si="17"/>
+        <v>154</v>
+      </c>
+      <c r="B159" s="3">
+        <v>44058</v>
+      </c>
+      <c r="C159">
+        <v>496</v>
+      </c>
+      <c r="D159">
+        <v>672</v>
+      </c>
+      <c r="E159">
+        <v>7</v>
+      </c>
+      <c r="F159" s="13">
+        <f>F158+C159</f>
+        <v>29830</v>
+      </c>
+      <c r="G159" s="12">
+        <f t="shared" si="18"/>
+        <v>15970</v>
+      </c>
+      <c r="H159" s="11">
+        <f t="shared" si="18"/>
+        <v>472</v>
+      </c>
+      <c r="N159" t="str">
+        <f t="shared" si="16"/>
+        <v>['154',29830,472]</v>
+      </c>
+      <c r="O159" t="str">
+        <f t="shared" si="15"/>
+        <v>['154',29830,15970]</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f t="shared" si="17"/>
+        <v>155</v>
+      </c>
+      <c r="B160" s="3">
+        <v>44059</v>
+      </c>
+      <c r="F160" s="13">
+        <f t="shared" ref="F160:H169" si="20">F159+C160</f>
+        <v>29830</v>
+      </c>
+      <c r="G160" s="12">
+        <f t="shared" si="18"/>
+        <v>15970</v>
+      </c>
+      <c r="H160" s="11">
+        <f t="shared" si="18"/>
+        <v>472</v>
+      </c>
+      <c r="N160" t="str">
+        <f t="shared" si="16"/>
+        <v>['155',29830,472]</v>
+      </c>
+      <c r="O160" t="str">
+        <f t="shared" si="15"/>
+        <v>['155',29830,15970]</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" si="17"/>
+        <v>156</v>
+      </c>
+      <c r="B161" s="3">
+        <v>44060</v>
+      </c>
+      <c r="F161" s="13">
+        <f t="shared" si="20"/>
+        <v>29830</v>
+      </c>
+      <c r="G161" s="12">
+        <f t="shared" si="20"/>
+        <v>15970</v>
+      </c>
+      <c r="H161" s="11">
+        <f t="shared" si="20"/>
+        <v>472</v>
+      </c>
+      <c r="N161" t="str">
+        <f t="shared" si="16"/>
+        <v>['156',29830,472]</v>
+      </c>
+      <c r="O161" t="str">
+        <f t="shared" si="15"/>
+        <v>['156',29830,15970]</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="17"/>
+        <v>157</v>
+      </c>
+      <c r="B162" s="3">
+        <v>44061</v>
+      </c>
+      <c r="F162" s="13">
+        <f t="shared" si="20"/>
+        <v>29830</v>
+      </c>
+      <c r="G162" s="12">
+        <f t="shared" si="20"/>
+        <v>15970</v>
+      </c>
+      <c r="H162" s="11">
+        <f t="shared" si="20"/>
+        <v>472</v>
+      </c>
+      <c r="N162" t="str">
+        <f t="shared" si="16"/>
+        <v>['157',29830,472]</v>
+      </c>
+      <c r="O162" t="str">
+        <f t="shared" si="15"/>
+        <v>['157',29830,15970]</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" si="17"/>
+        <v>158</v>
+      </c>
+      <c r="B163" s="3">
+        <v>44062</v>
+      </c>
+      <c r="F163" s="13">
+        <f t="shared" si="20"/>
+        <v>29830</v>
+      </c>
+      <c r="G163" s="12">
+        <f t="shared" si="20"/>
+        <v>15970</v>
+      </c>
+      <c r="H163" s="11">
+        <f t="shared" si="20"/>
+        <v>472</v>
+      </c>
+      <c r="N163" t="str">
+        <f t="shared" si="16"/>
+        <v>['158',29830,472]</v>
+      </c>
+      <c r="O163" t="str">
+        <f t="shared" si="15"/>
+        <v>['158',29830,15970]</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" si="17"/>
+        <v>159</v>
+      </c>
+      <c r="B164" s="3">
+        <v>44063</v>
+      </c>
+      <c r="F164" s="13">
+        <f t="shared" si="20"/>
+        <v>29830</v>
+      </c>
+      <c r="G164" s="12">
+        <f t="shared" si="20"/>
+        <v>15970</v>
+      </c>
+      <c r="H164" s="11">
+        <f t="shared" si="20"/>
+        <v>472</v>
+      </c>
+      <c r="N164" t="str">
+        <f t="shared" si="16"/>
+        <v>['159',29830,472]</v>
+      </c>
+      <c r="O164" t="str">
+        <f t="shared" si="15"/>
+        <v>['159',29830,15970]</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" si="17"/>
+        <v>160</v>
+      </c>
+      <c r="B165" s="3">
+        <v>44064</v>
+      </c>
+      <c r="F165" s="13">
+        <f t="shared" si="20"/>
+        <v>29830</v>
+      </c>
+      <c r="G165" s="12">
+        <f t="shared" si="20"/>
+        <v>15970</v>
+      </c>
+      <c r="H165" s="11">
+        <f t="shared" si="20"/>
+        <v>472</v>
+      </c>
+      <c r="N165" t="str">
+        <f t="shared" si="16"/>
+        <v>['160',29830,472]</v>
+      </c>
+      <c r="O165" t="str">
+        <f t="shared" si="15"/>
+        <v>['160',29830,15970]</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" si="17"/>
+        <v>161</v>
+      </c>
+      <c r="B166" s="3">
+        <v>44065</v>
+      </c>
+      <c r="F166" s="13">
+        <f t="shared" si="20"/>
+        <v>29830</v>
+      </c>
+      <c r="G166" s="12">
+        <f t="shared" si="20"/>
+        <v>15970</v>
+      </c>
+      <c r="H166" s="11">
+        <f t="shared" si="20"/>
+        <v>472</v>
+      </c>
+      <c r="N166" t="str">
+        <f t="shared" si="16"/>
+        <v>['161',29830,472]</v>
+      </c>
+      <c r="O166" t="str">
+        <f t="shared" si="15"/>
+        <v>['161',29830,15970]</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="17"/>
+        <v>162</v>
+      </c>
+      <c r="B167" s="3">
+        <v>44066</v>
+      </c>
+      <c r="F167" s="13">
+        <f t="shared" si="20"/>
+        <v>29830</v>
+      </c>
+      <c r="G167" s="12">
+        <f t="shared" si="20"/>
+        <v>15970</v>
+      </c>
+      <c r="H167" s="11">
+        <f t="shared" si="20"/>
+        <v>472</v>
+      </c>
+      <c r="N167" t="str">
+        <f t="shared" si="16"/>
+        <v>['162',29830,472]</v>
+      </c>
+      <c r="O167" t="str">
+        <f t="shared" si="15"/>
+        <v>['162',29830,15970]</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" si="17"/>
+        <v>163</v>
+      </c>
+      <c r="B168" s="3">
+        <v>44067</v>
+      </c>
+      <c r="F168" s="13">
+        <f t="shared" si="20"/>
+        <v>29830</v>
+      </c>
+      <c r="G168" s="12">
+        <f t="shared" si="20"/>
+        <v>15970</v>
+      </c>
+      <c r="H168" s="11">
+        <f t="shared" si="20"/>
+        <v>472</v>
+      </c>
+      <c r="N168" t="str">
+        <f t="shared" si="16"/>
+        <v>['163',29830,472]</v>
+      </c>
+      <c r="O168" t="str">
+        <f t="shared" si="15"/>
+        <v>['163',29830,15970]</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" si="17"/>
+        <v>164</v>
+      </c>
+      <c r="B169" s="3">
+        <v>44068</v>
+      </c>
+      <c r="F169" s="13">
+        <f t="shared" si="20"/>
+        <v>29830</v>
+      </c>
+      <c r="G169" s="12">
+        <f t="shared" si="20"/>
+        <v>15970</v>
+      </c>
+      <c r="H169" s="11">
+        <f t="shared" si="20"/>
+        <v>472</v>
+      </c>
+      <c r="N169" t="str">
+        <f t="shared" si="16"/>
+        <v>['164',29830,472]</v>
+      </c>
+      <c r="O169" t="str">
+        <f t="shared" si="15"/>
+        <v>['164',29830,15970]</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B171" s="3"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B172" s="3"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -661,16 +661,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>29830</c:v>
+                  <c:v>32803</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13388</c:v>
+                  <c:v>13189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15970</c:v>
+                  <c:v>19055</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>472</c:v>
+                  <c:v>559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,11 +729,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="306897880"/>
-        <c:axId val="306895920"/>
+        <c:axId val="336453800"/>
+        <c:axId val="336454184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="306897880"/>
+        <c:axId val="336453800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306895920"/>
+        <c:crossAx val="336454184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -784,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306895920"/>
+        <c:axId val="336454184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306897880"/>
+        <c:crossAx val="336453800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="J162" sqref="J162"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,19 +1874,19 @@
       </c>
       <c r="I6" s="23">
         <f>SUM(C6:C3000)</f>
-        <v>29830</v>
+        <v>32803</v>
       </c>
       <c r="J6" s="24">
         <f>I6-(K6+L6)</f>
-        <v>13388</v>
+        <v>13189</v>
       </c>
       <c r="K6" s="25">
         <f>SUM(D6:D3000)</f>
-        <v>15970</v>
+        <v>19055</v>
       </c>
       <c r="L6" s="26">
         <f>SUM(E6:E3000)</f>
-        <v>472</v>
+        <v>559</v>
       </c>
       <c r="N6" t="str">
         <f>CONCATENATE($Q$6,$R$5,"'",A6,"'",$R$5,$Q$5,F6,$Q$5,H6,$R$6)</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="K8" s="17">
         <f>(K6/I6)</f>
-        <v>0.5353670801206839</v>
+        <v>0.58089199158613547</v>
       </c>
       <c r="L8" s="17">
         <f>(L6/I6)</f>
-        <v>1.5822996982903119E-2</v>
+        <v>1.7041124287412737E-2</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
@@ -7130,7 +7130,7 @@
         <v>263</v>
       </c>
       <c r="N136" t="str">
-        <f t="shared" ref="N136:N169" si="16">CONCATENATE($Q$6,$R$5,"'",A136,"'",$R$5,$Q$5,F136,$Q$5,H136,$R$6)</f>
+        <f t="shared" ref="N136:N170" si="16">CONCATENATE($Q$6,$R$5,"'",A136,"'",$R$5,$Q$5,F136,$Q$5,H136,$R$6)</f>
         <v>['131',15601,263]</v>
       </c>
       <c r="O136" t="str">
@@ -7140,7 +7140,7 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f t="shared" ref="A137:A174" si="17">A136+1</f>
+        <f t="shared" ref="A137:A169" si="17">A136+1</f>
         <v>132</v>
       </c>
       <c r="B137" s="3">
@@ -7460,7 +7460,7 @@
         <v>23</v>
       </c>
       <c r="F145" s="13">
-        <f t="shared" ref="F145:F159" si="19">F144+C145</f>
+        <f t="shared" ref="F145:F158" si="19">F144+C145</f>
         <v>21363</v>
       </c>
       <c r="G145" s="12">
@@ -7983,7 +7983,7 @@
         <v>44058</v>
       </c>
       <c r="C159">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="D159">
         <v>672</v>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="F159" s="13">
         <f>F158+C159</f>
-        <v>29830</v>
+        <v>29849</v>
       </c>
       <c r="G159" s="12">
         <f t="shared" si="18"/>
@@ -8005,11 +8005,11 @@
       </c>
       <c r="N159" t="str">
         <f t="shared" si="16"/>
-        <v>['154',29830,472]</v>
+        <v>['154',29849,472]</v>
       </c>
       <c r="O159" t="str">
         <f t="shared" si="15"/>
-        <v>['154',29830,15970]</v>
+        <v>['154',29849,15970]</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
@@ -8020,25 +8020,34 @@
       <c r="B160" s="3">
         <v>44059</v>
       </c>
+      <c r="C160">
+        <v>271</v>
+      </c>
+      <c r="D160">
+        <v>686</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
       <c r="F160" s="13">
         <f t="shared" ref="F160:H169" si="20">F159+C160</f>
-        <v>29830</v>
+        <v>30120</v>
       </c>
       <c r="G160" s="12">
         <f t="shared" si="18"/>
-        <v>15970</v>
+        <v>16656</v>
       </c>
       <c r="H160" s="11">
         <f t="shared" si="18"/>
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="N160" t="str">
         <f t="shared" si="16"/>
-        <v>['155',29830,472]</v>
+        <v>['155',30120,474]</v>
       </c>
       <c r="O160" t="str">
         <f t="shared" si="15"/>
-        <v>['155',29830,15970]</v>
+        <v>['155',30120,16656]</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -8049,25 +8058,34 @@
       <c r="B161" s="3">
         <v>44060</v>
       </c>
+      <c r="C161">
+        <v>245</v>
+      </c>
+      <c r="D161">
+        <v>504</v>
+      </c>
+      <c r="E161">
+        <v>8</v>
+      </c>
       <c r="F161" s="13">
         <f t="shared" si="20"/>
-        <v>29830</v>
+        <v>30365</v>
       </c>
       <c r="G161" s="12">
         <f t="shared" si="20"/>
-        <v>15970</v>
+        <v>17160</v>
       </c>
       <c r="H161" s="11">
         <f t="shared" si="20"/>
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="N161" t="str">
         <f t="shared" si="16"/>
-        <v>['156',29830,472]</v>
+        <v>['156',30365,482]</v>
       </c>
       <c r="O161" t="str">
         <f t="shared" si="15"/>
-        <v>['156',29830,15970]</v>
+        <v>['156',30365,17160]</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -8078,25 +8096,34 @@
       <c r="B162" s="3">
         <v>44061</v>
       </c>
+      <c r="C162">
+        <v>271</v>
+      </c>
+      <c r="D162">
+        <v>208</v>
+      </c>
+      <c r="E162">
+        <v>5</v>
+      </c>
       <c r="F162" s="13">
         <f t="shared" si="20"/>
-        <v>29830</v>
+        <v>30636</v>
       </c>
       <c r="G162" s="12">
         <f t="shared" si="20"/>
-        <v>15970</v>
+        <v>17368</v>
       </c>
       <c r="H162" s="11">
         <f t="shared" si="20"/>
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="N162" t="str">
         <f t="shared" si="16"/>
-        <v>['157',29830,472]</v>
+        <v>['157',30636,487]</v>
       </c>
       <c r="O162" t="str">
         <f t="shared" si="15"/>
-        <v>['157',29830,15970]</v>
+        <v>['157',30636,17368]</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -8107,25 +8134,34 @@
       <c r="B163" s="3">
         <v>44062</v>
       </c>
+      <c r="C163">
+        <v>379</v>
+      </c>
+      <c r="D163">
+        <v>244</v>
+      </c>
+      <c r="E163">
+        <v>19</v>
+      </c>
       <c r="F163" s="13">
         <f t="shared" si="20"/>
-        <v>29830</v>
+        <v>31015</v>
       </c>
       <c r="G163" s="12">
         <f t="shared" si="20"/>
-        <v>15970</v>
+        <v>17612</v>
       </c>
       <c r="H163" s="11">
         <f t="shared" si="20"/>
-        <v>472</v>
+        <v>506</v>
       </c>
       <c r="N163" t="str">
         <f t="shared" si="16"/>
-        <v>['158',29830,472]</v>
+        <v>['158',31015,506]</v>
       </c>
       <c r="O163" t="str">
         <f t="shared" si="15"/>
-        <v>['158',29830,15970]</v>
+        <v>['158',31015,17612]</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -8136,25 +8172,34 @@
       <c r="B164" s="3">
         <v>44063</v>
       </c>
+      <c r="C164">
+        <v>426</v>
+      </c>
+      <c r="D164">
+        <v>257</v>
+      </c>
+      <c r="E164">
+        <v>10</v>
+      </c>
       <c r="F164" s="13">
         <f t="shared" si="20"/>
-        <v>29830</v>
+        <v>31441</v>
       </c>
       <c r="G164" s="12">
         <f t="shared" si="20"/>
-        <v>15970</v>
+        <v>17869</v>
       </c>
       <c r="H164" s="11">
         <f t="shared" si="20"/>
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="N164" t="str">
         <f t="shared" si="16"/>
-        <v>['159',29830,472]</v>
+        <v>['159',31441,516]</v>
       </c>
       <c r="O164" t="str">
         <f t="shared" si="15"/>
-        <v>['159',29830,15970]</v>
+        <v>['159',31441,17869]</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -8165,25 +8210,34 @@
       <c r="B165" s="3">
         <v>44064</v>
       </c>
+      <c r="C165">
+        <v>322</v>
+      </c>
+      <c r="D165">
+        <v>288</v>
+      </c>
+      <c r="E165">
+        <v>16</v>
+      </c>
       <c r="F165" s="13">
         <f t="shared" si="20"/>
-        <v>29830</v>
+        <v>31763</v>
       </c>
       <c r="G165" s="12">
         <f t="shared" si="20"/>
-        <v>15970</v>
+        <v>18157</v>
       </c>
       <c r="H165" s="11">
         <f t="shared" si="20"/>
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="N165" t="str">
         <f t="shared" si="16"/>
-        <v>['160',29830,472]</v>
+        <v>['160',31763,532]</v>
       </c>
       <c r="O165" t="str">
         <f t="shared" si="15"/>
-        <v>['160',29830,15970]</v>
+        <v>['160',31763,18157]</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -8194,25 +8248,34 @@
       <c r="B166" s="3">
         <v>44065</v>
       </c>
+      <c r="C166">
+        <v>355</v>
+      </c>
+      <c r="D166">
+        <v>296</v>
+      </c>
+      <c r="E166">
+        <v>10</v>
+      </c>
       <c r="F166" s="13">
         <f t="shared" si="20"/>
-        <v>29830</v>
+        <v>32118</v>
       </c>
       <c r="G166" s="12">
         <f t="shared" si="20"/>
-        <v>15970</v>
+        <v>18453</v>
       </c>
       <c r="H166" s="11">
         <f t="shared" si="20"/>
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="N166" t="str">
         <f t="shared" si="16"/>
-        <v>['161',29830,472]</v>
+        <v>['161',32118,542]</v>
       </c>
       <c r="O166" t="str">
         <f t="shared" si="15"/>
-        <v>['161',29830,15970]</v>
+        <v>['161',32118,18453]</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -8223,25 +8286,34 @@
       <c r="B167" s="3">
         <v>44066</v>
       </c>
+      <c r="C167">
+        <v>246</v>
+      </c>
+      <c r="D167">
+        <v>217</v>
+      </c>
+      <c r="E167">
+        <v>6</v>
+      </c>
       <c r="F167" s="13">
         <f t="shared" si="20"/>
-        <v>29830</v>
+        <v>32364</v>
       </c>
       <c r="G167" s="12">
         <f t="shared" si="20"/>
-        <v>15970</v>
+        <v>18670</v>
       </c>
       <c r="H167" s="11">
         <f t="shared" si="20"/>
-        <v>472</v>
+        <v>548</v>
       </c>
       <c r="N167" t="str">
         <f t="shared" si="16"/>
-        <v>['162',29830,472]</v>
+        <v>['162',32364,548]</v>
       </c>
       <c r="O167" t="str">
         <f t="shared" si="15"/>
-        <v>['162',29830,15970]</v>
+        <v>['162',32364,18670]</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -8252,25 +8324,34 @@
       <c r="B168" s="3">
         <v>44067</v>
       </c>
+      <c r="C168">
+        <v>193</v>
+      </c>
+      <c r="D168">
+        <v>225</v>
+      </c>
+      <c r="E168">
+        <v>6</v>
+      </c>
       <c r="F168" s="13">
         <f t="shared" si="20"/>
-        <v>29830</v>
+        <v>32557</v>
       </c>
       <c r="G168" s="12">
         <f t="shared" si="20"/>
-        <v>15970</v>
+        <v>18895</v>
       </c>
       <c r="H168" s="11">
         <f t="shared" si="20"/>
-        <v>472</v>
+        <v>554</v>
       </c>
       <c r="N168" t="str">
         <f t="shared" si="16"/>
-        <v>['163',29830,472]</v>
+        <v>['163',32557,554]</v>
       </c>
       <c r="O168" t="str">
         <f t="shared" si="15"/>
-        <v>['163',29830,15970]</v>
+        <v>['163',32557,18895]</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -8281,25 +8362,34 @@
       <c r="B169" s="3">
         <v>44068</v>
       </c>
+      <c r="C169">
+        <v>246</v>
+      </c>
+      <c r="D169">
+        <v>160</v>
+      </c>
+      <c r="E169">
+        <v>5</v>
+      </c>
       <c r="F169" s="13">
         <f t="shared" si="20"/>
-        <v>29830</v>
+        <v>32803</v>
       </c>
       <c r="G169" s="12">
         <f t="shared" si="20"/>
-        <v>15970</v>
+        <v>19055</v>
       </c>
       <c r="H169" s="11">
         <f t="shared" si="20"/>
-        <v>472</v>
+        <v>559</v>
       </c>
       <c r="N169" t="str">
         <f t="shared" si="16"/>
-        <v>['164',29830,472]</v>
+        <v>['164',32803,559]</v>
       </c>
       <c r="O169" t="str">
         <f t="shared" si="15"/>
-        <v>['164',29830,15970]</v>
+        <v>['164',32803,19055]</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">

--- a/Recordsfiles/Covod-19 data.xlsx
+++ b/Recordsfiles/Covod-19 data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -661,16 +661,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>32803</c:v>
+                  <c:v>34057</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13189</c:v>
+                  <c:v>13795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19055</c:v>
+                  <c:v>19688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>559</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,11 +729,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="336453800"/>
-        <c:axId val="336454184"/>
+        <c:axId val="336512624"/>
+        <c:axId val="340140248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="336453800"/>
+        <c:axId val="336512624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336454184"/>
+        <c:crossAx val="340140248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -784,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="336454184"/>
+        <c:axId val="340140248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336453800"/>
+        <c:crossAx val="336512624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:Q2"/>
+    <sheetView tabSelected="1" topLeftCell="D163" workbookViewId="0">
+      <selection activeCell="J174" sqref="J174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,19 +1874,19 @@
       </c>
       <c r="I6" s="23">
         <f>SUM(C6:C3000)</f>
-        <v>32803</v>
+        <v>34057</v>
       </c>
       <c r="J6" s="24">
         <f>I6-(K6+L6)</f>
-        <v>13189</v>
+        <v>13795</v>
       </c>
       <c r="K6" s="25">
         <f>SUM(D6:D3000)</f>
-        <v>19055</v>
+        <v>19688</v>
       </c>
       <c r="L6" s="26">
         <f>SUM(E6:E3000)</f>
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="N6" t="str">
         <f>CONCATENATE($Q$6,$R$5,"'",A6,"'",$R$5,$Q$5,F6,$Q$5,H6,$R$6)</f>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="K8" s="17">
         <f>(K6/I6)</f>
-        <v>0.58089199158613547</v>
+        <v>0.57808967319493787</v>
       </c>
       <c r="L8" s="17">
         <f>(L6/I6)</f>
-        <v>1.7041124287412737E-2</v>
+        <v>1.6854097542355465E-2</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
@@ -6282,7 +6282,7 @@
         <v>['108',6366,148]</v>
       </c>
       <c r="O113" t="str">
-        <f t="shared" ref="O113:O169" si="15">CONCATENATE($Q$6,$R$5,"'",A113,"'",$R$5,$Q$5,F113,$Q$5,G113,$R$6)</f>
+        <f t="shared" ref="O113:O174" si="15">CONCATENATE($Q$6,$R$5,"'",A113,"'",$R$5,$Q$5,F113,$Q$5,G113,$R$6)</f>
         <v>['108',6366,2039]</v>
       </c>
     </row>
@@ -7130,7 +7130,7 @@
         <v>263</v>
       </c>
       <c r="N136" t="str">
-        <f t="shared" ref="N136:N170" si="16">CONCATENATE($Q$6,$R$5,"'",A136,"'",$R$5,$Q$5,F136,$Q$5,H136,$R$6)</f>
+        <f t="shared" ref="N136:N174" si="16">CONCATENATE($Q$6,$R$5,"'",A136,"'",$R$5,$Q$5,F136,$Q$5,H136,$R$6)</f>
         <v>['131',15601,263]</v>
       </c>
       <c r="O136" t="str">
@@ -7140,7 +7140,7 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f t="shared" ref="A137:A169" si="17">A136+1</f>
+        <f t="shared" ref="A137:A174" si="17">A136+1</f>
         <v>132</v>
       </c>
       <c r="B137" s="3">
@@ -8030,7 +8030,7 @@
         <v>2</v>
       </c>
       <c r="F160" s="13">
-        <f t="shared" ref="F160:H169" si="20">F159+C160</f>
+        <f t="shared" ref="F160:H174" si="20">F159+C160</f>
         <v>30120</v>
       </c>
       <c r="G160" s="12">
@@ -8393,19 +8393,194 @@
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B170" s="3"/>
+      <c r="A170">
+        <f t="shared" si="17"/>
+        <v>165</v>
+      </c>
+      <c r="B170" s="3">
+        <v>44069</v>
+      </c>
+      <c r="C170">
+        <v>213</v>
+      </c>
+      <c r="D170">
+        <v>241</v>
+      </c>
+      <c r="E170">
+        <v>5</v>
+      </c>
+      <c r="F170" s="13">
+        <f t="shared" si="20"/>
+        <v>33016</v>
+      </c>
+      <c r="G170" s="12">
+        <f t="shared" si="20"/>
+        <v>19296</v>
+      </c>
+      <c r="H170" s="11">
+        <f t="shared" si="20"/>
+        <v>564</v>
+      </c>
+      <c r="N170" t="str">
+        <f t="shared" si="16"/>
+        <v>['165',33016,564]</v>
+      </c>
+      <c r="O170" t="str">
+        <f t="shared" si="15"/>
+        <v>['165',33016,19296]</v>
+      </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B171" s="3"/>
+      <c r="A171">
+        <f t="shared" si="17"/>
+        <v>166</v>
+      </c>
+      <c r="B171" s="3">
+        <v>44070</v>
+      </c>
+      <c r="C171">
+        <v>373</v>
+      </c>
+      <c r="D171">
+        <v>72</v>
+      </c>
+      <c r="E171">
+        <v>3</v>
+      </c>
+      <c r="F171" s="13">
+        <f t="shared" si="20"/>
+        <v>33389</v>
+      </c>
+      <c r="G171" s="12">
+        <f t="shared" si="20"/>
+        <v>19368</v>
+      </c>
+      <c r="H171" s="11">
+        <f t="shared" si="20"/>
+        <v>567</v>
+      </c>
+      <c r="N171" t="str">
+        <f t="shared" si="16"/>
+        <v>['166',33389,567]</v>
+      </c>
+      <c r="O171" t="str">
+        <f t="shared" si="15"/>
+        <v>['166',33389,19368]</v>
+      </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B172" s="3"/>
+      <c r="A172">
+        <f t="shared" si="17"/>
+        <v>167</v>
+      </c>
+      <c r="B172" s="3">
+        <v>44071</v>
+      </c>
+      <c r="C172">
+        <v>241</v>
+      </c>
+      <c r="D172">
+        <v>66</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172" s="13">
+        <f t="shared" si="20"/>
+        <v>33630</v>
+      </c>
+      <c r="G172" s="12">
+        <f t="shared" si="20"/>
+        <v>19434</v>
+      </c>
+      <c r="H172" s="11">
+        <f t="shared" si="20"/>
+        <v>567</v>
+      </c>
+      <c r="N172" t="str">
+        <f t="shared" si="16"/>
+        <v>['167',33630,567]</v>
+      </c>
+      <c r="O172" t="str">
+        <f t="shared" si="15"/>
+        <v>['167',33630,19434]</v>
+      </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B173" s="3"/>
+      <c r="A173">
+        <f t="shared" si="17"/>
+        <v>168</v>
+      </c>
+      <c r="B173" s="3">
+        <v>44072</v>
+      </c>
+      <c r="C173">
+        <v>164</v>
+      </c>
+      <c r="D173">
+        <v>156</v>
+      </c>
+      <c r="E173">
+        <v>5</v>
+      </c>
+      <c r="F173" s="13">
+        <f t="shared" si="20"/>
+        <v>33794</v>
+      </c>
+      <c r="G173" s="12">
+        <f t="shared" si="20"/>
+        <v>19590</v>
+      </c>
+      <c r="H173" s="11">
+        <f t="shared" si="20"/>
+        <v>572</v>
+      </c>
+      <c r="N173" t="str">
+        <f t="shared" si="16"/>
+        <v>['168',33794,572]</v>
+      </c>
+      <c r="O173" t="str">
+        <f t="shared" si="15"/>
+        <v>['168',33794,19590]</v>
+      </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B174" s="3"/>
+      <c r="A174">
+        <f t="shared" si="17"/>
+        <v>169</v>
+      </c>
+      <c r="B174" s="3">
+        <v>44073</v>
+      </c>
+      <c r="C174">
+        <v>263</v>
+      </c>
+      <c r="D174">
+        <v>98</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174" s="13">
+        <f t="shared" si="20"/>
+        <v>34057</v>
+      </c>
+      <c r="G174" s="12">
+        <f t="shared" si="20"/>
+        <v>19688</v>
+      </c>
+      <c r="H174" s="11">
+        <f t="shared" si="20"/>
+        <v>574</v>
+      </c>
+      <c r="N174" t="str">
+        <f t="shared" si="16"/>
+        <v>['169',34057,574]</v>
+      </c>
+      <c r="O174" t="str">
+        <f t="shared" si="15"/>
+        <v>['169',34057,19688]</v>
+      </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
